--- a/625_words/data_set_flashcards.xlsx
+++ b/625_words/data_set_flashcards.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NAPO\Desktop\languages_anki\625_words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07B8C44-5E20-4CC8-B047-BCC32042DACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4765276-B201-4AF7-B068-60E0B3562457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1492,9 +1492,6 @@
     <t>husband</t>
   </si>
   <si>
-    <t>&lt;img src="I.jpg"&gt;</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -5309,6 +5306,9 @@
   </si>
   <si>
     <t>mañana</t>
+  </si>
+  <si>
+    <t>&lt;img src="i.jpg"&gt;</t>
   </si>
 </sst>
 </file>
@@ -5571,8 +5571,8 @@
   </sheetPr>
   <dimension ref="A1:D616"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="C337" sqref="C337"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5603,7 +5603,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""pt"")"),"adjetivo")</f>
@@ -5618,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""pt"")"),"adulto")</f>
@@ -5633,7 +5633,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""pt"")"),"tarde")</f>
@@ -5648,7 +5648,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""pt"")"),"ar")</f>
@@ -5663,7 +5663,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""pt"")"),"aeroporto")</f>
@@ -5678,7 +5678,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D7" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""pt"")"),"vivo")</f>
@@ -5708,7 +5708,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""pt"")"),"apartamento")</f>
@@ -5723,7 +5723,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""pt"")"),"maçã")</f>
@@ -5732,13 +5732,13 @@
     </row>
     <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""pt"")"),"abril")</f>
@@ -5753,7 +5753,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D12" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""pt"")"),"braço")</f>
@@ -5768,7 +5768,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""pt"")"),"exército")</f>
@@ -5783,7 +5783,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D14" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""pt"")"),"arte")</f>
@@ -5798,7 +5798,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D15" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""pt"")"),"artista")</f>
@@ -5813,7 +5813,7 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D16" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""pt"")"),"ataque")</f>
@@ -5822,13 +5822,13 @@
     </row>
     <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""pt"")"),"agosto")</f>
@@ -5843,7 +5843,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""pt"")"),"autor")</f>
@@ -5858,7 +5858,7 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D19" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""pt"")"),"bebê")</f>
@@ -5873,7 +5873,7 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D20" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""pt"")"),"costas")</f>
@@ -5888,7 +5888,7 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D21" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""pt"")"),"costas")</f>
@@ -5903,7 +5903,7 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""pt"")"),"mau")</f>
@@ -5918,7 +5918,7 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D23" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""pt"")"),"saco")</f>
@@ -5933,7 +5933,7 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D24" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""pt"")"),"bola")</f>
@@ -5948,7 +5948,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D25" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""pt"")"),"banana")</f>
@@ -5963,7 +5963,7 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D26" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""pt"")"),"banda")</f>
@@ -5978,7 +5978,7 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D27" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""pt"")"),"banco")</f>
@@ -6008,7 +6008,7 @@
         <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D29" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""pt"")"),"banheiro")</f>
@@ -6023,7 +6023,7 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D30" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""pt"")"),"de praia")</f>
@@ -6038,7 +6038,7 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D31" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""pt"")"),"barba")</f>
@@ -6053,7 +6053,7 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D32" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""pt"")"),"batida")</f>
@@ -6068,7 +6068,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D33" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""pt"")"),"lindo")</f>
@@ -6083,7 +6083,7 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D34" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""pt"")"),"cama")</f>
@@ -6098,7 +6098,7 @@
         <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D35" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""pt"")"),"quarto")</f>
@@ -6113,7 +6113,7 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""pt"")"),"carne")</f>
@@ -6128,7 +6128,7 @@
         <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D37" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""pt"")"),"Cerveja")</f>
@@ -6143,7 +6143,7 @@
         <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D38" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""pt"")"),"dobrar")</f>
@@ -6158,7 +6158,7 @@
         <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D39" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""pt"")"),"bebida")</f>
@@ -6173,7 +6173,7 @@
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D40" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""pt"")"),"bicicleta")</f>
@@ -6188,7 +6188,7 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D41" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""pt"")"),"grande")</f>
@@ -6203,7 +6203,7 @@
         <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D42" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""pt"")"),"conta")</f>
@@ -6218,7 +6218,7 @@
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D43" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""pt"")"),"bilhão")</f>
@@ -6233,7 +6233,7 @@
         <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D44" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""pt"")"),"pássaro")</f>
@@ -6248,7 +6248,7 @@
         <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D45" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""pt"")"),"Preto")</f>
@@ -6263,7 +6263,7 @@
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D46" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""pt"")"),"cego")</f>
@@ -6278,7 +6278,7 @@
         <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D47" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""pt"")"),"sangue")</f>
@@ -6293,7 +6293,7 @@
         <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D48" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""pt"")"),"azul")</f>
@@ -6308,7 +6308,7 @@
         <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D49" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""pt"")"),"barco")</f>
@@ -6323,7 +6323,7 @@
         <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D50" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""pt"")"),"corpo")</f>
@@ -6338,7 +6338,7 @@
         <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D51" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""pt"")"),"osso")</f>
@@ -6353,7 +6353,7 @@
         <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D52" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""pt"")"),"livro")</f>
@@ -6368,7 +6368,7 @@
         <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D53" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""pt"")"),"garrafa")</f>
@@ -6383,7 +6383,7 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D54" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""pt"")"),"inferior")</f>
@@ -6398,7 +6398,7 @@
         <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D55" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""pt"")"),"caixa")</f>
@@ -6413,7 +6413,7 @@
         <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D56" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""pt"")"),"Garoto")</f>
@@ -6428,7 +6428,7 @@
         <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D57" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""pt"")"),"cérebro")</f>
@@ -6443,7 +6443,7 @@
         <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D58" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""pt"")"),"pão")</f>
@@ -6458,7 +6458,7 @@
         <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D59" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""pt"")"),"quebrar")</f>
@@ -6473,7 +6473,7 @@
         <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D60" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""pt"")"),"café da manhã")</f>
@@ -6488,7 +6488,7 @@
         <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D61" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""pt"")"),"ponte")</f>
@@ -6503,7 +6503,7 @@
         <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D62" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""pt"")"),"irmão")</f>
@@ -6518,7 +6518,7 @@
         <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D63" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""pt"")"),"Castanho")</f>
@@ -6533,7 +6533,7 @@
         <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D64" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""pt"")"),"Construir")</f>
@@ -6548,7 +6548,7 @@
         <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D65" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""pt"")"),"construção")</f>
@@ -6563,7 +6563,7 @@
         <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D66" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""pt"")"),"queimar")</f>
@@ -6578,7 +6578,7 @@
         <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D67" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""pt"")"),"ônibus")</f>
@@ -6593,7 +6593,7 @@
         <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D68" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B68, ""en"", ""pt"")"),"Comprar")</f>
@@ -6608,7 +6608,7 @@
         <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D69" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B69, ""en"", ""pt"")"),"bolo")</f>
@@ -6623,7 +6623,7 @@
         <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D70" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B70, ""en"", ""pt"")"),"ligar")</f>
@@ -6638,7 +6638,7 @@
         <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D71" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B71, ""en"", ""pt"")"),"Câmera")</f>
@@ -6653,7 +6653,7 @@
         <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D72" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""pt"")"),"acampamento")</f>
@@ -6668,7 +6668,7 @@
         <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D73" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B73, ""en"", ""pt"")"),"carro")</f>
@@ -6683,7 +6683,7 @@
         <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D74" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B74, ""en"", ""pt"")"),"cartão")</f>
@@ -6698,7 +6698,7 @@
         <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D75" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B75, ""en"", ""pt"")"),"carry")</f>
@@ -6713,7 +6713,7 @@
         <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D76" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B76, ""en"", ""pt"")"),"gato")</f>
@@ -6728,7 +6728,7 @@
         <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D77" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B77, ""en"", ""pt"")"),"pegar")</f>
@@ -6743,7 +6743,7 @@
         <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D78" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""pt"")"),"teto")</f>
@@ -6758,7 +6758,7 @@
         <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D79" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B79, ""en"", ""pt"")"),"célula")</f>
@@ -6773,7 +6773,7 @@
         <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D80" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B80, ""en"", ""pt"")"),"centímetro")</f>
@@ -6788,7 +6788,7 @@
         <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D81" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""pt"")"),"cadeira")</f>
@@ -6803,7 +6803,7 @@
         <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D82" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B82, ""en"", ""pt"")"),"barato")</f>
@@ -6818,7 +6818,7 @@
         <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D83" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B83, ""en"", ""pt"")"),"queijo")</f>
@@ -6833,7 +6833,7 @@
         <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D84" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B84, ""en"", ""pt"")"),"frango")</f>
@@ -6848,7 +6848,7 @@
         <v>165</v>
       </c>
       <c r="C85" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D85" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B85, ""en"", ""pt"")"),"criança")</f>
@@ -6863,7 +6863,7 @@
         <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D86" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B86, ""en"", ""pt"")"),"Igreja")</f>
@@ -6878,7 +6878,7 @@
         <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D87" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B87, ""en"", ""pt"")"),"círculo")</f>
@@ -6893,7 +6893,7 @@
         <v>171</v>
       </c>
       <c r="C88" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D88" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B88, ""en"", ""pt"")"),"cidade")</f>
@@ -6908,7 +6908,7 @@
         <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D89" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B89, ""en"", ""pt"")"),"argila")</f>
@@ -6923,7 +6923,7 @@
         <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D90" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B90, ""en"", ""pt"")"),"limpar \ limpo")</f>
@@ -6938,7 +6938,7 @@
         <v>175</v>
       </c>
       <c r="C91" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D91" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B91, ""en"", ""pt"")"),"limpar \ limpo")</f>
@@ -6953,7 +6953,7 @@
         <v>177</v>
       </c>
       <c r="C92" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D92" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B92, ""en"", ""pt"")"),"relógio")</f>
@@ -6968,7 +6968,7 @@
         <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D93" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B93, ""en"", ""pt"")"),"fechar")</f>
@@ -6983,7 +6983,7 @@
         <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D94" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B94, ""en"", ""pt"")"),"roupas")</f>
@@ -7013,7 +7013,7 @@
         <v>185</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D96" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B96, ""en"", ""pt"")"),"casaco")</f>
@@ -7028,7 +7028,7 @@
         <v>187</v>
       </c>
       <c r="C97" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D97" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B97, ""en"", ""pt"")"),"café")</f>
@@ -7043,7 +7043,7 @@
         <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D98" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B98, ""en"", ""pt"")"),"frio")</f>
@@ -7073,7 +7073,7 @@
         <v>193</v>
       </c>
       <c r="C100" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D100" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B100, ""en"", ""pt"")"),"computador")</f>
@@ -7088,7 +7088,7 @@
         <v>195</v>
       </c>
       <c r="C101" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D101" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B101, ""en"", ""pt"")"),"consoante")</f>
@@ -7103,7 +7103,7 @@
         <v>197</v>
       </c>
       <c r="C102" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D102" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B102, ""en"", ""pt"")"),"contrato")</f>
@@ -7118,7 +7118,7 @@
         <v>199</v>
       </c>
       <c r="C103" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D103" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B103, ""en"", ""pt"")"),"cozinhar")</f>
@@ -7133,7 +7133,7 @@
         <v>201</v>
       </c>
       <c r="C104" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D104" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B104, ""en"", ""pt"")"),"legal")</f>
@@ -7148,7 +7148,7 @@
         <v>203</v>
       </c>
       <c r="C105" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D105" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B105, ""en"", ""pt"")"),"cobre")</f>
@@ -7163,7 +7163,7 @@
         <v>205</v>
       </c>
       <c r="C106" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D106" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B106, ""en"", ""pt"")"),"milho")</f>
@@ -7178,7 +7178,7 @@
         <v>207</v>
       </c>
       <c r="C107" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D107" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B107, ""en"", ""pt"")"),"canto")</f>
@@ -7193,7 +7193,7 @@
         <v>209</v>
       </c>
       <c r="C108" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D108" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B108, ""en"", ""pt"")"),"contagem")</f>
@@ -7208,7 +7208,7 @@
         <v>211</v>
       </c>
       <c r="C109" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D109" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B109, ""en"", ""pt"")"),"país")</f>
@@ -7223,7 +7223,7 @@
         <v>213</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D110" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B110, ""en"", ""pt"")"),"quadra")</f>
@@ -7238,7 +7238,7 @@
         <v>215</v>
       </c>
       <c r="C111" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D111" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B111, ""en"", ""pt"")"),"vaca")</f>
@@ -7253,7 +7253,7 @@
         <v>217</v>
       </c>
       <c r="C112" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D112" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B112, ""en"", ""pt"")"),"multidão")</f>
@@ -7268,7 +7268,7 @@
         <v>219</v>
       </c>
       <c r="C113" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D113" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B113, ""en"", ""pt"")"),"choro")</f>
@@ -7283,7 +7283,7 @@
         <v>221</v>
       </c>
       <c r="C114" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D114" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B114, ""en"", ""pt"")"),"copo")</f>
@@ -7298,7 +7298,7 @@
         <v>223</v>
       </c>
       <c r="C115" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D115" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B115, ""en"", ""pt"")"),"curvado")</f>
@@ -7313,7 +7313,7 @@
         <v>225</v>
       </c>
       <c r="C116" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D116" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B116, ""en"", ""pt"")"),"cortar")</f>
@@ -7328,7 +7328,7 @@
         <v>227</v>
       </c>
       <c r="C117" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D117" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B117, ""en"", ""pt"")"),"dança")</f>
@@ -7343,7 +7343,7 @@
         <v>229</v>
       </c>
       <c r="C118" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D118" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B118, ""en"", ""pt"")"),"Sombrio")</f>
@@ -7358,7 +7358,7 @@
         <v>231</v>
       </c>
       <c r="C119" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D119" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B119, ""en"", ""pt"")"),"encontro")</f>
@@ -7373,7 +7373,7 @@
         <v>233</v>
       </c>
       <c r="C120" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D120" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B120, ""en"", ""pt"")"),"filha")</f>
@@ -7388,7 +7388,7 @@
         <v>235</v>
       </c>
       <c r="C121" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D121" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B121, ""en"", ""pt"")"),"dia")</f>
@@ -7403,7 +7403,7 @@
         <v>237</v>
       </c>
       <c r="C122" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D122" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B122, ""en"", ""pt"")"),"morto")</f>
@@ -7418,7 +7418,7 @@
         <v>239</v>
       </c>
       <c r="C123" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D123" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B123, ""en"", ""pt"")"),"surdo")</f>
@@ -7433,7 +7433,7 @@
         <v>241</v>
       </c>
       <c r="C124" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D124" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B124, ""en"", ""pt"")"),"morte")</f>
@@ -7442,13 +7442,13 @@
     </row>
     <row r="125" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B125" t="s">
         <v>242</v>
       </c>
       <c r="C125" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D125" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B125, ""en"", ""pt"")"),"dezembro")</f>
@@ -7463,7 +7463,7 @@
         <v>244</v>
       </c>
       <c r="C126" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D126" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B126, ""en"", ""pt"")"),"profundo")</f>
@@ -7478,7 +7478,7 @@
         <v>246</v>
       </c>
       <c r="C127" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D127" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B127, ""en"", ""pt"")"),"diamante")</f>
@@ -7493,7 +7493,7 @@
         <v>248</v>
       </c>
       <c r="C128" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D128" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B128, ""en"", ""pt"")"),"morrer")</f>
@@ -7508,7 +7508,7 @@
         <v>250</v>
       </c>
       <c r="C129" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D129" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B129, ""en"", ""pt"")"),"escavação")</f>
@@ -7523,7 +7523,7 @@
         <v>252</v>
       </c>
       <c r="C130" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D130" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B130, ""en"", ""pt"")"),"jantar")</f>
@@ -7538,7 +7538,7 @@
         <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D131" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B131, ""en"", ""pt"")"),"direção")</f>
@@ -7553,7 +7553,7 @@
         <v>256</v>
       </c>
       <c r="C132" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D132" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B132, ""en"", ""pt"")"),"sujo")</f>
@@ -7568,7 +7568,7 @@
         <v>258</v>
       </c>
       <c r="C133" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D133" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B133, ""en"", ""pt"")"),"doença")</f>
@@ -7598,7 +7598,7 @@
         <v>262</v>
       </c>
       <c r="C135" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D135" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B135, ""en"", ""pt"")"),"cão")</f>
@@ -7613,7 +7613,7 @@
         <v>264</v>
       </c>
       <c r="C136" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D136" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B136, ""en"", ""pt"")"),"dólar")</f>
@@ -7628,7 +7628,7 @@
         <v>266</v>
       </c>
       <c r="C137" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D137" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B137, ""en"", ""pt"")"),"porta")</f>
@@ -7643,7 +7643,7 @@
         <v>268</v>
       </c>
       <c r="C138" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D138" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B138, ""en"", ""pt"")"),"ponto")</f>
@@ -7658,7 +7658,7 @@
         <v>270</v>
       </c>
       <c r="C139" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D139" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B139, ""en"", ""pt"")"),"baixa")</f>
@@ -7673,7 +7673,7 @@
         <v>270</v>
       </c>
       <c r="C140" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D140" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B140, ""en"", ""pt"")"),"baixa")</f>
@@ -7688,7 +7688,7 @@
         <v>272</v>
       </c>
       <c r="C141" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D141" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B141, ""en"", ""pt"")"),"desenhar")</f>
@@ -7703,7 +7703,7 @@
         <v>274</v>
       </c>
       <c r="C142" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D142" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B142, ""en"", ""pt"")"),"Sonhe")</f>
@@ -7718,7 +7718,7 @@
         <v>276</v>
       </c>
       <c r="C143" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D143" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B143, ""en"", ""pt"")"),"vestir")</f>
@@ -7733,7 +7733,7 @@
         <v>278</v>
       </c>
       <c r="C144" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D144" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B144, ""en"", ""pt"")"),"bebida")</f>
@@ -7748,7 +7748,7 @@
         <v>280</v>
       </c>
       <c r="C145" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D145" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B145, ""en"", ""pt"")"),"dirigir")</f>
@@ -7763,7 +7763,7 @@
         <v>282</v>
       </c>
       <c r="C146" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D146" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B146, ""en"", ""pt"")"),"medicamento")</f>
@@ -7778,7 +7778,7 @@
         <v>284</v>
       </c>
       <c r="C147" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D147" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B147, ""en"", ""pt"")"),"seco")</f>
@@ -7793,7 +7793,7 @@
         <v>286</v>
       </c>
       <c r="C148" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D148" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B148, ""en"", ""pt"")"),"poeira")</f>
@@ -7808,7 +7808,7 @@
         <v>288</v>
       </c>
       <c r="C149" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D149" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B149, ""en"", ""pt"")"),"orelha")</f>
@@ -7823,7 +7823,7 @@
         <v>290</v>
       </c>
       <c r="C150" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D150" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B150, ""en"", ""pt"")"),"terra")</f>
@@ -7838,7 +7838,7 @@
         <v>291</v>
       </c>
       <c r="C151" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D151" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B151, ""en"", ""pt"")"),"Terra")</f>
@@ -7853,7 +7853,7 @@
         <v>293</v>
       </c>
       <c r="C152" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D152" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B152, ""en"", ""pt"")"),"leste")</f>
@@ -7868,7 +7868,7 @@
         <v>295</v>
       </c>
       <c r="C153" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D153" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B153, ""en"", ""pt"")"),"comer")</f>
@@ -7883,7 +7883,7 @@
         <v>297</v>
       </c>
       <c r="C154" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D154" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B154, ""en"", ""pt"")"),"Beira")</f>
@@ -7898,7 +7898,7 @@
         <v>299</v>
       </c>
       <c r="C155" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D155" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B155, ""en"", ""pt"")"),"ovo")</f>
@@ -7913,7 +7913,7 @@
         <v>301</v>
       </c>
       <c r="C156" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D156" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B156, ""en"", ""pt"")"),"oito")</f>
@@ -7928,7 +7928,7 @@
         <v>303</v>
       </c>
       <c r="C157" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D157" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B157, ""en"", ""pt"")"),"dezoito")</f>
@@ -7943,7 +7943,7 @@
         <v>305</v>
       </c>
       <c r="C158" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D158" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B158, ""en"", ""pt"")"),"oitenta")</f>
@@ -7958,7 +7958,7 @@
         <v>307</v>
       </c>
       <c r="C159" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D159" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B159, ""en"", ""pt"")"),"eleição")</f>
@@ -7973,7 +7973,7 @@
         <v>309</v>
       </c>
       <c r="C160" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D160" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B160, ""en"", ""pt"")"),"eletrônicos")</f>
@@ -7988,7 +7988,7 @@
         <v>311</v>
       </c>
       <c r="C161" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D161" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B161, ""en"", ""pt"")"),"onze")</f>
@@ -8003,7 +8003,7 @@
         <v>313</v>
       </c>
       <c r="C162" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D162" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B162, ""en"", ""pt"")"),"energia")</f>
@@ -8018,7 +8018,7 @@
         <v>315</v>
       </c>
       <c r="C163" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D163" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B163, ""en"", ""pt"")"),"motor")</f>
@@ -8033,7 +8033,7 @@
         <v>317</v>
       </c>
       <c r="C164" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D164" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B164, ""en"", ""pt"")"),"tarde")</f>
@@ -8048,7 +8048,7 @@
         <v>319</v>
       </c>
       <c r="C165" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D165" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B165, ""en"", ""pt"")"),"exercício")</f>
@@ -8063,7 +8063,7 @@
         <v>321</v>
       </c>
       <c r="C166" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D166" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B166, ""en"", ""pt"")"),"caro")</f>
@@ -8078,7 +8078,7 @@
         <v>323</v>
       </c>
       <c r="C167" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D167" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B167, ""en"", ""pt"")"),"explodir")</f>
@@ -8093,7 +8093,7 @@
         <v>325</v>
       </c>
       <c r="C168" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D168" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B168, ""en"", ""pt"")"),"olho")</f>
@@ -8108,7 +8108,7 @@
         <v>327</v>
       </c>
       <c r="C169" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D169" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B169, ""en"", ""pt"")"),"cara")</f>
@@ -8123,7 +8123,7 @@
         <v>329</v>
       </c>
       <c r="C170" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D170" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B170, ""en"", ""pt"")"),"cair")</f>
@@ -8138,7 +8138,7 @@
         <v>329</v>
       </c>
       <c r="C171" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D171" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B171, ""en"", ""pt"")"),"cair")</f>
@@ -8153,7 +8153,7 @@
         <v>331</v>
       </c>
       <c r="C172" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D172" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B172, ""en"", ""pt"")"),"família")</f>
@@ -8168,7 +8168,7 @@
         <v>333</v>
       </c>
       <c r="C173" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D173" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B173, ""en"", ""pt"")"),"famoso")</f>
@@ -8183,7 +8183,7 @@
         <v>335</v>
       </c>
       <c r="C174" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D174" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B174, ""en"", ""pt"")"),"ventilador")</f>
@@ -8198,7 +8198,7 @@
         <v>335</v>
       </c>
       <c r="C175" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D175" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B175, ""en"", ""pt"")"),"ventilador")</f>
@@ -8213,7 +8213,7 @@
         <v>337</v>
       </c>
       <c r="C176" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D176" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B176, ""en"", ""pt"")"),"Fazenda")</f>
@@ -8228,7 +8228,7 @@
         <v>339</v>
       </c>
       <c r="C177" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D177" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B177, ""en"", ""pt"")"),"velozes")</f>
@@ -8243,7 +8243,7 @@
         <v>341</v>
       </c>
       <c r="C178" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D178" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B178, ""en"", ""pt"")"),"pai")</f>
@@ -8258,7 +8258,7 @@
         <v>343</v>
       </c>
       <c r="C179" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D179" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B179, ""en"", ""pt"")"),"fevereiro")</f>
@@ -8273,7 +8273,7 @@
         <v>345</v>
       </c>
       <c r="C180" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D180" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B180, ""en"", ""pt"")"),"alimentação")</f>
@@ -8288,7 +8288,7 @@
         <v>347</v>
       </c>
       <c r="C181" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D181" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B181, ""en"", ""pt"")"),"fêmea")</f>
@@ -8303,7 +8303,7 @@
         <v>349</v>
       </c>
       <c r="C182" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D182" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B182, ""en"", ""pt"")"),"quinze")</f>
@@ -8318,7 +8318,7 @@
         <v>351</v>
       </c>
       <c r="C183" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D183" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B183, ""en"", ""pt"")"),"quinto")</f>
@@ -8333,7 +8333,7 @@
         <v>353</v>
       </c>
       <c r="C184" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D184" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B184, ""en"", ""pt"")"),"cinquenta")</f>
@@ -8348,7 +8348,7 @@
         <v>355</v>
       </c>
       <c r="C185" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D185" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B185, ""en"", ""pt"")"),"luta")</f>
@@ -8363,7 +8363,7 @@
         <v>357</v>
       </c>
       <c r="C186" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D186" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B186, ""en"", ""pt"")"),"encontrar")</f>
@@ -8378,7 +8378,7 @@
         <v>359</v>
       </c>
       <c r="C187" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D187" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B187, ""en"", ""pt"")"),"dedo")</f>
@@ -8393,7 +8393,7 @@
         <v>361</v>
       </c>
       <c r="C188" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D188" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B188, ""en"", ""pt"")"),"fogo")</f>
@@ -8408,7 +8408,7 @@
         <v>363</v>
       </c>
       <c r="C189" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D189" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B189, ""en"", ""pt"")"),"primeiro")</f>
@@ -8423,7 +8423,7 @@
         <v>365</v>
       </c>
       <c r="C190" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D190" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B190, ""en"", ""pt"")"),"peixe")</f>
@@ -8438,7 +8438,7 @@
         <v>367</v>
       </c>
       <c r="C191" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D191" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B191, ""en"", ""pt"")"),"cinco")</f>
@@ -8453,7 +8453,7 @@
         <v>369</v>
       </c>
       <c r="C192" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D192" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B192, ""en"", ""pt"")"),"plano")</f>
@@ -8468,7 +8468,7 @@
         <v>371</v>
       </c>
       <c r="C193" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D193" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B193, ""en"", ""pt"")"),"chão")</f>
@@ -8483,7 +8483,7 @@
         <v>373</v>
       </c>
       <c r="C194" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D194" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B194, ""en"", ""pt"")"),"flor")</f>
@@ -8498,7 +8498,7 @@
         <v>375</v>
       </c>
       <c r="C195" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D195" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B195, ""en"", ""pt"")"),"mosca")</f>
@@ -8513,7 +8513,7 @@
         <v>377</v>
       </c>
       <c r="C196" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D196" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B196, ""en"", ""pt"")"),"Segue")</f>
@@ -8528,7 +8528,7 @@
         <v>379</v>
       </c>
       <c r="C197" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D197" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B197, ""en"", ""pt"")"),"Comida")</f>
@@ -8543,7 +8543,7 @@
         <v>381</v>
       </c>
       <c r="C198" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D198" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B198, ""en"", ""pt"")"),"pé")</f>
@@ -8558,7 +8558,7 @@
         <v>381</v>
       </c>
       <c r="C199" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D199" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B199, ""en"", ""pt"")"),"pé")</f>
@@ -8573,7 +8573,7 @@
         <v>383</v>
       </c>
       <c r="C200" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D200" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B200, ""en"", ""pt"")"),"floresta")</f>
@@ -8588,7 +8588,7 @@
         <v>385</v>
       </c>
       <c r="C201" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D201" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B201, ""en"", ""pt"")"),"garfo")</f>
@@ -8603,7 +8603,7 @@
         <v>387</v>
       </c>
       <c r="C202" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D202" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B202, ""en"", ""pt"")"),"quarenta")</f>
@@ -8618,7 +8618,7 @@
         <v>389</v>
       </c>
       <c r="C203" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D203" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B203, ""en"", ""pt"")"),"quatro")</f>
@@ -8633,7 +8633,7 @@
         <v>391</v>
       </c>
       <c r="C204" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D204" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B204, ""en"", ""pt"")"),"quatorze")</f>
@@ -8648,7 +8648,7 @@
         <v>393</v>
       </c>
       <c r="C205" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D205" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B205, ""en"", ""pt"")"),"quarto")</f>
@@ -8657,13 +8657,13 @@
     </row>
     <row r="206" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B206" t="s">
         <v>394</v>
       </c>
       <c r="C206" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D206" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B206, ""en"", ""pt"")"),"Sexta-feira")</f>
@@ -8678,7 +8678,7 @@
         <v>396</v>
       </c>
       <c r="C207" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D207" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B207, ""en"", ""pt"")"),"amigo")</f>
@@ -8693,7 +8693,7 @@
         <v>398</v>
       </c>
       <c r="C208" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D208" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B208, ""en"", ""pt"")"),"frente")</f>
@@ -8708,7 +8708,7 @@
         <v>400</v>
       </c>
       <c r="C209" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D209" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B209, ""en"", ""pt"")"),"jogos")</f>
@@ -8723,7 +8723,7 @@
         <v>402</v>
       </c>
       <c r="C210" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D210" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B210, ""en"", ""pt"")"),"jardim")</f>
@@ -8738,7 +8738,7 @@
         <v>404</v>
       </c>
       <c r="C211" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D211" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B211, ""en"", ""pt"")"),"Gasolina")</f>
@@ -8753,7 +8753,7 @@
         <v>406</v>
       </c>
       <c r="C212" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D212" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B212, ""en"", ""pt"")"),"presente")</f>
@@ -8768,7 +8768,7 @@
         <v>408</v>
       </c>
       <c r="C213" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D213" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B213, ""en"", ""pt"")"),"menina")</f>
@@ -8783,7 +8783,7 @@
         <v>410</v>
       </c>
       <c r="C214" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D214" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B214, ""en"", ""pt"")"),"vidro")</f>
@@ -8798,7 +8798,7 @@
         <v>412</v>
       </c>
       <c r="C215" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D215" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B215, ""en"", ""pt"")"),"vai")</f>
@@ -8807,13 +8807,13 @@
     </row>
     <row r="216" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B216" t="s">
         <v>413</v>
       </c>
       <c r="C216" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D216" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B216, ""en"", ""pt"")"),"Deus")</f>
@@ -8828,7 +8828,7 @@
         <v>415</v>
       </c>
       <c r="C217" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D217" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B217, ""en"", ""pt"")"),"ouro")</f>
@@ -8843,7 +8843,7 @@
         <v>417</v>
       </c>
       <c r="C218" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D218" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B218, ""en"", ""pt"")"),"Boa")</f>
@@ -8858,7 +8858,7 @@
         <v>419</v>
       </c>
       <c r="C219" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D219" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B219, ""en"", ""pt"")"),"avô")</f>
@@ -8873,7 +8873,7 @@
         <v>421</v>
       </c>
       <c r="C220" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D220" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B220, ""en"", ""pt"")"),"avó")</f>
@@ -8888,7 +8888,7 @@
         <v>423</v>
       </c>
       <c r="C221" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D221" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B221, ""en"", ""pt"")"),"Relva")</f>
@@ -8903,7 +8903,7 @@
         <v>425</v>
       </c>
       <c r="C222" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D222" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B222, ""en"", ""pt"")"),"cinzento")</f>
@@ -8918,7 +8918,7 @@
         <v>427</v>
       </c>
       <c r="C223" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D223" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B223, ""en"", ""pt"")"),"verde")</f>
@@ -8933,7 +8933,7 @@
         <v>429</v>
       </c>
       <c r="C224" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D224" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B224, ""en"", ""pt"")"),"terra")</f>
@@ -8948,7 +8948,7 @@
         <v>431</v>
       </c>
       <c r="C225" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D225" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B225, ""en"", ""pt"")"),"crescer")</f>
@@ -8963,7 +8963,7 @@
         <v>433</v>
       </c>
       <c r="C226" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D226" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B226, ""en"", ""pt"")"),"arma de fogo")</f>
@@ -8978,7 +8978,7 @@
         <v>435</v>
       </c>
       <c r="C227" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D227" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B227, ""en"", ""pt"")"),"cabelo")</f>
@@ -8993,7 +8993,7 @@
         <v>437</v>
       </c>
       <c r="C228" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D228" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B228, ""en"", ""pt"")"),"metade")</f>
@@ -9008,7 +9008,7 @@
         <v>439</v>
       </c>
       <c r="C229" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D229" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B229, ""en"", ""pt"")"),"mão")</f>
@@ -9023,7 +9023,7 @@
         <v>441</v>
       </c>
       <c r="C230" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D230" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B230, ""en"", ""pt"")"),"aguentar")</f>
@@ -9038,7 +9038,7 @@
         <v>443</v>
       </c>
       <c r="C231" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D231" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B231, ""en"", ""pt"")"),"feliz")</f>
@@ -9053,7 +9053,7 @@
         <v>445</v>
       </c>
       <c r="C232" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D232" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B232, ""en"", ""pt"")"),"Difícil")</f>
@@ -9068,7 +9068,7 @@
         <v>447</v>
       </c>
       <c r="C233" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D233" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B233, ""en"", ""pt"")"),"chapéu")</f>
@@ -9083,7 +9083,7 @@
         <v>449</v>
       </c>
       <c r="C234" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D234" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B234, ""en"", ""pt"")"),"ele")</f>
@@ -9098,7 +9098,7 @@
         <v>451</v>
       </c>
       <c r="C235" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D235" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B235, ""en"", ""pt"")"),"cabeça")</f>
@@ -9113,7 +9113,7 @@
         <v>453</v>
       </c>
       <c r="C236" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D236" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B236, ""en"", ""pt"")"),"saudável")</f>
@@ -9128,7 +9128,7 @@
         <v>455</v>
       </c>
       <c r="C237" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D237" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B237, ""en"", ""pt"")"),"ouvir")</f>
@@ -9143,7 +9143,7 @@
         <v>457</v>
       </c>
       <c r="C238" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D238" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B238, ""en"", ""pt"")"),"coração")</f>
@@ -9158,7 +9158,7 @@
         <v>459</v>
       </c>
       <c r="C239" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D239" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B239, ""en"", ""pt"")"),"calor")</f>
@@ -9173,7 +9173,7 @@
         <v>461</v>
       </c>
       <c r="C240" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D240" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B240, ""en"", ""pt"")"),"céu")</f>
@@ -9188,7 +9188,7 @@
         <v>463</v>
       </c>
       <c r="C241" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D241" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B241, ""en"", ""pt"")"),"pesado")</f>
@@ -9203,7 +9203,7 @@
         <v>465</v>
       </c>
       <c r="C242" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D242" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B242, ""en"", ""pt"")"),"inferno")</f>
@@ -9218,7 +9218,7 @@
         <v>467</v>
       </c>
       <c r="C243" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D243" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B243, ""en"", ""pt"")"),"Alto")</f>
@@ -9233,7 +9233,7 @@
         <v>469</v>
       </c>
       <c r="C244" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D244" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B244, ""en"", ""pt"")"),"Colina")</f>
@@ -9248,7 +9248,7 @@
         <v>471</v>
       </c>
       <c r="C245" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D245" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B245, ""en"", ""pt"")"),"orifício")</f>
@@ -9263,7 +9263,7 @@
         <v>473</v>
       </c>
       <c r="C246" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D246" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B246, ""en"", ""pt"")"),"cavalo")</f>
@@ -9293,7 +9293,7 @@
         <v>477</v>
       </c>
       <c r="C248" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D248" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B248, ""en"", ""pt"")"),"quente")</f>
@@ -9323,7 +9323,7 @@
         <v>481</v>
       </c>
       <c r="C250" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D250" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B250, ""en"", ""pt"")"),"hora")</f>
@@ -9338,7 +9338,7 @@
         <v>483</v>
       </c>
       <c r="C251" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D251" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B251, ""en"", ""pt"")"),"casa")</f>
@@ -9353,7 +9353,7 @@
         <v>485</v>
       </c>
       <c r="C252" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D252" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B252, ""en"", ""pt"")"),"humano")</f>
@@ -9368,7 +9368,7 @@
         <v>487</v>
       </c>
       <c r="C253" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D253" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B253, ""en"", ""pt"")"),"cem")</f>
@@ -9383,7 +9383,7 @@
         <v>489</v>
       </c>
       <c r="C254" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D254" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B254, ""en"", ""pt"")"),"marido")</f>
@@ -9392,13 +9392,13 @@
     </row>
     <row r="255" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B255" t="s">
         <v>490</v>
       </c>
-      <c r="B255" t="s">
-        <v>491</v>
-      </c>
       <c r="C255" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D255" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B255, ""en"", ""pt"")"),"Eu")</f>
@@ -9407,13 +9407,13 @@
     </row>
     <row r="256" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>491</v>
+      </c>
+      <c r="B256" t="s">
         <v>492</v>
       </c>
-      <c r="B256" t="s">
-        <v>493</v>
-      </c>
       <c r="C256" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D256" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B256, ""en"", ""pt"")"),"gelo")</f>
@@ -9422,13 +9422,13 @@
     </row>
     <row r="257" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>493</v>
+      </c>
+      <c r="B257" t="s">
         <v>494</v>
       </c>
-      <c r="B257" t="s">
-        <v>495</v>
-      </c>
       <c r="C257" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D257" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B257, ""en"", ""pt"")"),"imagem")</f>
@@ -9437,13 +9437,13 @@
     </row>
     <row r="258" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>495</v>
+      </c>
+      <c r="B258" t="s">
         <v>496</v>
       </c>
-      <c r="B258" t="s">
-        <v>497</v>
-      </c>
       <c r="C258" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D258" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B258, ""en"", ""pt"")"),"polegada")</f>
@@ -9452,13 +9452,13 @@
     </row>
     <row r="259" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>497</v>
+      </c>
+      <c r="B259" t="s">
         <v>498</v>
       </c>
-      <c r="B259" t="s">
-        <v>499</v>
-      </c>
       <c r="C259" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D259" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B259, ""en"", ""pt"")"),"ferimentos")</f>
@@ -9467,13 +9467,13 @@
     </row>
     <row r="260" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>499</v>
+      </c>
+      <c r="B260" t="s">
         <v>500</v>
       </c>
-      <c r="B260" t="s">
-        <v>501</v>
-      </c>
       <c r="C260" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D260" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B260, ""en"", ""pt"")"),"dentro")</f>
@@ -9482,13 +9482,13 @@
     </row>
     <row r="261" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>501</v>
+      </c>
+      <c r="B261" t="s">
         <v>502</v>
       </c>
-      <c r="B261" t="s">
-        <v>503</v>
-      </c>
       <c r="C261" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D261" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B261, ""en"", ""pt"")"),"instrumento")</f>
@@ -9497,13 +9497,13 @@
     </row>
     <row r="262" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>503</v>
+      </c>
+      <c r="B262" t="s">
         <v>504</v>
       </c>
-      <c r="B262" t="s">
-        <v>505</v>
-      </c>
       <c r="C262" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D262" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B262, ""en"", ""pt"")"),"ilha")</f>
@@ -9512,13 +9512,13 @@
     </row>
     <row r="263" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>505</v>
+      </c>
+      <c r="B263" t="s">
         <v>506</v>
       </c>
-      <c r="B263" t="s">
-        <v>507</v>
-      </c>
       <c r="C263" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D263" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B263, ""en"", ""pt"")"),"isto")</f>
@@ -9527,13 +9527,13 @@
     </row>
     <row r="264" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B264" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C264" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D264" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B264, ""en"", ""pt"")"),"janeiro")</f>
@@ -9542,13 +9542,13 @@
     </row>
     <row r="265" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>508</v>
+      </c>
+      <c r="B265" t="s">
         <v>509</v>
       </c>
-      <c r="B265" t="s">
-        <v>510</v>
-      </c>
       <c r="C265" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D265" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B265, ""en"", ""pt"")"),"trabalho")</f>
@@ -9557,13 +9557,13 @@
     </row>
     <row r="266" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>510</v>
+      </c>
+      <c r="B266" t="s">
         <v>511</v>
       </c>
-      <c r="B266" t="s">
-        <v>512</v>
-      </c>
       <c r="C266" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D266" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B266, ""en"", ""pt"")"),"suco")</f>
@@ -9572,13 +9572,13 @@
     </row>
     <row r="267" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B267" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C267" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D267" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B267, ""en"", ""pt"")"),"Julho")</f>
@@ -9587,13 +9587,13 @@
     </row>
     <row r="268" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>513</v>
+      </c>
+      <c r="B268" t="s">
         <v>514</v>
       </c>
-      <c r="B268" t="s">
-        <v>515</v>
-      </c>
       <c r="C268" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D268" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B268, ""en"", ""pt"")"),"saltar")</f>
@@ -9602,13 +9602,13 @@
     </row>
     <row r="269" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B269" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C269" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D269" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B269, ""en"", ""pt"")"),"Junho")</f>
@@ -9617,13 +9617,13 @@
     </row>
     <row r="270" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>516</v>
+      </c>
+      <c r="B270" t="s">
         <v>517</v>
       </c>
-      <c r="B270" t="s">
-        <v>518</v>
-      </c>
       <c r="C270" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D270" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B270, ""en"", ""pt"")"),"chave")</f>
@@ -9632,13 +9632,13 @@
     </row>
     <row r="271" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>518</v>
+      </c>
+      <c r="B271" t="s">
         <v>519</v>
       </c>
-      <c r="B271" t="s">
-        <v>520</v>
-      </c>
       <c r="C271" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D271" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B271, ""en"", ""pt"")"),"matar")</f>
@@ -9647,13 +9647,13 @@
     </row>
     <row r="272" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>520</v>
+      </c>
+      <c r="B272" t="s">
         <v>521</v>
       </c>
-      <c r="B272" t="s">
-        <v>522</v>
-      </c>
       <c r="C272" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D272" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B272, ""en"", ""pt"")"),"quilograma")</f>
@@ -9662,13 +9662,13 @@
     </row>
     <row r="273" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>522</v>
+      </c>
+      <c r="B273" t="s">
         <v>523</v>
       </c>
-      <c r="B273" t="s">
-        <v>524</v>
-      </c>
       <c r="C273" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D273" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B273, ""en"", ""pt"")"),"rei")</f>
@@ -9677,13 +9677,13 @@
     </row>
     <row r="274" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>524</v>
+      </c>
+      <c r="B274" t="s">
         <v>525</v>
       </c>
-      <c r="B274" t="s">
-        <v>526</v>
-      </c>
       <c r="C274" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D274" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B274, ""en"", ""pt"")"),"beijo")</f>
@@ -9692,13 +9692,13 @@
     </row>
     <row r="275" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>526</v>
+      </c>
+      <c r="B275" t="s">
         <v>527</v>
       </c>
-      <c r="B275" t="s">
-        <v>528</v>
-      </c>
       <c r="C275" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D275" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B275, ""en"", ""pt"")"),"cozinha")</f>
@@ -9707,13 +9707,13 @@
     </row>
     <row r="276" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>528</v>
+      </c>
+      <c r="B276" t="s">
         <v>529</v>
       </c>
-      <c r="B276" t="s">
-        <v>530</v>
-      </c>
       <c r="C276" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D276" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B276, ""en"", ""pt"")"),"joelho")</f>
@@ -9722,13 +9722,13 @@
     </row>
     <row r="277" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>530</v>
+      </c>
+      <c r="B277" t="s">
         <v>531</v>
       </c>
-      <c r="B277" t="s">
-        <v>532</v>
-      </c>
       <c r="C277" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D277" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B277, ""en"", ""pt"")"),"faca")</f>
@@ -9737,13 +9737,13 @@
     </row>
     <row r="278" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>532</v>
+      </c>
+      <c r="B278" t="s">
         <v>533</v>
       </c>
-      <c r="B278" t="s">
-        <v>534</v>
-      </c>
       <c r="C278" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D278" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B278, ""en"", ""pt"")"),"lago")</f>
@@ -9752,13 +9752,13 @@
     </row>
     <row r="279" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>534</v>
+      </c>
+      <c r="B279" t="s">
         <v>535</v>
       </c>
-      <c r="B279" t="s">
-        <v>536</v>
-      </c>
       <c r="C279" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D279" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B279, ""en"", ""pt"")"),"luminária")</f>
@@ -9767,13 +9767,13 @@
     </row>
     <row r="280" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>536</v>
+      </c>
+      <c r="B280" t="s">
         <v>537</v>
       </c>
-      <c r="B280" t="s">
-        <v>538</v>
-      </c>
       <c r="C280" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D280" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B280, ""en"", ""pt"")"),"computador portátil")</f>
@@ -9782,13 +9782,13 @@
     </row>
     <row r="281" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>538</v>
+      </c>
+      <c r="B281" t="s">
         <v>539</v>
       </c>
-      <c r="B281" t="s">
-        <v>540</v>
-      </c>
       <c r="C281" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D281" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B281, ""en"", ""pt"")"),"ampla")</f>
@@ -9797,13 +9797,13 @@
     </row>
     <row r="282" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>540</v>
+      </c>
+      <c r="B282" t="s">
         <v>541</v>
       </c>
-      <c r="B282" t="s">
-        <v>542</v>
-      </c>
       <c r="C282" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D282" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B282, ""en"", ""pt"")"),"rir")</f>
@@ -9812,13 +9812,13 @@
     </row>
     <row r="283" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>542</v>
+      </c>
+      <c r="B283" t="s">
         <v>543</v>
       </c>
-      <c r="B283" t="s">
-        <v>544</v>
-      </c>
       <c r="C283" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D283" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B283, ""en"", ""pt"")"),"advogado")</f>
@@ -9827,13 +9827,13 @@
     </row>
     <row r="284" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>544</v>
+      </c>
+      <c r="B284" t="s">
         <v>545</v>
       </c>
-      <c r="B284" t="s">
-        <v>546</v>
-      </c>
       <c r="C284" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D284" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B284, ""en"", ""pt"")"),"folha")</f>
@@ -9842,13 +9842,13 @@
     </row>
     <row r="285" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>546</v>
+      </c>
+      <c r="B285" t="s">
         <v>547</v>
       </c>
-      <c r="B285" t="s">
-        <v>548</v>
-      </c>
       <c r="C285" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D285" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B285, ""en"", ""pt"")"),"aprender")</f>
@@ -9857,13 +9857,13 @@
     </row>
     <row r="286" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>548</v>
+      </c>
+      <c r="B286" t="s">
         <v>549</v>
       </c>
-      <c r="B286" t="s">
-        <v>550</v>
-      </c>
       <c r="C286" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D286" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B286, ""en"", ""pt"")"),"esquerda")</f>
@@ -9872,13 +9872,13 @@
     </row>
     <row r="287" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>550</v>
+      </c>
+      <c r="B287" t="s">
         <v>551</v>
       </c>
-      <c r="B287" t="s">
-        <v>552</v>
-      </c>
       <c r="C287" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D287" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B287, ""en"", ""pt"")"),"perna")</f>
@@ -9887,13 +9887,13 @@
     </row>
     <row r="288" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>552</v>
+      </c>
+      <c r="B288" t="s">
         <v>553</v>
       </c>
-      <c r="B288" t="s">
-        <v>554</v>
-      </c>
       <c r="C288" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D288" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B288, ""en"", ""pt"")"),"limão")</f>
@@ -9902,13 +9902,13 @@
     </row>
     <row r="289" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>554</v>
+      </c>
+      <c r="B289" t="s">
         <v>555</v>
       </c>
-      <c r="B289" t="s">
-        <v>556</v>
-      </c>
       <c r="C289" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D289" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B289, ""en"", ""pt"")"),"carta")</f>
@@ -9917,13 +9917,13 @@
     </row>
     <row r="290" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>556</v>
+      </c>
+      <c r="B290" t="s">
         <v>557</v>
       </c>
-      <c r="B290" t="s">
-        <v>558</v>
-      </c>
       <c r="C290" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D290" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B290, ""en"", ""pt"")"),"biblioteca")</f>
@@ -9932,13 +9932,13 @@
     </row>
     <row r="291" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>558</v>
+      </c>
+      <c r="B291" t="s">
         <v>559</v>
       </c>
-      <c r="B291" t="s">
-        <v>560</v>
-      </c>
       <c r="C291" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D291" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B291, ""en"", ""pt"")"),"mentira")</f>
@@ -9947,13 +9947,13 @@
     </row>
     <row r="292" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>560</v>
+      </c>
+      <c r="B292" t="s">
         <v>561</v>
       </c>
-      <c r="B292" t="s">
-        <v>562</v>
-      </c>
       <c r="C292" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D292" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B292, ""en"", ""pt"")"),"lift")</f>
@@ -9962,13 +9962,13 @@
     </row>
     <row r="293" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>562</v>
+      </c>
+      <c r="B293" t="s">
         <v>563</v>
       </c>
-      <c r="B293" t="s">
-        <v>564</v>
-      </c>
       <c r="C293" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D293" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B293, ""en"", ""pt"")"),"luz")</f>
@@ -9977,13 +9977,13 @@
     </row>
     <row r="294" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>562</v>
+      </c>
+      <c r="B294" t="s">
         <v>563</v>
       </c>
-      <c r="B294" t="s">
-        <v>564</v>
-      </c>
       <c r="C294" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D294" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B294, ""en"", ""pt"")"),"luz")</f>
@@ -9992,13 +9992,13 @@
     </row>
     <row r="295" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>562</v>
+      </c>
+      <c r="B295" t="s">
         <v>563</v>
       </c>
-      <c r="B295" t="s">
-        <v>564</v>
-      </c>
       <c r="C295" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D295" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B295, ""en"", ""pt"")"),"luz")</f>
@@ -10007,13 +10007,13 @@
     </row>
     <row r="296" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>564</v>
+      </c>
+      <c r="B296" t="s">
         <v>565</v>
       </c>
-      <c r="B296" t="s">
-        <v>566</v>
-      </c>
       <c r="C296" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D296" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B296, ""en"", ""pt"")"),"lábio")</f>
@@ -10022,13 +10022,13 @@
     </row>
     <row r="297" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>566</v>
+      </c>
+      <c r="B297" t="s">
         <v>567</v>
       </c>
-      <c r="B297" t="s">
-        <v>568</v>
-      </c>
       <c r="C297" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D297" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B297, ""en"", ""pt"")"),"ouço")</f>
@@ -10037,13 +10037,13 @@
     </row>
     <row r="298" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>568</v>
+      </c>
+      <c r="B298" t="s">
         <v>569</v>
       </c>
-      <c r="B298" t="s">
-        <v>570</v>
-      </c>
       <c r="C298" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D298" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B298, ""en"", ""pt"")"),"pequeno")</f>
@@ -10052,13 +10052,13 @@
     </row>
     <row r="299" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>570</v>
+      </c>
+      <c r="B299" t="s">
         <v>571</v>
       </c>
-      <c r="B299" t="s">
-        <v>572</v>
-      </c>
       <c r="C299" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D299" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B299, ""en"", ""pt"")"),"localização")</f>
@@ -10067,13 +10067,13 @@
     </row>
     <row r="300" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>572</v>
+      </c>
+      <c r="B300" t="s">
         <v>573</v>
       </c>
-      <c r="B300" t="s">
-        <v>574</v>
-      </c>
       <c r="C300" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D300" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B300, ""en"", ""pt"")"),"bloqueio")</f>
@@ -10082,13 +10082,13 @@
     </row>
     <row r="301" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>574</v>
+      </c>
+      <c r="B301" t="s">
         <v>575</v>
       </c>
-      <c r="B301" t="s">
-        <v>576</v>
-      </c>
       <c r="C301" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D301" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B301, ""en"", ""pt"")"),"longo")</f>
@@ -10097,13 +10097,13 @@
     </row>
     <row r="302" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>576</v>
+      </c>
+      <c r="B302" t="s">
         <v>577</v>
       </c>
-      <c r="B302" t="s">
-        <v>578</v>
-      </c>
       <c r="C302" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D302" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B302, ""en"", ""pt"")"),"perder")</f>
@@ -10112,13 +10112,13 @@
     </row>
     <row r="303" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>578</v>
+      </c>
+      <c r="B303" t="s">
         <v>579</v>
       </c>
-      <c r="B303" t="s">
-        <v>580</v>
-      </c>
       <c r="C303" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D303" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B303, ""en"", ""pt"")"),"perder")</f>
@@ -10127,13 +10127,13 @@
     </row>
     <row r="304" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>580</v>
+      </c>
+      <c r="B304" t="s">
         <v>581</v>
       </c>
-      <c r="B304" t="s">
-        <v>582</v>
-      </c>
       <c r="C304" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D304" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B304, ""en"", ""pt"")"),"alto")</f>
@@ -10142,13 +10142,13 @@
     </row>
     <row r="305" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>582</v>
+      </c>
+      <c r="B305" t="s">
         <v>583</v>
       </c>
-      <c r="B305" t="s">
-        <v>584</v>
-      </c>
       <c r="C305" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D305" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B305, ""en"", ""pt"")"),"amar")</f>
@@ -10157,13 +10157,13 @@
     </row>
     <row r="306" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>584</v>
+      </c>
+      <c r="B306" t="s">
         <v>585</v>
       </c>
-      <c r="B306" t="s">
-        <v>586</v>
-      </c>
       <c r="C306" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D306" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B306, ""en"", ""pt"")"),"baixo")</f>
@@ -10172,13 +10172,13 @@
     </row>
     <row r="307" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>586</v>
+      </c>
+      <c r="B307" t="s">
         <v>587</v>
       </c>
-      <c r="B307" t="s">
-        <v>588</v>
-      </c>
       <c r="C307" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D307" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B307, ""en"", ""pt"")"),"almoço")</f>
@@ -10187,13 +10187,13 @@
     </row>
     <row r="308" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>588</v>
+      </c>
+      <c r="B308" t="s">
         <v>589</v>
       </c>
-      <c r="B308" t="s">
-        <v>590</v>
-      </c>
       <c r="C308" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D308" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B308, ""en"", ""pt"")"),"revista")</f>
@@ -10202,13 +10202,13 @@
     </row>
     <row r="309" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>590</v>
+      </c>
+      <c r="B309" t="s">
         <v>591</v>
       </c>
-      <c r="B309" t="s">
-        <v>592</v>
-      </c>
       <c r="C309" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D309" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B309, ""en"", ""pt"")"),"masculino")</f>
@@ -10217,13 +10217,13 @@
     </row>
     <row r="310" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>592</v>
+      </c>
+      <c r="B310" t="s">
         <v>593</v>
       </c>
-      <c r="B310" t="s">
-        <v>594</v>
-      </c>
       <c r="C310" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D310" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B310, ""en"", ""pt"")"),"homem")</f>
@@ -10232,13 +10232,13 @@
     </row>
     <row r="311" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>594</v>
+      </c>
+      <c r="B311" t="s">
         <v>595</v>
       </c>
-      <c r="B311" t="s">
-        <v>596</v>
-      </c>
       <c r="C311" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D311" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B311, ""en"", ""pt"")"),"Gerente")</f>
@@ -10247,13 +10247,13 @@
     </row>
     <row r="312" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>596</v>
+      </c>
+      <c r="B312" t="s">
         <v>597</v>
       </c>
-      <c r="B312" t="s">
-        <v>598</v>
-      </c>
       <c r="C312" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D312" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B312, ""en"", ""pt"")"),"mapa")</f>
@@ -10262,13 +10262,13 @@
     </row>
     <row r="313" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B313" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C313" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D313" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B313, ""en"", ""pt"")"),"Março")</f>
@@ -10277,13 +10277,13 @@
     </row>
     <row r="314" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>599</v>
+      </c>
+      <c r="B314" t="s">
         <v>600</v>
       </c>
-      <c r="B314" t="s">
-        <v>601</v>
-      </c>
       <c r="C314" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D314" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B314, ""en"", ""pt"")"),"mercado")</f>
@@ -10292,13 +10292,13 @@
     </row>
     <row r="315" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>601</v>
+      </c>
+      <c r="B315" t="s">
         <v>602</v>
       </c>
-      <c r="B315" t="s">
-        <v>603</v>
-      </c>
       <c r="C315" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D315" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B315, ""en"", ""pt"")"),"casamento")</f>
@@ -10307,13 +10307,13 @@
     </row>
     <row r="316" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>603</v>
+      </c>
+      <c r="B316" t="s">
         <v>604</v>
       </c>
-      <c r="B316" t="s">
-        <v>605</v>
-      </c>
       <c r="C316" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D316" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B316, ""en"", ""pt"")"),"casar")</f>
@@ -10322,13 +10322,13 @@
     </row>
     <row r="317" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>605</v>
+      </c>
+      <c r="B317" t="s">
         <v>606</v>
       </c>
-      <c r="B317" t="s">
-        <v>607</v>
-      </c>
       <c r="C317" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D317" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B317, ""en"", ""pt"")"),"material")</f>
@@ -10337,13 +10337,13 @@
     </row>
     <row r="318" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B318" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C318" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D318" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B318, ""en"", ""pt"")"),"Maio")</f>
@@ -10352,13 +10352,13 @@
     </row>
     <row r="319" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>608</v>
+      </c>
+      <c r="B319" t="s">
         <v>609</v>
       </c>
-      <c r="B319" t="s">
-        <v>610</v>
-      </c>
       <c r="C319" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D319" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B319, ""en"", ""pt"")"),"significar")</f>
@@ -10367,13 +10367,13 @@
     </row>
     <row r="320" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>610</v>
+      </c>
+      <c r="B320" t="s">
         <v>611</v>
       </c>
-      <c r="B320" t="s">
-        <v>612</v>
-      </c>
       <c r="C320" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D320" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B320, ""en"", ""pt"")"),"remédio")</f>
@@ -10382,13 +10382,13 @@
     </row>
     <row r="321" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>612</v>
+      </c>
+      <c r="B321" t="s">
         <v>613</v>
       </c>
-      <c r="B321" t="s">
-        <v>614</v>
-      </c>
       <c r="C321" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D321" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B321, ""en"", ""pt"")"),"fundição")</f>
@@ -10397,13 +10397,13 @@
     </row>
     <row r="322" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>614</v>
+      </c>
+      <c r="B322" t="s">
         <v>615</v>
       </c>
-      <c r="B322" t="s">
-        <v>616</v>
-      </c>
       <c r="C322" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D322" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B322, ""en"", ""pt"")"),"metal")</f>
@@ -10412,13 +10412,13 @@
     </row>
     <row r="323" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>616</v>
+      </c>
+      <c r="B323" t="s">
         <v>617</v>
       </c>
-      <c r="B323" t="s">
-        <v>618</v>
-      </c>
       <c r="C323" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D323" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B323, ""en"", ""pt"")"),"metro")</f>
@@ -10427,13 +10427,13 @@
     </row>
     <row r="324" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>618</v>
+      </c>
+      <c r="B324" t="s">
         <v>619</v>
       </c>
-      <c r="B324" t="s">
-        <v>620</v>
-      </c>
       <c r="C324" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D324" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B324, ""en"", ""pt"")"),"leite")</f>
@@ -10442,13 +10442,13 @@
     </row>
     <row r="325" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>620</v>
+      </c>
+      <c r="B325" t="s">
         <v>621</v>
       </c>
-      <c r="B325" t="s">
-        <v>622</v>
-      </c>
       <c r="C325" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D325" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B325, ""en"", ""pt"")"),"milhão")</f>
@@ -10457,13 +10457,13 @@
     </row>
     <row r="326" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>622</v>
+      </c>
+      <c r="B326" t="s">
         <v>623</v>
       </c>
-      <c r="B326" t="s">
-        <v>624</v>
-      </c>
       <c r="C326" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D326" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B326, ""en"", ""pt"")"),"minuto")</f>
@@ -10472,13 +10472,13 @@
     </row>
     <row r="327" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>624</v>
+      </c>
+      <c r="B327" t="s">
         <v>625</v>
       </c>
-      <c r="B327" t="s">
-        <v>626</v>
-      </c>
       <c r="C327" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D327" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B327, ""en"", ""pt"")"),"misturar")</f>
@@ -10487,13 +10487,13 @@
     </row>
     <row r="328" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B328" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C328" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D328" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B328, ""en"", ""pt"")"),"Segunda-feira")</f>
@@ -10502,13 +10502,13 @@
     </row>
     <row r="329" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>627</v>
+      </c>
+      <c r="B329" t="s">
         <v>628</v>
       </c>
-      <c r="B329" t="s">
-        <v>629</v>
-      </c>
       <c r="C329" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D329" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B329, ""en"", ""pt"")"),"dinheiro")</f>
@@ -10517,13 +10517,13 @@
     </row>
     <row r="330" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>629</v>
+      </c>
+      <c r="B330" t="s">
         <v>630</v>
       </c>
-      <c r="B330" t="s">
-        <v>631</v>
-      </c>
       <c r="C330" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D330" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B330, ""en"", ""pt"")"),"mês")</f>
@@ -10532,13 +10532,13 @@
     </row>
     <row r="331" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>631</v>
+      </c>
+      <c r="B331" t="s">
         <v>632</v>
       </c>
-      <c r="B331" t="s">
-        <v>633</v>
-      </c>
       <c r="C331" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D331" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B331, ""en"", ""pt"")"),"lua")</f>
@@ -10547,13 +10547,13 @@
     </row>
     <row r="332" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>633</v>
+      </c>
+      <c r="B332" t="s">
         <v>634</v>
       </c>
-      <c r="B332" t="s">
-        <v>635</v>
-      </c>
       <c r="C332" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D332" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B332, ""en"", ""pt"")"),"manhã")</f>
@@ -10562,13 +10562,13 @@
     </row>
     <row r="333" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>635</v>
+      </c>
+      <c r="B333" t="s">
         <v>636</v>
       </c>
-      <c r="B333" t="s">
-        <v>637</v>
-      </c>
       <c r="C333" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D333" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B333, ""en"", ""pt"")"),"mãe")</f>
@@ -10577,13 +10577,13 @@
     </row>
     <row r="334" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>637</v>
+      </c>
+      <c r="B334" t="s">
         <v>638</v>
       </c>
-      <c r="B334" t="s">
-        <v>639</v>
-      </c>
       <c r="C334" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D334" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B334, ""en"", ""pt"")"),"montanha")</f>
@@ -10592,13 +10592,13 @@
     </row>
     <row r="335" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>639</v>
+      </c>
+      <c r="B335" t="s">
         <v>640</v>
       </c>
-      <c r="B335" t="s">
-        <v>641</v>
-      </c>
       <c r="C335" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D335" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B335, ""en"", ""pt"")"),"rato")</f>
@@ -10607,13 +10607,13 @@
     </row>
     <row r="336" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>641</v>
+      </c>
+      <c r="B336" t="s">
         <v>642</v>
       </c>
-      <c r="B336" t="s">
-        <v>643</v>
-      </c>
       <c r="C336" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D336" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B336, ""en"", ""pt"")"),"boca")</f>
@@ -10622,13 +10622,13 @@
     </row>
     <row r="337" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>643</v>
+      </c>
+      <c r="B337" t="s">
         <v>644</v>
       </c>
-      <c r="B337" t="s">
-        <v>645</v>
-      </c>
       <c r="C337" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D337" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B337, ""en"", ""pt"")"),"filme")</f>
@@ -10637,13 +10637,13 @@
     </row>
     <row r="338" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>645</v>
+      </c>
+      <c r="B338" t="s">
         <v>646</v>
       </c>
-      <c r="B338" t="s">
-        <v>647</v>
-      </c>
       <c r="C338" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D338" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B338, ""en"", ""pt"")"),"assassinato")</f>
@@ -10652,13 +10652,13 @@
     </row>
     <row r="339" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>647</v>
+      </c>
+      <c r="B339" t="s">
         <v>648</v>
       </c>
-      <c r="B339" t="s">
-        <v>649</v>
-      </c>
       <c r="C339" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D339" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B339, ""en"", ""pt"")"),"música")</f>
@@ -10667,13 +10667,13 @@
     </row>
     <row r="340" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>649</v>
+      </c>
+      <c r="B340" t="s">
         <v>650</v>
       </c>
-      <c r="B340" t="s">
-        <v>651</v>
-      </c>
       <c r="C340" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D340" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B340, ""en"", ""pt"")"),"limitar")</f>
@@ -10682,13 +10682,13 @@
     </row>
     <row r="341" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>651</v>
+      </c>
+      <c r="B341" t="s">
         <v>652</v>
       </c>
-      <c r="B341" t="s">
-        <v>653</v>
-      </c>
       <c r="C341" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D341" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B341, ""en"", ""pt"")"),"natureza")</f>
@@ -10697,13 +10697,13 @@
     </row>
     <row r="342" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>653</v>
+      </c>
+      <c r="B342" t="s">
         <v>654</v>
       </c>
-      <c r="B342" t="s">
-        <v>655</v>
-      </c>
       <c r="C342" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D342" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B342, ""en"", ""pt"")"),"pescoço")</f>
@@ -10712,13 +10712,13 @@
     </row>
     <row r="343" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>655</v>
+      </c>
+      <c r="B343" t="s">
         <v>656</v>
       </c>
-      <c r="B343" t="s">
-        <v>657</v>
-      </c>
       <c r="C343" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D343" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B343, ""en"", ""pt"")"),"agulha")</f>
@@ -10727,13 +10727,13 @@
     </row>
     <row r="344" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>657</v>
+      </c>
+      <c r="B344" t="s">
         <v>658</v>
       </c>
-      <c r="B344" t="s">
-        <v>659</v>
-      </c>
       <c r="C344" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D344" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B344, ""en"", ""pt"")"),"vizinho")</f>
@@ -10742,13 +10742,13 @@
     </row>
     <row r="345" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>659</v>
+      </c>
+      <c r="B345" t="s">
         <v>660</v>
       </c>
-      <c r="B345" t="s">
-        <v>661</v>
-      </c>
       <c r="C345" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D345" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B345, ""en"", ""pt"")"),"rede")</f>
@@ -10757,13 +10757,13 @@
     </row>
     <row r="346" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>661</v>
+      </c>
+      <c r="B346" t="s">
         <v>662</v>
       </c>
-      <c r="B346" t="s">
-        <v>663</v>
-      </c>
       <c r="C346" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D346" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B346, ""en"", ""pt"")"),"Novo")</f>
@@ -10772,13 +10772,13 @@
     </row>
     <row r="347" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>663</v>
+      </c>
+      <c r="B347" t="s">
         <v>664</v>
       </c>
-      <c r="B347" t="s">
-        <v>665</v>
-      </c>
       <c r="C347" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D347" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B347, ""en"", ""pt"")"),"jornal")</f>
@@ -10787,13 +10787,13 @@
     </row>
     <row r="348" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>665</v>
+      </c>
+      <c r="B348" t="s">
         <v>666</v>
       </c>
-      <c r="B348" t="s">
-        <v>667</v>
-      </c>
       <c r="C348" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D348" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B348, ""en"", ""pt"")"),"bom")</f>
@@ -10802,13 +10802,13 @@
     </row>
     <row r="349" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>667</v>
+      </c>
+      <c r="B349" t="s">
         <v>668</v>
       </c>
-      <c r="B349" t="s">
-        <v>669</v>
-      </c>
       <c r="C349" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D349" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B349, ""en"", ""pt"")"),"noite")</f>
@@ -10817,13 +10817,13 @@
     </row>
     <row r="350" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>669</v>
+      </c>
+      <c r="B350" t="s">
         <v>670</v>
       </c>
-      <c r="B350" t="s">
-        <v>671</v>
-      </c>
       <c r="C350" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D350" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B350, ""en"", ""pt"")"),"nove")</f>
@@ -10832,13 +10832,13 @@
     </row>
     <row r="351" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>671</v>
+      </c>
+      <c r="B351" t="s">
         <v>672</v>
       </c>
-      <c r="B351" t="s">
-        <v>673</v>
-      </c>
       <c r="C351" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D351" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B351, ""en"", ""pt"")"),"dezenove")</f>
@@ -10847,13 +10847,13 @@
     </row>
     <row r="352" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>673</v>
+      </c>
+      <c r="B352" t="s">
         <v>674</v>
       </c>
-      <c r="B352" t="s">
-        <v>675</v>
-      </c>
       <c r="C352" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D352" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B352, ""en"", ""pt"")"),"noventa")</f>
@@ -10862,13 +10862,13 @@
     </row>
     <row r="353" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>675</v>
+      </c>
+      <c r="B353" t="s">
         <v>676</v>
       </c>
-      <c r="B353" t="s">
-        <v>677</v>
-      </c>
       <c r="C353" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D353" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B353, ""en"", ""pt"")"),"não")</f>
@@ -10877,13 +10877,13 @@
     </row>
     <row r="354" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>677</v>
+      </c>
+      <c r="B354" t="s">
         <v>678</v>
       </c>
-      <c r="B354" t="s">
-        <v>679</v>
-      </c>
       <c r="C354" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D354" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B354, ""en"", ""pt"")"),"norte")</f>
@@ -10892,13 +10892,13 @@
     </row>
     <row r="355" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>679</v>
+      </c>
+      <c r="B355" t="s">
         <v>680</v>
       </c>
-      <c r="B355" t="s">
-        <v>681</v>
-      </c>
       <c r="C355" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D355" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B355, ""en"", ""pt"")"),"nariz")</f>
@@ -10907,13 +10907,13 @@
     </row>
     <row r="356" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>681</v>
+      </c>
+      <c r="B356" t="s">
         <v>682</v>
       </c>
-      <c r="B356" t="s">
-        <v>683</v>
-      </c>
       <c r="C356" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D356" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B356, ""en"", ""pt"")"),"Nota")</f>
@@ -10922,13 +10922,13 @@
     </row>
     <row r="357" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B357" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C357" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D357" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B357, ""en"", ""pt"")"),"novembro")</f>
@@ -10937,13 +10937,13 @@
     </row>
     <row r="358" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>684</v>
+      </c>
+      <c r="B358" t="s">
         <v>685</v>
       </c>
-      <c r="B358" t="s">
-        <v>686</v>
-      </c>
       <c r="C358" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D358" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B358, ""en"", ""pt"")"),"nuclear")</f>
@@ -10952,13 +10952,13 @@
     </row>
     <row r="359" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>686</v>
+      </c>
+      <c r="B359" t="s">
         <v>687</v>
       </c>
-      <c r="B359" t="s">
-        <v>688</v>
-      </c>
       <c r="C359" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D359" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B359, ""en"", ""pt"")"),"número")</f>
@@ -10967,13 +10967,13 @@
     </row>
     <row r="360" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>688</v>
+      </c>
+      <c r="B360" t="s">
         <v>689</v>
       </c>
-      <c r="B360" t="s">
-        <v>690</v>
-      </c>
       <c r="C360" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D360" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B360, ""en"", ""pt"")"),"oceano")</f>
@@ -10982,13 +10982,13 @@
     </row>
     <row r="361" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B361" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C361" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D361" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B361, ""en"", ""pt"")"),"Outubro")</f>
@@ -10997,13 +10997,13 @@
     </row>
     <row r="362" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>691</v>
+      </c>
+      <c r="B362" t="s">
         <v>692</v>
       </c>
-      <c r="B362" t="s">
-        <v>693</v>
-      </c>
       <c r="C362" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D362" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B362, ""en"", ""pt"")"),"escritório")</f>
@@ -11012,13 +11012,13 @@
     </row>
     <row r="363" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>693</v>
+      </c>
+      <c r="B363" t="s">
         <v>694</v>
       </c>
-      <c r="B363" t="s">
-        <v>695</v>
-      </c>
       <c r="C363" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D363" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B363, ""en"", ""pt"")"),"óleo")</f>
@@ -11027,13 +11027,13 @@
     </row>
     <row r="364" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>695</v>
+      </c>
+      <c r="B364" t="s">
         <v>696</v>
       </c>
-      <c r="B364" t="s">
-        <v>697</v>
-      </c>
       <c r="C364" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D364" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B364, ""en"", ""pt"")"),"velho")</f>
@@ -11042,13 +11042,13 @@
     </row>
     <row r="365" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>695</v>
+      </c>
+      <c r="B365" t="s">
         <v>696</v>
       </c>
-      <c r="B365" t="s">
-        <v>697</v>
-      </c>
       <c r="C365" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D365" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B365, ""en"", ""pt"")"),"velho")</f>
@@ -11057,13 +11057,13 @@
     </row>
     <row r="366" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>697</v>
+      </c>
+      <c r="B366" t="s">
         <v>698</v>
       </c>
-      <c r="B366" t="s">
-        <v>699</v>
-      </c>
       <c r="C366" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D366" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B366, ""en"", ""pt"")"),"1")</f>
@@ -11072,13 +11072,13 @@
     </row>
     <row r="367" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>697</v>
+      </c>
+      <c r="B367" t="s">
         <v>698</v>
       </c>
-      <c r="B367" t="s">
-        <v>699</v>
-      </c>
       <c r="C367" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D367" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B367, ""en"", ""pt"")"),"1")</f>
@@ -11087,13 +11087,13 @@
     </row>
     <row r="368" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>699</v>
+      </c>
+      <c r="B368" t="s">
         <v>700</v>
       </c>
-      <c r="B368" t="s">
-        <v>701</v>
-      </c>
       <c r="C368" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D368" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B368, ""en"", ""pt"")"),"abrir")</f>
@@ -11102,13 +11102,13 @@
     </row>
     <row r="369" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>701</v>
+      </c>
+      <c r="B369" t="s">
         <v>702</v>
       </c>
-      <c r="B369" t="s">
-        <v>703</v>
-      </c>
       <c r="C369" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D369" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B369, ""en"", ""pt"")"),"laranja")</f>
@@ -11117,13 +11117,13 @@
     </row>
     <row r="370" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>701</v>
+      </c>
+      <c r="B370" t="s">
         <v>702</v>
       </c>
-      <c r="B370" t="s">
-        <v>703</v>
-      </c>
       <c r="C370" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D370" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B370, ""en"", ""pt"")"),"laranja")</f>
@@ -11132,13 +11132,13 @@
     </row>
     <row r="371" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>703</v>
+      </c>
+      <c r="B371" t="s">
         <v>704</v>
       </c>
-      <c r="B371" t="s">
-        <v>705</v>
-      </c>
       <c r="C371" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D371" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B371, ""en"", ""pt"")"),"lado de fora")</f>
@@ -11147,13 +11147,13 @@
     </row>
     <row r="372" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>705</v>
+      </c>
+      <c r="B372" t="s">
         <v>706</v>
       </c>
-      <c r="B372" t="s">
-        <v>707</v>
-      </c>
       <c r="C372" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D372" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B372, ""en"", ""pt"")"),"página")</f>
@@ -11162,13 +11162,13 @@
     </row>
     <row r="373" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>707</v>
+      </c>
+      <c r="B373" t="s">
         <v>708</v>
       </c>
-      <c r="B373" t="s">
-        <v>709</v>
-      </c>
       <c r="C373" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D373" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B373, ""en"", ""pt"")"),"dor")</f>
@@ -11177,13 +11177,13 @@
     </row>
     <row r="374" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>709</v>
+      </c>
+      <c r="B374" t="s">
         <v>710</v>
       </c>
-      <c r="B374" t="s">
-        <v>711</v>
-      </c>
       <c r="C374" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D374" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B374, ""en"", ""pt"")"),"pintura")</f>
@@ -11192,13 +11192,13 @@
     </row>
     <row r="375" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>711</v>
+      </c>
+      <c r="B375" t="s">
         <v>712</v>
       </c>
-      <c r="B375" t="s">
-        <v>713</v>
-      </c>
       <c r="C375" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D375" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B375, ""en"", ""pt"")"),"calça")</f>
@@ -11207,13 +11207,13 @@
     </row>
     <row r="376" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>713</v>
+      </c>
+      <c r="B376" t="s">
         <v>714</v>
       </c>
-      <c r="B376" t="s">
-        <v>715</v>
-      </c>
       <c r="C376" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D376" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B376, ""en"", ""pt"")"),"papel")</f>
@@ -11222,13 +11222,13 @@
     </row>
     <row r="377" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>715</v>
+      </c>
+      <c r="B377" t="s">
         <v>716</v>
       </c>
-      <c r="B377" t="s">
-        <v>717</v>
-      </c>
       <c r="C377" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D377" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B377, ""en"", ""pt"")"),"parente")</f>
@@ -11237,13 +11237,13 @@
     </row>
     <row r="378" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>717</v>
+      </c>
+      <c r="B378" t="s">
         <v>718</v>
       </c>
-      <c r="B378" t="s">
-        <v>719</v>
-      </c>
       <c r="C378" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D378" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B378, ""en"", ""pt"")"),"parque")</f>
@@ -11252,13 +11252,13 @@
     </row>
     <row r="379" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>719</v>
+      </c>
+      <c r="B379" t="s">
         <v>720</v>
       </c>
-      <c r="B379" t="s">
-        <v>721</v>
-      </c>
       <c r="C379" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D379" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B379, ""en"", ""pt"")"),"passar")</f>
@@ -11267,13 +11267,13 @@
     </row>
     <row r="380" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>721</v>
+      </c>
+      <c r="B380" t="s">
         <v>722</v>
       </c>
-      <c r="B380" t="s">
-        <v>723</v>
-      </c>
       <c r="C380" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D380" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B380, ""en"", ""pt"")"),"paciente")</f>
@@ -11282,13 +11282,13 @@
     </row>
     <row r="381" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>723</v>
+      </c>
+      <c r="B381" t="s">
         <v>724</v>
       </c>
-      <c r="B381" t="s">
-        <v>725</v>
-      </c>
       <c r="C381" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D381" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B381, ""en"", ""pt"")"),"padronizar")</f>
@@ -11297,13 +11297,13 @@
     </row>
     <row r="382" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>725</v>
+      </c>
+      <c r="B382" t="s">
         <v>726</v>
       </c>
-      <c r="B382" t="s">
-        <v>727</v>
-      </c>
       <c r="C382" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D382" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B382, ""en"", ""pt"")"),"pagamento")</f>
@@ -11312,13 +11312,13 @@
     </row>
     <row r="383" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>727</v>
+      </c>
+      <c r="B383" t="s">
         <v>728</v>
       </c>
-      <c r="B383" t="s">
-        <v>729</v>
-      </c>
       <c r="C383" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D383" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B383, ""en"", ""pt"")"),"Paz")</f>
@@ -11327,13 +11327,13 @@
     </row>
     <row r="384" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>729</v>
+      </c>
+      <c r="B384" t="s">
         <v>730</v>
       </c>
-      <c r="B384" t="s">
-        <v>731</v>
-      </c>
       <c r="C384" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D384" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B384, ""en"", ""pt"")"),"caneta")</f>
@@ -11342,13 +11342,13 @@
     </row>
     <row r="385" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>731</v>
+      </c>
+      <c r="B385" t="s">
         <v>732</v>
       </c>
-      <c r="B385" t="s">
-        <v>733</v>
-      </c>
       <c r="C385" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D385" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B385, ""en"", ""pt"")"),"lápis")</f>
@@ -11357,13 +11357,13 @@
     </row>
     <row r="386" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>733</v>
+      </c>
+      <c r="B386" t="s">
         <v>734</v>
       </c>
-      <c r="B386" t="s">
-        <v>735</v>
-      </c>
       <c r="C386" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D386" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B386, ""en"", ""pt"")"),"pessoa")</f>
@@ -11372,13 +11372,13 @@
     </row>
     <row r="387" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>735</v>
+      </c>
+      <c r="B387" t="s">
         <v>736</v>
       </c>
-      <c r="B387" t="s">
-        <v>737</v>
-      </c>
       <c r="C387" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D387" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B387, ""en"", ""pt"")"),"telefone")</f>
@@ -11387,13 +11387,13 @@
     </row>
     <row r="388" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>737</v>
+      </c>
+      <c r="B388" t="s">
         <v>738</v>
       </c>
-      <c r="B388" t="s">
-        <v>739</v>
-      </c>
       <c r="C388" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D388" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B388, ""en"", ""pt"")"),"fotografia")</f>
@@ -11402,13 +11402,13 @@
     </row>
     <row r="389" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>739</v>
+      </c>
+      <c r="B389" t="s">
         <v>740</v>
       </c>
-      <c r="B389" t="s">
-        <v>741</v>
-      </c>
       <c r="C389" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D389" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B389, ""en"", ""pt"")"),"peça")</f>
@@ -11417,13 +11417,13 @@
     </row>
     <row r="390" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>741</v>
+      </c>
+      <c r="B390" t="s">
         <v>742</v>
       </c>
-      <c r="B390" t="s">
-        <v>743</v>
-      </c>
       <c r="C390" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D390" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B390, ""en"", ""pt"")"),"porco")</f>
@@ -11432,13 +11432,13 @@
     </row>
     <row r="391" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>743</v>
+      </c>
+      <c r="B391" t="s">
         <v>744</v>
       </c>
-      <c r="B391" t="s">
-        <v>745</v>
-      </c>
       <c r="C391" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D391" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B391, ""en"", ""pt"")"),"Rosa")</f>
@@ -11447,13 +11447,13 @@
     </row>
     <row r="392" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>745</v>
+      </c>
+      <c r="B392" t="s">
         <v>746</v>
       </c>
-      <c r="B392" t="s">
-        <v>747</v>
-      </c>
       <c r="C392" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D392" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B392, ""en"", ""pt"")"),"avião")</f>
@@ -11462,13 +11462,13 @@
     </row>
     <row r="393" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>747</v>
+      </c>
+      <c r="B393" t="s">
         <v>748</v>
       </c>
-      <c r="B393" t="s">
-        <v>749</v>
-      </c>
       <c r="C393" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D393" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B393, ""en"", ""pt"")"),"plantar")</f>
@@ -11477,13 +11477,13 @@
     </row>
     <row r="394" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>749</v>
+      </c>
+      <c r="B394" t="s">
         <v>750</v>
       </c>
-      <c r="B394" t="s">
-        <v>751</v>
-      </c>
       <c r="C394" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D394" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B394, ""en"", ""pt"")"),"plástico")</f>
@@ -11492,13 +11492,13 @@
     </row>
     <row r="395" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>751</v>
+      </c>
+      <c r="B395" t="s">
         <v>752</v>
       </c>
-      <c r="B395" t="s">
-        <v>753</v>
-      </c>
       <c r="C395" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D395" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B395, ""en"", ""pt"")"),"prato")</f>
@@ -11507,13 +11507,13 @@
     </row>
     <row r="396" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>753</v>
+      </c>
+      <c r="B396" t="s">
         <v>754</v>
       </c>
-      <c r="B396" t="s">
-        <v>755</v>
-      </c>
       <c r="C396" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D396" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B396, ""en"", ""pt"")"),"Toque")</f>
@@ -11522,13 +11522,13 @@
     </row>
     <row r="397" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>755</v>
+      </c>
+      <c r="B397" t="s">
         <v>756</v>
       </c>
-      <c r="B397" t="s">
-        <v>757</v>
-      </c>
       <c r="C397" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D397" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B397, ""en"", ""pt"")"),"jogador")</f>
@@ -11537,13 +11537,13 @@
     </row>
     <row r="398" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>757</v>
+      </c>
+      <c r="B398" t="s">
         <v>758</v>
       </c>
-      <c r="B398" t="s">
-        <v>759</v>
-      </c>
       <c r="C398" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D398" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B398, ""en"", ""pt"")"),"bolso")</f>
@@ -11552,13 +11552,13 @@
     </row>
     <row r="399" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>759</v>
+      </c>
+      <c r="B399" t="s">
         <v>760</v>
       </c>
-      <c r="B399" t="s">
-        <v>761</v>
-      </c>
       <c r="C399" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D399" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B399, ""en"", ""pt"")"),"Poção")</f>
@@ -11567,13 +11567,13 @@
     </row>
     <row r="400" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>761</v>
+      </c>
+      <c r="B400" t="s">
         <v>762</v>
       </c>
-      <c r="B400" t="s">
-        <v>763</v>
-      </c>
       <c r="C400" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D400" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B400, ""en"", ""pt"")"),"polícia")</f>
@@ -11582,13 +11582,13 @@
     </row>
     <row r="401" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>763</v>
+      </c>
+      <c r="B401" t="s">
         <v>764</v>
       </c>
-      <c r="B401" t="s">
-        <v>765</v>
-      </c>
       <c r="C401" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D401" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B401, ""en"", ""pt"")"),"piscina")</f>
@@ -11597,13 +11597,13 @@
     </row>
     <row r="402" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>765</v>
+      </c>
+      <c r="B402" t="s">
         <v>766</v>
       </c>
-      <c r="B402" t="s">
-        <v>767</v>
-      </c>
       <c r="C402" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D402" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B402, ""en"", ""pt"")"),"pobre")</f>
@@ -11612,13 +11612,13 @@
     </row>
     <row r="403" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>767</v>
+      </c>
+      <c r="B403" t="s">
         <v>768</v>
       </c>
-      <c r="B403" t="s">
-        <v>769</v>
-      </c>
       <c r="C403" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D403" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B403, ""en"", ""pt"")"),"carne de porco")</f>
@@ -11627,13 +11627,13 @@
     </row>
     <row r="404" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>769</v>
+      </c>
+      <c r="B404" t="s">
         <v>770</v>
       </c>
-      <c r="B404" t="s">
-        <v>771</v>
-      </c>
       <c r="C404" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D404" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B404, ""en"", ""pt"")"),"libra")</f>
@@ -11642,13 +11642,13 @@
     </row>
     <row r="405" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>771</v>
+      </c>
+      <c r="B405" t="s">
         <v>772</v>
       </c>
-      <c r="B405" t="s">
-        <v>773</v>
-      </c>
       <c r="C405" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D405" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B405, ""en"", ""pt"")"),"orar")</f>
@@ -11657,13 +11657,13 @@
     </row>
     <row r="406" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>773</v>
+      </c>
+      <c r="B406" t="s">
         <v>774</v>
       </c>
-      <c r="B406" t="s">
-        <v>775</v>
-      </c>
       <c r="C406" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D406" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B406, ""en"", ""pt"")"),"Presidente")</f>
@@ -11672,13 +11672,13 @@
     </row>
     <row r="407" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>775</v>
+      </c>
+      <c r="B407" t="s">
         <v>776</v>
       </c>
-      <c r="B407" t="s">
-        <v>777</v>
-      </c>
       <c r="C407" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D407" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B407, ""en"", ""pt"")"),"preço")</f>
@@ -11687,13 +11687,13 @@
     </row>
     <row r="408" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>777</v>
+      </c>
+      <c r="B408" t="s">
         <v>778</v>
       </c>
-      <c r="B408" t="s">
-        <v>779</v>
-      </c>
       <c r="C408" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D408" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B408, ""en"", ""pt"")"),"sacerdote")</f>
@@ -11702,13 +11702,13 @@
     </row>
     <row r="409" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>779</v>
+      </c>
+      <c r="B409" t="s">
         <v>780</v>
       </c>
-      <c r="B409" t="s">
-        <v>781</v>
-      </c>
       <c r="C409" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D409" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B409, ""en"", ""pt"")"),"prisão")</f>
@@ -11717,13 +11717,13 @@
     </row>
     <row r="410" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>781</v>
+      </c>
+      <c r="B410" t="s">
         <v>782</v>
       </c>
-      <c r="B410" t="s">
-        <v>783</v>
-      </c>
       <c r="C410" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D410" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B410, ""en"", ""pt"")"),"programa")</f>
@@ -11732,13 +11732,13 @@
     </row>
     <row r="411" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>783</v>
+      </c>
+      <c r="B411" t="s">
         <v>784</v>
       </c>
-      <c r="B411" t="s">
-        <v>785</v>
-      </c>
       <c r="C411" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D411" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B411, ""en"", ""pt"")"),"puxar")</f>
@@ -11747,13 +11747,13 @@
     </row>
     <row r="412" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>785</v>
+      </c>
+      <c r="B412" t="s">
         <v>786</v>
       </c>
-      <c r="B412" t="s">
-        <v>787</v>
-      </c>
       <c r="C412" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D412" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B412, ""en"", ""pt"")"),"empurrar")</f>
@@ -11762,13 +11762,13 @@
     </row>
     <row r="413" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>787</v>
+      </c>
+      <c r="B413" t="s">
         <v>788</v>
       </c>
-      <c r="B413" t="s">
-        <v>789</v>
-      </c>
       <c r="C413" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D413" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B413, ""en"", ""pt"")"),"rainha")</f>
@@ -11777,13 +11777,13 @@
     </row>
     <row r="414" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>789</v>
+      </c>
+      <c r="B414" t="s">
         <v>790</v>
       </c>
-      <c r="B414" t="s">
-        <v>791</v>
-      </c>
       <c r="C414" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D414" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B414, ""en"", ""pt"")"),"quieto")</f>
@@ -11792,13 +11792,13 @@
     </row>
     <row r="415" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>791</v>
+      </c>
+      <c r="B415" t="s">
         <v>792</v>
       </c>
-      <c r="B415" t="s">
-        <v>793</v>
-      </c>
       <c r="C415" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D415" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B415, ""en"", ""pt"")"),"raça")</f>
@@ -11807,13 +11807,13 @@
     </row>
     <row r="416" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>791</v>
+      </c>
+      <c r="B416" t="s">
         <v>792</v>
       </c>
-      <c r="B416" t="s">
-        <v>793</v>
-      </c>
       <c r="C416" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D416" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B416, ""en"", ""pt"")"),"raça")</f>
@@ -11822,13 +11822,13 @@
     </row>
     <row r="417" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>793</v>
+      </c>
+      <c r="B417" t="s">
         <v>794</v>
       </c>
-      <c r="B417" t="s">
-        <v>795</v>
-      </c>
       <c r="C417" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D417" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B417, ""en"", ""pt"")"),"rádio")</f>
@@ -11837,13 +11837,13 @@
     </row>
     <row r="418" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>795</v>
+      </c>
+      <c r="B418" t="s">
         <v>796</v>
       </c>
-      <c r="B418" t="s">
-        <v>797</v>
-      </c>
       <c r="C418" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D418" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B418, ""en"", ""pt"")"),"chuva")</f>
@@ -11852,13 +11852,13 @@
     </row>
     <row r="419" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>797</v>
+      </c>
+      <c r="B419" t="s">
         <v>798</v>
       </c>
-      <c r="B419" t="s">
-        <v>799</v>
-      </c>
       <c r="C419" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D419" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B419, ""en"", ""pt"")"),"vermelho")</f>
@@ -11867,13 +11867,13 @@
     </row>
     <row r="420" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>799</v>
+      </c>
+      <c r="B420" t="s">
         <v>800</v>
       </c>
-      <c r="B420" t="s">
-        <v>801</v>
-      </c>
       <c r="C420" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D420" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B420, ""en"", ""pt"")"),"religião")</f>
@@ -11882,13 +11882,13 @@
     </row>
     <row r="421" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>801</v>
+      </c>
+      <c r="B421" t="s">
         <v>802</v>
       </c>
-      <c r="B421" t="s">
-        <v>803</v>
-      </c>
       <c r="C421" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D421" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B421, ""en"", ""pt"")"),"repórter")</f>
@@ -11897,13 +11897,13 @@
     </row>
     <row r="422" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>803</v>
+      </c>
+      <c r="B422" t="s">
         <v>804</v>
       </c>
-      <c r="B422" t="s">
-        <v>805</v>
-      </c>
       <c r="C422" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D422" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B422, ""en"", ""pt"")"),"restaurante")</f>
@@ -11912,13 +11912,13 @@
     </row>
     <row r="423" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>805</v>
+      </c>
+      <c r="B423" t="s">
         <v>806</v>
       </c>
-      <c r="B423" t="s">
-        <v>807</v>
-      </c>
       <c r="C423" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D423" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B423, ""en"", ""pt"")"),"arroz")</f>
@@ -11927,13 +11927,13 @@
     </row>
     <row r="424" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>807</v>
+      </c>
+      <c r="B424" t="s">
         <v>808</v>
       </c>
-      <c r="B424" t="s">
-        <v>809</v>
-      </c>
       <c r="C424" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D424" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B424, ""en"", ""pt"")"),"rico")</f>
@@ -11942,13 +11942,13 @@
     </row>
     <row r="425" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>809</v>
+      </c>
+      <c r="B425" t="s">
         <v>810</v>
       </c>
-      <c r="B425" t="s">
-        <v>811</v>
-      </c>
       <c r="C425" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D425" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B425, ""en"", ""pt"")"),"direito")</f>
@@ -11957,13 +11957,13 @@
     </row>
     <row r="426" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>811</v>
+      </c>
+      <c r="B426" t="s">
         <v>812</v>
       </c>
-      <c r="B426" t="s">
-        <v>813</v>
-      </c>
       <c r="C426" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D426" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B426, ""en"", ""pt"")"),"anel")</f>
@@ -11972,13 +11972,13 @@
     </row>
     <row r="427" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>813</v>
+      </c>
+      <c r="B427" t="s">
         <v>814</v>
       </c>
-      <c r="B427" t="s">
-        <v>815</v>
-      </c>
       <c r="C427" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D427" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B427, ""en"", ""pt"")"),"rio")</f>
@@ -11987,13 +11987,13 @@
     </row>
     <row r="428" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>815</v>
+      </c>
+      <c r="B428" t="s">
         <v>816</v>
       </c>
-      <c r="B428" t="s">
-        <v>817</v>
-      </c>
       <c r="C428" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D428" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B428, ""en"", ""pt"")"),"estrada")</f>
@@ -12002,13 +12002,13 @@
     </row>
     <row r="429" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>817</v>
+      </c>
+      <c r="B429" t="s">
         <v>818</v>
       </c>
-      <c r="B429" t="s">
-        <v>819</v>
-      </c>
       <c r="C429" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D429" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B429, ""en"", ""pt"")"),"cobertura")</f>
@@ -12017,13 +12017,13 @@
     </row>
     <row r="430" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>819</v>
+      </c>
+      <c r="B430" t="s">
         <v>820</v>
       </c>
-      <c r="B430" t="s">
-        <v>821</v>
-      </c>
       <c r="C430" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D430" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B430, ""en"", ""pt"")"),"quarto")</f>
@@ -12032,13 +12032,13 @@
     </row>
     <row r="431" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>821</v>
+      </c>
+      <c r="B431" t="s">
         <v>822</v>
       </c>
-      <c r="B431" t="s">
-        <v>823</v>
-      </c>
       <c r="C431" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D431" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B431, ""en"", ""pt"")"),"raiz")</f>
@@ -12047,13 +12047,13 @@
     </row>
     <row r="432" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>823</v>
+      </c>
+      <c r="B432" t="s">
         <v>824</v>
       </c>
-      <c r="B432" t="s">
-        <v>825</v>
-      </c>
       <c r="C432" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D432" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B432, ""en"", ""pt"")"),"corre")</f>
@@ -12062,13 +12062,13 @@
     </row>
     <row r="433" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>825</v>
+      </c>
+      <c r="B433" t="s">
         <v>826</v>
       </c>
-      <c r="B433" t="s">
-        <v>827</v>
-      </c>
       <c r="C433" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D433" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B433, ""en"", ""pt"")"),"triste")</f>
@@ -12077,13 +12077,13 @@
     </row>
     <row r="434" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>827</v>
+      </c>
+      <c r="B434" t="s">
         <v>828</v>
       </c>
-      <c r="B434" t="s">
-        <v>829</v>
-      </c>
       <c r="C434" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D434" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B434, ""en"", ""pt"")"),"sal")</f>
@@ -12092,13 +12092,13 @@
     </row>
     <row r="435" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>829</v>
+      </c>
+      <c r="B435" t="s">
         <v>830</v>
       </c>
-      <c r="B435" t="s">
-        <v>831</v>
-      </c>
       <c r="C435" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D435" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B435, ""en"", ""pt"")"),"areia")</f>
@@ -12107,13 +12107,13 @@
     </row>
     <row r="436" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
+        <v>831</v>
+      </c>
+      <c r="B436" t="s">
         <v>832</v>
       </c>
-      <c r="B436" t="s">
-        <v>833</v>
-      </c>
       <c r="C436" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D436" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B436, ""en"", ""pt"")"),"sábado")</f>
@@ -12122,13 +12122,13 @@
     </row>
     <row r="437" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>833</v>
+      </c>
+      <c r="B437" t="s">
         <v>834</v>
       </c>
-      <c r="B437" t="s">
-        <v>835</v>
-      </c>
       <c r="C437" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D437" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B437, ""en"", ""pt"")"),"dizer")</f>
@@ -12137,13 +12137,13 @@
     </row>
     <row r="438" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>835</v>
+      </c>
+      <c r="B438" t="s">
         <v>836</v>
       </c>
-      <c r="B438" t="s">
-        <v>837</v>
-      </c>
       <c r="C438" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D438" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B438, ""en"", ""pt"")"),"escola")</f>
@@ -12152,13 +12152,13 @@
     </row>
     <row r="439" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>837</v>
+      </c>
+      <c r="B439" t="s">
         <v>838</v>
       </c>
-      <c r="B439" t="s">
-        <v>839</v>
-      </c>
       <c r="C439" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D439" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B439, ""en"", ""pt"")"),"Ciência")</f>
@@ -12167,13 +12167,13 @@
     </row>
     <row r="440" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>839</v>
+      </c>
+      <c r="B440" t="s">
         <v>840</v>
       </c>
-      <c r="B440" t="s">
-        <v>841</v>
-      </c>
       <c r="C440" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D440" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B440, ""en"", ""pt"")"),"tela")</f>
@@ -12182,13 +12182,13 @@
     </row>
     <row r="441" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>841</v>
+      </c>
+      <c r="B441" t="s">
         <v>842</v>
       </c>
-      <c r="B441" t="s">
-        <v>843</v>
-      </c>
       <c r="C441" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D441" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B441, ""en"", ""pt"")"),"mar")</f>
@@ -12197,13 +12197,13 @@
     </row>
     <row r="442" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>843</v>
+      </c>
+      <c r="B442" t="s">
         <v>844</v>
       </c>
-      <c r="B442" t="s">
-        <v>845</v>
-      </c>
       <c r="C442" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D442" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B442, ""en"", ""pt"")"),"temporada")</f>
@@ -12212,13 +12212,13 @@
     </row>
     <row r="443" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>845</v>
+      </c>
+      <c r="B443" t="s">
         <v>846</v>
       </c>
-      <c r="B443" t="s">
-        <v>847</v>
-      </c>
       <c r="C443" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D443" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B443, ""en"", ""pt"")"),"segundo")</f>
@@ -12227,13 +12227,13 @@
     </row>
     <row r="444" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>845</v>
+      </c>
+      <c r="B444" t="s">
         <v>846</v>
       </c>
-      <c r="B444" t="s">
-        <v>847</v>
-      </c>
       <c r="C444" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D444" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B444, ""en"", ""pt"")"),"segundo")</f>
@@ -12242,13 +12242,13 @@
     </row>
     <row r="445" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>847</v>
+      </c>
+      <c r="B445" t="s">
         <v>848</v>
       </c>
-      <c r="B445" t="s">
-        <v>849</v>
-      </c>
       <c r="C445" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D445" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B445, ""en"", ""pt"")"),"secretário")</f>
@@ -12257,13 +12257,13 @@
     </row>
     <row r="446" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>849</v>
+      </c>
+      <c r="B446" t="s">
         <v>850</v>
       </c>
-      <c r="B446" t="s">
-        <v>851</v>
-      </c>
       <c r="C446" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D446" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B446, ""en"", ""pt"")"),"Vejo")</f>
@@ -12272,13 +12272,13 @@
     </row>
     <row r="447" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>851</v>
+      </c>
+      <c r="B447" t="s">
         <v>852</v>
       </c>
-      <c r="B447" t="s">
-        <v>853</v>
-      </c>
       <c r="C447" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D447" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B447, ""en"", ""pt"")"),"semente")</f>
@@ -12287,13 +12287,13 @@
     </row>
     <row r="448" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>853</v>
+      </c>
+      <c r="B448" t="s">
         <v>854</v>
       </c>
-      <c r="B448" t="s">
-        <v>855</v>
-      </c>
       <c r="C448" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D448" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B448, ""en"", ""pt"")"),"vender")</f>
@@ -12302,13 +12302,13 @@
     </row>
     <row r="449" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B449" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C449" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D449" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B449, ""en"", ""pt"")"),"setembro")</f>
@@ -12317,13 +12317,13 @@
     </row>
     <row r="450" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>856</v>
+      </c>
+      <c r="B450" t="s">
         <v>857</v>
       </c>
-      <c r="B450" t="s">
-        <v>858</v>
-      </c>
       <c r="C450" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D450" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B450, ""en"", ""pt"")"),"Sete")</f>
@@ -12332,13 +12332,13 @@
     </row>
     <row r="451" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>858</v>
+      </c>
+      <c r="B451" t="s">
         <v>859</v>
       </c>
-      <c r="B451" t="s">
-        <v>860</v>
-      </c>
       <c r="C451" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D451" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B451, ""en"", ""pt"")"),"dezessete")</f>
@@ -12347,13 +12347,13 @@
     </row>
     <row r="452" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>860</v>
+      </c>
+      <c r="B452" t="s">
         <v>861</v>
       </c>
-      <c r="B452" t="s">
-        <v>862</v>
-      </c>
       <c r="C452" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D452" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B452, ""en"", ""pt"")"),"setenta")</f>
@@ -12362,13 +12362,13 @@
     </row>
     <row r="453" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
+        <v>862</v>
+      </c>
+      <c r="B453" t="s">
         <v>863</v>
       </c>
-      <c r="B453" t="s">
-        <v>864</v>
-      </c>
       <c r="C453" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D453" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B453, ""en"", ""pt"")"),"sexo")</f>
@@ -12377,13 +12377,13 @@
     </row>
     <row r="454" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
+        <v>862</v>
+      </c>
+      <c r="B454" t="s">
         <v>863</v>
       </c>
-      <c r="B454" t="s">
-        <v>864</v>
-      </c>
       <c r="C454" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D454" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B454, ""en"", ""pt"")"),"sexo")</f>
@@ -12392,13 +12392,13 @@
     </row>
     <row r="455" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>864</v>
+      </c>
+      <c r="B455" t="s">
         <v>865</v>
       </c>
-      <c r="B455" t="s">
-        <v>866</v>
-      </c>
       <c r="C455" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D455" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B455, ""en"", ""pt"")"),"mexe")</f>
@@ -12407,13 +12407,13 @@
     </row>
     <row r="456" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>866</v>
+      </c>
+      <c r="B456" t="s">
         <v>867</v>
       </c>
-      <c r="B456" t="s">
-        <v>868</v>
-      </c>
       <c r="C456" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D456" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B456, ""en"", ""pt"")"),"raso")</f>
@@ -12422,13 +12422,13 @@
     </row>
     <row r="457" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>868</v>
+      </c>
+      <c r="B457" t="s">
         <v>869</v>
       </c>
-      <c r="B457" t="s">
-        <v>870</v>
-      </c>
       <c r="C457" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D457" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B457, ""en"", ""pt"")"),"ela")</f>
@@ -12437,13 +12437,13 @@
     </row>
     <row r="458" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>870</v>
+      </c>
+      <c r="B458" t="s">
         <v>871</v>
       </c>
-      <c r="B458" t="s">
-        <v>872</v>
-      </c>
       <c r="C458" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D458" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B458, ""en"", ""pt"")"),"navio")</f>
@@ -12452,13 +12452,13 @@
     </row>
     <row r="459" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
+        <v>872</v>
+      </c>
+      <c r="B459" t="s">
         <v>873</v>
       </c>
-      <c r="B459" t="s">
-        <v>874</v>
-      </c>
       <c r="C459" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D459" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B459, ""en"", ""pt"")"),"camisa")</f>
@@ -12467,13 +12467,13 @@
     </row>
     <row r="460" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>874</v>
+      </c>
+      <c r="B460" t="s">
         <v>875</v>
       </c>
-      <c r="B460" t="s">
-        <v>876</v>
-      </c>
       <c r="C460" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D460" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B460, ""en"", ""pt"")"),"sapatos")</f>
@@ -12482,13 +12482,13 @@
     </row>
     <row r="461" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
+        <v>876</v>
+      </c>
+      <c r="B461" t="s">
         <v>877</v>
       </c>
-      <c r="B461" t="s">
-        <v>878</v>
-      </c>
       <c r="C461" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D461" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B461, ""en"", ""pt"")"),"shoot")</f>
@@ -12497,13 +12497,13 @@
     </row>
     <row r="462" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>878</v>
+      </c>
+      <c r="B462" t="s">
         <v>879</v>
       </c>
-      <c r="B462" t="s">
-        <v>880</v>
-      </c>
       <c r="C462" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D462" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B462, ""en"", ""pt"")"),"fazer compras")</f>
@@ -12512,13 +12512,13 @@
     </row>
     <row r="463" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>880</v>
+      </c>
+      <c r="B463" t="s">
         <v>881</v>
       </c>
-      <c r="B463" t="s">
-        <v>882</v>
-      </c>
       <c r="C463" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D463" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B463, ""en"", ""pt"")"),"curto")</f>
@@ -12527,13 +12527,13 @@
     </row>
     <row r="464" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>880</v>
+      </c>
+      <c r="B464" t="s">
         <v>881</v>
       </c>
-      <c r="B464" t="s">
-        <v>882</v>
-      </c>
       <c r="C464" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D464" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B464, ""en"", ""pt"")"),"curto")</f>
@@ -12542,13 +12542,13 @@
     </row>
     <row r="465" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
+        <v>882</v>
+      </c>
+      <c r="B465" t="s">
         <v>883</v>
       </c>
-      <c r="B465" t="s">
-        <v>884</v>
-      </c>
       <c r="C465" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D465" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B465, ""en"", ""pt"")"),"ombro")</f>
@@ -12557,13 +12557,13 @@
     </row>
     <row r="466" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>884</v>
+      </c>
+      <c r="B466" t="s">
         <v>885</v>
       </c>
-      <c r="B466" t="s">
-        <v>886</v>
-      </c>
       <c r="C466" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D466" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B466, ""en"", ""pt"")"),"doente")</f>
@@ -12572,13 +12572,13 @@
     </row>
     <row r="467" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
+        <v>886</v>
+      </c>
+      <c r="B467" t="s">
         <v>887</v>
       </c>
-      <c r="B467" t="s">
-        <v>888</v>
-      </c>
       <c r="C467" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D467" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B467, ""en"", ""pt"")"),"lado")</f>
@@ -12587,13 +12587,13 @@
     </row>
     <row r="468" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>888</v>
+      </c>
+      <c r="B468" t="s">
         <v>889</v>
       </c>
-      <c r="B468" t="s">
-        <v>890</v>
-      </c>
       <c r="C468" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D468" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B468, ""en"", ""pt"")"),"placa")</f>
@@ -12602,13 +12602,13 @@
     </row>
     <row r="469" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>888</v>
+      </c>
+      <c r="B469" t="s">
         <v>889</v>
       </c>
-      <c r="B469" t="s">
-        <v>890</v>
-      </c>
       <c r="C469" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D469" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B469, ""en"", ""pt"")"),"placa")</f>
@@ -12617,13 +12617,13 @@
     </row>
     <row r="470" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>890</v>
+      </c>
+      <c r="B470" t="s">
         <v>891</v>
       </c>
-      <c r="B470" t="s">
-        <v>892</v>
-      </c>
       <c r="C470" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D470" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B470, ""en"", ""pt"")"),"prata")</f>
@@ -12632,13 +12632,13 @@
     </row>
     <row r="471" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>892</v>
+      </c>
+      <c r="B471" t="s">
         <v>893</v>
       </c>
-      <c r="B471" t="s">
-        <v>894</v>
-      </c>
       <c r="C471" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D471" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B471, ""en"", ""pt"")"),"cantar")</f>
@@ -12647,13 +12647,13 @@
     </row>
     <row r="472" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>894</v>
+      </c>
+      <c r="B472" t="s">
         <v>895</v>
       </c>
-      <c r="B472" t="s">
-        <v>896</v>
-      </c>
       <c r="C472" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D472" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B472, ""en"", ""pt"")"),"irmã")</f>
@@ -12662,13 +12662,13 @@
     </row>
     <row r="473" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>896</v>
+      </c>
+      <c r="B473" t="s">
         <v>897</v>
       </c>
-      <c r="B473" t="s">
-        <v>898</v>
-      </c>
       <c r="C473" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D473" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B473, ""en"", ""pt"")"),"sentar")</f>
@@ -12677,13 +12677,13 @@
     </row>
     <row r="474" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
+        <v>898</v>
+      </c>
+      <c r="B474" t="s">
         <v>899</v>
       </c>
-      <c r="B474" t="s">
-        <v>900</v>
-      </c>
       <c r="C474" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D474" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B474, ""en"", ""pt"")"),"seis")</f>
@@ -12692,13 +12692,13 @@
     </row>
     <row r="475" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>900</v>
+      </c>
+      <c r="B475" t="s">
         <v>901</v>
       </c>
-      <c r="B475" t="s">
-        <v>902</v>
-      </c>
       <c r="C475" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D475" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B475, ""en"", ""pt"")"),"dezesseis")</f>
@@ -12707,13 +12707,13 @@
     </row>
     <row r="476" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>902</v>
+      </c>
+      <c r="B476" t="s">
         <v>903</v>
       </c>
-      <c r="B476" t="s">
-        <v>904</v>
-      </c>
       <c r="C476" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D476" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B476, ""en"", ""pt"")"),"sessenta")</f>
@@ -12722,13 +12722,13 @@
     </row>
     <row r="477" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>904</v>
+      </c>
+      <c r="B477" t="s">
         <v>905</v>
       </c>
-      <c r="B477" t="s">
-        <v>906</v>
-      </c>
       <c r="C477" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D477" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B477, ""en"", ""pt"")"),"pele")</f>
@@ -12737,13 +12737,13 @@
     </row>
     <row r="478" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
+        <v>906</v>
+      </c>
+      <c r="B478" t="s">
         <v>907</v>
       </c>
-      <c r="B478" t="s">
-        <v>908</v>
-      </c>
       <c r="C478" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D478" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B478, ""en"", ""pt"")"),"saia")</f>
@@ -12752,13 +12752,13 @@
     </row>
     <row r="479" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
+        <v>908</v>
+      </c>
+      <c r="B479" t="s">
         <v>909</v>
       </c>
-      <c r="B479" t="s">
-        <v>910</v>
-      </c>
       <c r="C479" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D479" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B479, ""en"", ""pt"")"),"céu")</f>
@@ -12767,13 +12767,13 @@
     </row>
     <row r="480" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>910</v>
+      </c>
+      <c r="B480" t="s">
         <v>911</v>
       </c>
-      <c r="B480" t="s">
-        <v>912</v>
-      </c>
       <c r="C480" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D480" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B480, ""en"", ""pt"")"),"dormir")</f>
@@ -12782,13 +12782,13 @@
     </row>
     <row r="481" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>912</v>
+      </c>
+      <c r="B481" t="s">
         <v>913</v>
       </c>
-      <c r="B481" t="s">
-        <v>914</v>
-      </c>
       <c r="C481" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D481" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B481, ""en"", ""pt"")"),"lento")</f>
@@ -12797,13 +12797,13 @@
     </row>
     <row r="482" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>914</v>
+      </c>
+      <c r="B482" t="s">
         <v>915</v>
       </c>
-      <c r="B482" t="s">
-        <v>916</v>
-      </c>
       <c r="C482" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D482" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B482, ""en"", ""pt"")"),"pequeno")</f>
@@ -12812,13 +12812,13 @@
     </row>
     <row r="483" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>916</v>
+      </c>
+      <c r="B483" t="s">
         <v>917</v>
       </c>
-      <c r="B483" t="s">
-        <v>918</v>
-      </c>
       <c r="C483" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D483" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B483, ""en"", ""pt"")"),"cheiro")</f>
@@ -12827,13 +12827,13 @@
     </row>
     <row r="484" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>918</v>
+      </c>
+      <c r="B484" t="s">
         <v>919</v>
       </c>
-      <c r="B484" t="s">
-        <v>920</v>
-      </c>
       <c r="C484" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D484" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B484, ""en"", ""pt"")"),"sorrir")</f>
@@ -12842,13 +12842,13 @@
     </row>
     <row r="485" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>920</v>
+      </c>
+      <c r="B485" t="s">
         <v>921</v>
       </c>
-      <c r="B485" t="s">
-        <v>922</v>
-      </c>
       <c r="C485" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D485" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B485, ""en"", ""pt"")"),"neve")</f>
@@ -12857,13 +12857,13 @@
     </row>
     <row r="486" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>922</v>
+      </c>
+      <c r="B486" t="s">
         <v>923</v>
       </c>
-      <c r="B486" t="s">
-        <v>924</v>
-      </c>
       <c r="C486" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D486" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B486, ""en"", ""pt"")"),"Sabonete")</f>
@@ -12872,13 +12872,13 @@
     </row>
     <row r="487" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>924</v>
+      </c>
+      <c r="B487" t="s">
         <v>925</v>
       </c>
-      <c r="B487" t="s">
-        <v>926</v>
-      </c>
       <c r="C487" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D487" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B487, ""en"", ""pt"")"),"suave")</f>
@@ -12887,13 +12887,13 @@
     </row>
     <row r="488" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>926</v>
+      </c>
+      <c r="B488" t="s">
         <v>927</v>
       </c>
-      <c r="B488" t="s">
-        <v>928</v>
-      </c>
       <c r="C488" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D488" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B488, ""en"", ""pt"")"),"solo")</f>
@@ -12902,13 +12902,13 @@
     </row>
     <row r="489" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>928</v>
+      </c>
+      <c r="B489" t="s">
         <v>929</v>
       </c>
-      <c r="B489" t="s">
-        <v>930</v>
-      </c>
       <c r="C489" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D489" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B489, ""en"", ""pt"")"),"soldado")</f>
@@ -12917,13 +12917,13 @@
     </row>
     <row r="490" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>930</v>
+      </c>
+      <c r="B490" t="s">
         <v>931</v>
       </c>
-      <c r="B490" t="s">
-        <v>932</v>
-      </c>
       <c r="C490" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D490" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B490, ""en"", ""pt"")"),"filho")</f>
@@ -12932,13 +12932,13 @@
     </row>
     <row r="491" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>932</v>
+      </c>
+      <c r="B491" t="s">
         <v>933</v>
       </c>
-      <c r="B491" t="s">
-        <v>934</v>
-      </c>
       <c r="C491" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D491" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B491, ""en"", ""pt"")"),"canção")</f>
@@ -12947,13 +12947,13 @@
     </row>
     <row r="492" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
+        <v>934</v>
+      </c>
+      <c r="B492" t="s">
         <v>935</v>
       </c>
-      <c r="B492" t="s">
-        <v>936</v>
-      </c>
       <c r="C492" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D492" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B492, ""en"", ""pt"")"),"som")</f>
@@ -12962,13 +12962,13 @@
     </row>
     <row r="493" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>936</v>
+      </c>
+      <c r="B493" t="s">
         <v>937</v>
       </c>
-      <c r="B493" t="s">
-        <v>938</v>
-      </c>
       <c r="C493" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D493" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B493, ""en"", ""pt"")"),"sopa")</f>
@@ -12977,13 +12977,13 @@
     </row>
     <row r="494" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>938</v>
+      </c>
+      <c r="B494" t="s">
         <v>939</v>
       </c>
-      <c r="B494" t="s">
-        <v>940</v>
-      </c>
       <c r="C494" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D494" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B494, ""en"", ""pt"")"),"sul")</f>
@@ -12992,13 +12992,13 @@
     </row>
     <row r="495" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>940</v>
+      </c>
+      <c r="B495" t="s">
         <v>941</v>
       </c>
-      <c r="B495" t="s">
-        <v>942</v>
-      </c>
       <c r="C495" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D495" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B495, ""en"", ""pt"")"),"espaço")</f>
@@ -13007,13 +13007,13 @@
     </row>
     <row r="496" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>942</v>
+      </c>
+      <c r="B496" t="s">
         <v>943</v>
       </c>
-      <c r="B496" t="s">
-        <v>944</v>
-      </c>
       <c r="C496" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D496" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B496, ""en"", ""pt"")"),"falar")</f>
@@ -13022,13 +13022,13 @@
     </row>
     <row r="497" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
+        <v>944</v>
+      </c>
+      <c r="B497" t="s">
         <v>945</v>
       </c>
-      <c r="B497" t="s">
-        <v>946</v>
-      </c>
       <c r="C497" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D497" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B497, ""en"", ""pt"")"),"colher")</f>
@@ -13037,13 +13037,13 @@
     </row>
     <row r="498" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
+        <v>946</v>
+      </c>
+      <c r="B498" t="s">
         <v>947</v>
       </c>
-      <c r="B498" t="s">
-        <v>948</v>
-      </c>
       <c r="C498" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D498" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B498, ""en"", ""pt"")"),"esporte")</f>
@@ -13052,13 +13052,13 @@
     </row>
     <row r="499" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
+        <v>948</v>
+      </c>
+      <c r="B499" t="s">
         <v>949</v>
       </c>
-      <c r="B499" t="s">
-        <v>950</v>
-      </c>
       <c r="C499" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D499" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B499, ""en"", ""pt"")"),"Primavera")</f>
@@ -13067,13 +13067,13 @@
     </row>
     <row r="500" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
+        <v>950</v>
+      </c>
+      <c r="B500" t="s">
         <v>951</v>
       </c>
-      <c r="B500" t="s">
-        <v>952</v>
-      </c>
       <c r="C500" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D500" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B500, ""en"", ""pt"")"),"quadrado")</f>
@@ -13082,13 +13082,13 @@
     </row>
     <row r="501" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>952</v>
+      </c>
+      <c r="B501" t="s">
         <v>953</v>
       </c>
-      <c r="B501" t="s">
-        <v>954</v>
-      </c>
       <c r="C501" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D501" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B501, ""en"", ""pt"")"),"mancha")</f>
@@ -13097,13 +13097,13 @@
     </row>
     <row r="502" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>954</v>
+      </c>
+      <c r="B502" t="s">
         <v>955</v>
       </c>
-      <c r="B502" t="s">
-        <v>956</v>
-      </c>
       <c r="C502" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D502" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B502, ""en"", ""pt"")"),"ficar de pé")</f>
@@ -13112,13 +13112,13 @@
     </row>
     <row r="503" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
+        <v>956</v>
+      </c>
+      <c r="B503" t="s">
         <v>957</v>
       </c>
-      <c r="B503" t="s">
-        <v>958</v>
-      </c>
       <c r="C503" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D503" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B503, ""en"", ""pt"")"),"Estrela")</f>
@@ -13127,13 +13127,13 @@
     </row>
     <row r="504" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
+        <v>958</v>
+      </c>
+      <c r="B504" t="s">
         <v>959</v>
       </c>
-      <c r="B504" t="s">
-        <v>960</v>
-      </c>
       <c r="C504" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D504" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B504, ""en"", ""pt"")"),"estação")</f>
@@ -13142,13 +13142,13 @@
     </row>
     <row r="505" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
+        <v>960</v>
+      </c>
+      <c r="B505" t="s">
         <v>961</v>
       </c>
-      <c r="B505" t="s">
-        <v>962</v>
-      </c>
       <c r="C505" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D505" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B505, ""en"", ""pt"")"),"mexer")</f>
@@ -13157,13 +13157,13 @@
     </row>
     <row r="506" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>962</v>
+      </c>
+      <c r="B506" t="s">
         <v>963</v>
       </c>
-      <c r="B506" t="s">
-        <v>964</v>
-      </c>
       <c r="C506" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D506" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B506, ""en"", ""pt"")"),"pedra")</f>
@@ -13172,13 +13172,13 @@
     </row>
     <row r="507" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>964</v>
+      </c>
+      <c r="B507" t="s">
         <v>965</v>
       </c>
-      <c r="B507" t="s">
-        <v>966</v>
-      </c>
       <c r="C507" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D507" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B507, ""en"", ""pt"")"),"Pare")</f>
@@ -13187,13 +13187,13 @@
     </row>
     <row r="508" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
+        <v>966</v>
+      </c>
+      <c r="B508" t="s">
         <v>967</v>
       </c>
-      <c r="B508" t="s">
-        <v>968</v>
-      </c>
       <c r="C508" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D508" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B508, ""en"", ""pt"")"),"loja")</f>
@@ -13202,13 +13202,13 @@
     </row>
     <row r="509" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
+        <v>968</v>
+      </c>
+      <c r="B509" t="s">
         <v>969</v>
       </c>
-      <c r="B509" t="s">
-        <v>970</v>
-      </c>
       <c r="C509" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D509" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B509, ""en"", ""pt"")"),"direto")</f>
@@ -13217,13 +13217,13 @@
     </row>
     <row r="510" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>970</v>
+      </c>
+      <c r="B510" t="s">
         <v>971</v>
       </c>
-      <c r="B510" t="s">
-        <v>972</v>
-      </c>
       <c r="C510" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D510" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B510, ""en"", ""pt"")"),"rua")</f>
@@ -13232,13 +13232,13 @@
     </row>
     <row r="511" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>972</v>
+      </c>
+      <c r="B511" t="s">
         <v>973</v>
       </c>
-      <c r="B511" t="s">
-        <v>974</v>
-      </c>
       <c r="C511" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D511" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B511, ""en"", ""pt"")"),"Forte")</f>
@@ -13247,13 +13247,13 @@
     </row>
     <row r="512" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
+        <v>974</v>
+      </c>
+      <c r="B512" t="s">
         <v>975</v>
       </c>
-      <c r="B512" t="s">
-        <v>976</v>
-      </c>
       <c r="C512" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D512" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B512, ""en"", ""pt"")"),"aluna")</f>
@@ -13262,13 +13262,13 @@
     </row>
     <row r="513" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
+        <v>976</v>
+      </c>
+      <c r="B513" t="s">
         <v>977</v>
       </c>
-      <c r="B513" t="s">
-        <v>978</v>
-      </c>
       <c r="C513" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D513" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B513, ""en"", ""pt"")"),"açúcar")</f>
@@ -13277,13 +13277,13 @@
     </row>
     <row r="514" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>978</v>
+      </c>
+      <c r="B514" t="s">
         <v>979</v>
       </c>
-      <c r="B514" t="s">
-        <v>980</v>
-      </c>
       <c r="C514" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D514" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B514, ""en"", ""pt"")"),"terno")</f>
@@ -13292,13 +13292,13 @@
     </row>
     <row r="515" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
+        <v>980</v>
+      </c>
+      <c r="B515" t="s">
         <v>981</v>
       </c>
-      <c r="B515" t="s">
-        <v>982</v>
-      </c>
       <c r="C515" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D515" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B515, ""en"", ""pt"")"),"verão")</f>
@@ -13307,13 +13307,13 @@
     </row>
     <row r="516" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
+        <v>982</v>
+      </c>
+      <c r="B516" t="s">
         <v>983</v>
       </c>
-      <c r="B516" t="s">
-        <v>984</v>
-      </c>
       <c r="C516" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D516" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B516, ""en"", ""pt"")"),"Sol")</f>
@@ -13322,13 +13322,13 @@
     </row>
     <row r="517" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>984</v>
+      </c>
+      <c r="B517" t="s">
         <v>985</v>
       </c>
-      <c r="B517" t="s">
-        <v>986</v>
-      </c>
       <c r="C517" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D517" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B517, ""en"", ""pt"")"),"Domigo")</f>
@@ -13337,13 +13337,13 @@
     </row>
     <row r="518" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
+        <v>986</v>
+      </c>
+      <c r="B518" t="s">
         <v>987</v>
       </c>
-      <c r="B518" t="s">
-        <v>988</v>
-      </c>
       <c r="C518" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D518" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B518, ""en"", ""pt"")"),"suor")</f>
@@ -13352,13 +13352,13 @@
     </row>
     <row r="519" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
+        <v>988</v>
+      </c>
+      <c r="B519" t="s">
         <v>989</v>
       </c>
-      <c r="B519" t="s">
-        <v>990</v>
-      </c>
       <c r="C519" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D519" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B519, ""en"", ""pt"")"),"nadar")</f>
@@ -13367,13 +13367,13 @@
     </row>
     <row r="520" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B520" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C520" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D520" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B520, ""en"", ""pt"")"),"camiseta")</f>
@@ -13382,13 +13382,13 @@
     </row>
     <row r="521" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
+        <v>991</v>
+      </c>
+      <c r="B521" t="s">
         <v>992</v>
       </c>
-      <c r="B521" t="s">
-        <v>993</v>
-      </c>
       <c r="C521" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D521" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B521, ""en"", ""pt"")"),"tabela")</f>
@@ -13397,13 +13397,13 @@
     </row>
     <row r="522" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
+        <v>993</v>
+      </c>
+      <c r="B522" t="s">
         <v>994</v>
       </c>
-      <c r="B522" t="s">
-        <v>995</v>
-      </c>
       <c r="C522" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D522" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B522, ""en"", ""pt"")"),"alta")</f>
@@ -13412,13 +13412,13 @@
     </row>
     <row r="523" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
+        <v>995</v>
+      </c>
+      <c r="B523" t="s">
         <v>996</v>
       </c>
-      <c r="B523" t="s">
-        <v>997</v>
-      </c>
       <c r="C523" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D523" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B523, ""en"", ""pt"")"),"gosto")</f>
@@ -13427,13 +13427,13 @@
     </row>
     <row r="524" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>997</v>
+      </c>
+      <c r="B524" t="s">
         <v>998</v>
       </c>
-      <c r="B524" t="s">
-        <v>999</v>
-      </c>
       <c r="C524" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D524" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B524, ""en"", ""pt"")"),"chá")</f>
@@ -13442,13 +13442,13 @@
     </row>
     <row r="525" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
+        <v>999</v>
+      </c>
+      <c r="B525" t="s">
         <v>1000</v>
       </c>
-      <c r="B525" t="s">
-        <v>1001</v>
-      </c>
       <c r="C525" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D525" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B525, ""en"", ""pt"")"),"Ensinar")</f>
@@ -13457,13 +13457,13 @@
     </row>
     <row r="526" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B526" t="s">
         <v>1002</v>
       </c>
-      <c r="B526" t="s">
-        <v>1003</v>
-      </c>
       <c r="C526" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D526" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B526, ""en"", ""pt"")"),"professor")</f>
@@ -13472,13 +13472,13 @@
     </row>
     <row r="527" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B527" t="s">
         <v>1004</v>
       </c>
-      <c r="B527" t="s">
-        <v>1005</v>
-      </c>
       <c r="C527" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D527" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B527, ""en"", ""pt"")"),"equipe")</f>
@@ -13487,13 +13487,13 @@
     </row>
     <row r="528" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B528" t="s">
         <v>1006</v>
       </c>
-      <c r="B528" t="s">
-        <v>1007</v>
-      </c>
       <c r="C528" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D528" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B528, ""en"", ""pt"")"),"lágrima")</f>
@@ -13502,13 +13502,13 @@
     </row>
     <row r="529" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B529" t="s">
         <v>1008</v>
       </c>
-      <c r="B529" t="s">
-        <v>1009</v>
-      </c>
       <c r="C529" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D529" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B529, ""en"", ""pt"")"),"tecnologia")</f>
@@ -13517,13 +13517,13 @@
     </row>
     <row r="530" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B530" t="s">
         <v>1010</v>
       </c>
-      <c r="B530" t="s">
-        <v>1011</v>
-      </c>
       <c r="C530" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D530" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B530, ""en"", ""pt"")"),"Telefone")</f>
@@ -13532,13 +13532,13 @@
     </row>
     <row r="531" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B531" t="s">
         <v>1012</v>
       </c>
-      <c r="B531" t="s">
-        <v>1013</v>
-      </c>
       <c r="C531" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D531" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B531, ""en"", ""pt"")"),"televisão")</f>
@@ -13547,13 +13547,13 @@
     </row>
     <row r="532" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B532" t="s">
         <v>1014</v>
       </c>
-      <c r="B532" t="s">
-        <v>1015</v>
-      </c>
       <c r="C532" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D532" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B532, ""en"", ""pt"")"),"temperatura")</f>
@@ -13562,13 +13562,13 @@
     </row>
     <row r="533" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B533" t="s">
         <v>1016</v>
       </c>
-      <c r="B533" t="s">
-        <v>1017</v>
-      </c>
       <c r="C533" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D533" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B533, ""en"", ""pt"")"),"dez")</f>
@@ -13577,13 +13577,13 @@
     </row>
     <row r="534" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B534" t="s">
         <v>1018</v>
       </c>
-      <c r="B534" t="s">
-        <v>1019</v>
-      </c>
       <c r="C534" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D534" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B534, ""en"", ""pt"")"),"teatro")</f>
@@ -13592,13 +13592,13 @@
     </row>
     <row r="535" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B535" t="s">
         <v>1020</v>
       </c>
-      <c r="B535" t="s">
-        <v>1021</v>
-      </c>
       <c r="C535" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D535" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B535, ""en"", ""pt"")"),"eles")</f>
@@ -13607,13 +13607,13 @@
     </row>
     <row r="536" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B536" t="s">
         <v>1022</v>
       </c>
-      <c r="B536" t="s">
-        <v>1023</v>
-      </c>
       <c r="C536" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D536" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B536, ""en"", ""pt"")"),"Grosso")</f>
@@ -13622,13 +13622,13 @@
     </row>
     <row r="537" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B537" t="s">
         <v>1024</v>
       </c>
-      <c r="B537" t="s">
-        <v>1025</v>
-      </c>
       <c r="C537" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D537" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B537, ""en"", ""pt"")"),"fino")</f>
@@ -13637,13 +13637,13 @@
     </row>
     <row r="538" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B538" t="s">
         <v>1026</v>
       </c>
-      <c r="B538" t="s">
-        <v>1027</v>
-      </c>
       <c r="C538" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D538" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B538, ""en"", ""pt"")"),"pensar")</f>
@@ -13652,13 +13652,13 @@
     </row>
     <row r="539" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B539" t="s">
         <v>1028</v>
       </c>
-      <c r="B539" t="s">
-        <v>1029</v>
-      </c>
       <c r="C539" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D539" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B539, ""en"", ""pt"")"),"terceiro")</f>
@@ -13667,13 +13667,13 @@
     </row>
     <row r="540" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B540" t="s">
         <v>1030</v>
       </c>
-      <c r="B540" t="s">
-        <v>1031</v>
-      </c>
       <c r="C540" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D540" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B540, ""en"", ""pt"")"),"treze")</f>
@@ -13682,13 +13682,13 @@
     </row>
     <row r="541" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B541" t="s">
         <v>1032</v>
       </c>
-      <c r="B541" t="s">
-        <v>1033</v>
-      </c>
       <c r="C541" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D541" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B541, ""en"", ""pt"")"),"trinta")</f>
@@ -13697,13 +13697,13 @@
     </row>
     <row r="542" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B542" t="s">
         <v>1034</v>
       </c>
-      <c r="B542" t="s">
-        <v>1035</v>
-      </c>
       <c r="C542" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D542" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B542, ""en"", ""pt"")"),"mil")</f>
@@ -13712,13 +13712,13 @@
     </row>
     <row r="543" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B543" t="s">
         <v>1036</v>
       </c>
-      <c r="B543" t="s">
-        <v>1037</v>
-      </c>
       <c r="C543" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D543" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B543, ""en"", ""pt"")"),"três")</f>
@@ -13727,13 +13727,13 @@
     </row>
     <row r="544" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B544" t="s">
         <v>1038</v>
       </c>
-      <c r="B544" t="s">
-        <v>1039</v>
-      </c>
       <c r="C544" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D544" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B544, ""en"", ""pt"")"),"lançar")</f>
@@ -13742,13 +13742,13 @@
     </row>
     <row r="545" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B545" t="s">
         <v>1040</v>
       </c>
-      <c r="B545" t="s">
-        <v>1041</v>
-      </c>
       <c r="C545" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D545" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B545, ""en"", ""pt"")"),"quinta-feira")</f>
@@ -13757,13 +13757,13 @@
     </row>
     <row r="546" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B546" t="s">
         <v>1042</v>
       </c>
-      <c r="B546" t="s">
-        <v>1043</v>
-      </c>
       <c r="C546" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D546" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B546, ""en"", ""pt"")"),"bilhete")</f>
@@ -13772,13 +13772,13 @@
     </row>
     <row r="547" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B547" t="s">
         <v>1044</v>
       </c>
-      <c r="B547" t="s">
-        <v>1045</v>
-      </c>
       <c r="C547" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D547" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B547, ""en"", ""pt"")"),"justa")</f>
@@ -13787,13 +13787,13 @@
     </row>
     <row r="548" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B548" t="s">
         <v>1046</v>
       </c>
-      <c r="B548" t="s">
-        <v>1047</v>
-      </c>
       <c r="C548" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D548" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B548, ""en"", ""pt"")"),"Tempo")</f>
@@ -13802,13 +13802,13 @@
     </row>
     <row r="549" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B549" t="s">
         <v>1048</v>
       </c>
-      <c r="B549" t="s">
-        <v>1049</v>
-      </c>
       <c r="C549" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D549" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B549, ""en"", ""pt"")"),"pneu")</f>
@@ -13817,13 +13817,13 @@
     </row>
     <row r="550" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B550" t="s">
         <v>1050</v>
       </c>
-      <c r="B550" t="s">
-        <v>1051</v>
-      </c>
       <c r="C550" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D550" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B550, ""en"", ""pt"")"),"dedo do pé")</f>
@@ -13832,13 +13832,13 @@
     </row>
     <row r="551" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B551" t="s">
         <v>1052</v>
       </c>
-      <c r="B551" t="s">
-        <v>1053</v>
-      </c>
       <c r="C551" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D551" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B551, ""en"", ""pt"")"),"língua")</f>
@@ -13847,13 +13847,13 @@
     </row>
     <row r="552" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B552" t="s">
         <v>1054</v>
       </c>
-      <c r="B552" t="s">
-        <v>1055</v>
-      </c>
       <c r="C552" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D552" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B552, ""en"", ""pt"")"),"ferramenta")</f>
@@ -13862,13 +13862,13 @@
     </row>
     <row r="553" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B553" t="s">
         <v>1056</v>
       </c>
-      <c r="B553" t="s">
-        <v>1057</v>
-      </c>
       <c r="C553" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D553" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B553, ""en"", ""pt"")"),"dente")</f>
@@ -13877,13 +13877,13 @@
     </row>
     <row r="554" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B554" t="s">
         <v>1058</v>
       </c>
-      <c r="B554" t="s">
-        <v>1059</v>
-      </c>
       <c r="C554" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D554" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B554, ""en"", ""pt"")"),"topo")</f>
@@ -13892,13 +13892,13 @@
     </row>
     <row r="555" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B555" t="s">
         <v>1060</v>
       </c>
-      <c r="B555" t="s">
-        <v>1061</v>
-      </c>
       <c r="C555" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D555" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B555, ""en"", ""pt"")"),"toque")</f>
@@ -13907,13 +13907,13 @@
     </row>
     <row r="556" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B556" t="s">
         <v>1062</v>
       </c>
-      <c r="B556" t="s">
-        <v>1063</v>
-      </c>
       <c r="C556" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D556" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B556, ""en"", ""pt"")"),"Cidade")</f>
@@ -13922,13 +13922,13 @@
     </row>
     <row r="557" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B557" t="s">
         <v>1064</v>
       </c>
-      <c r="B557" t="s">
-        <v>1065</v>
-      </c>
       <c r="C557" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D557" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B557, ""en"", ""pt"")"),"trem")</f>
@@ -13937,13 +13937,13 @@
     </row>
     <row r="558" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B558" t="s">
         <v>1064</v>
       </c>
-      <c r="B558" t="s">
-        <v>1065</v>
-      </c>
       <c r="C558" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D558" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B558, ""en"", ""pt"")"),"trem")</f>
@@ -13952,13 +13952,13 @@
     </row>
     <row r="559" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B559" t="s">
         <v>1066</v>
       </c>
-      <c r="B559" t="s">
-        <v>1067</v>
-      </c>
       <c r="C559" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D559" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B559, ""en"", ""pt"")"),"transporte")</f>
@@ -13967,13 +13967,13 @@
     </row>
     <row r="560" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B560" t="s">
         <v>1068</v>
       </c>
-      <c r="B560" t="s">
-        <v>1069</v>
-      </c>
       <c r="C560" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D560" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B560, ""en"", ""pt"")"),"árvore")</f>
@@ -13982,13 +13982,13 @@
     </row>
     <row r="561" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B561" t="s">
         <v>1070</v>
       </c>
-      <c r="B561" t="s">
-        <v>1071</v>
-      </c>
       <c r="C561" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D561" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B561, ""en"", ""pt"")"),"caminhão")</f>
@@ -13997,13 +13997,13 @@
     </row>
     <row r="562" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B562" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C562" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D562" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B562, ""en"", ""pt"")"),"terça")</f>
@@ -14012,13 +14012,13 @@
     </row>
     <row r="563" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B563" t="s">
         <v>1073</v>
       </c>
-      <c r="B563" t="s">
-        <v>1074</v>
-      </c>
       <c r="C563" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D563" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B563, ""en"", ""pt"")"),"virar")</f>
@@ -14027,13 +14027,13 @@
     </row>
     <row r="564" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B564" t="s">
         <v>1075</v>
       </c>
-      <c r="B564" t="s">
-        <v>1076</v>
-      </c>
       <c r="C564" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D564" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B564, ""en"", ""pt"")"),"doze")</f>
@@ -14042,13 +14042,13 @@
     </row>
     <row r="565" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B565" t="s">
         <v>1077</v>
       </c>
-      <c r="B565" t="s">
-        <v>1078</v>
-      </c>
       <c r="C565" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D565" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B565, ""en"", ""pt"")"),"vinte")</f>
@@ -14057,13 +14057,13 @@
     </row>
     <row r="566" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B566" t="s">
         <v>1077</v>
       </c>
-      <c r="B566" t="s">
-        <v>1078</v>
-      </c>
       <c r="C566" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D566" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B566, ""en"", ""pt"")"),"vinte")</f>
@@ -14072,13 +14072,13 @@
     </row>
     <row r="567" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B567" t="s">
         <v>1079</v>
       </c>
-      <c r="B567" t="s">
-        <v>1080</v>
-      </c>
       <c r="C567" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D567" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B567, ""en"", ""pt"")"),"dois")</f>
@@ -14087,13 +14087,13 @@
     </row>
     <row r="568" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B568" t="s">
         <v>1081</v>
       </c>
-      <c r="B568" t="s">
-        <v>1082</v>
-      </c>
       <c r="C568" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D568" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B568, ""en"", ""pt"")"),"feio")</f>
@@ -14102,13 +14102,13 @@
     </row>
     <row r="569" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B569" t="s">
         <v>1083</v>
       </c>
-      <c r="B569" t="s">
-        <v>1084</v>
-      </c>
       <c r="C569" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D569" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B569, ""en"", ""pt"")"),"universidade")</f>
@@ -14117,13 +14117,13 @@
     </row>
     <row r="570" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B570" t="s">
         <v>1085</v>
       </c>
-      <c r="B570" t="s">
-        <v>1086</v>
-      </c>
       <c r="C570" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D570" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B570, ""en"", ""pt"")"),"acima")</f>
@@ -14132,13 +14132,13 @@
     </row>
     <row r="571" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B571" t="s">
         <v>1085</v>
       </c>
-      <c r="B571" t="s">
-        <v>1086</v>
-      </c>
       <c r="C571" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D571" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B571, ""en"", ""pt"")"),"acima")</f>
@@ -14147,13 +14147,13 @@
     </row>
     <row r="572" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B572" t="s">
         <v>1087</v>
       </c>
-      <c r="B572" t="s">
-        <v>1088</v>
-      </c>
       <c r="C572" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D572" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B572, ""en"", ""pt"")"),"vale")</f>
@@ -14162,13 +14162,13 @@
     </row>
     <row r="573" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B573" t="s">
         <v>1089</v>
       </c>
-      <c r="B573" t="s">
-        <v>1090</v>
-      </c>
       <c r="C573" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D573" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B573, ""en"", ""pt"")"),"verbo")</f>
@@ -14177,13 +14177,13 @@
     </row>
     <row r="574" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B574" t="s">
         <v>1091</v>
       </c>
-      <c r="B574" t="s">
-        <v>1092</v>
-      </c>
       <c r="C574" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D574" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B574, ""en"", ""pt"")"),"vítima")</f>
@@ -14192,13 +14192,13 @@
     </row>
     <row r="575" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B575" t="s">
         <v>1093</v>
       </c>
-      <c r="B575" t="s">
-        <v>1094</v>
-      </c>
       <c r="C575" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D575" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B575, ""en"", ""pt"")"),"voz")</f>
@@ -14207,13 +14207,13 @@
     </row>
     <row r="576" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B576" t="s">
         <v>1095</v>
       </c>
-      <c r="B576" t="s">
-        <v>1096</v>
-      </c>
       <c r="C576" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D576" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B576, ""en"", ""pt"")"),"vogal")</f>
@@ -14222,13 +14222,13 @@
     </row>
     <row r="577" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B577" t="s">
         <v>1097</v>
       </c>
-      <c r="B577" t="s">
-        <v>1098</v>
-      </c>
       <c r="C577" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D577" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B577, ""en"", ""pt"")"),"garçom")</f>
@@ -14237,13 +14237,13 @@
     </row>
     <row r="578" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B578" t="s">
         <v>1099</v>
       </c>
-      <c r="B578" t="s">
-        <v>1100</v>
-      </c>
       <c r="C578" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D578" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B578, ""en"", ""pt"")"),"despertar")</f>
@@ -14252,13 +14252,13 @@
     </row>
     <row r="579" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B579" t="s">
         <v>1101</v>
       </c>
-      <c r="B579" t="s">
-        <v>1102</v>
-      </c>
       <c r="C579" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D579" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B579, ""en"", ""pt"")"),"andar")</f>
@@ -14267,13 +14267,13 @@
     </row>
     <row r="580" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B580" t="s">
         <v>1103</v>
       </c>
-      <c r="B580" t="s">
-        <v>1104</v>
-      </c>
       <c r="C580" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D580" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B580, ""en"", ""pt"")"),"parede")</f>
@@ -14282,13 +14282,13 @@
     </row>
     <row r="581" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B581" t="s">
         <v>1105</v>
       </c>
-      <c r="B581" t="s">
-        <v>1106</v>
-      </c>
       <c r="C581" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D581" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B581, ""en"", ""pt"")"),"guerra")</f>
@@ -14297,13 +14297,13 @@
     </row>
     <row r="582" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B582" t="s">
         <v>1107</v>
       </c>
-      <c r="B582" t="s">
-        <v>1108</v>
-      </c>
       <c r="C582" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D582" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B582, ""en"", ""pt"")"),"caloroso")</f>
@@ -14312,13 +14312,13 @@
     </row>
     <row r="583" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B583" t="s">
         <v>1109</v>
       </c>
-      <c r="B583" t="s">
-        <v>1110</v>
-      </c>
       <c r="C583" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D583" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B583, ""en"", ""pt"")"),"lavar")</f>
@@ -14327,13 +14327,13 @@
     </row>
     <row r="584" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B584" t="s">
         <v>1111</v>
       </c>
-      <c r="B584" t="s">
-        <v>1112</v>
-      </c>
       <c r="C584" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D584" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B584, ""en"", ""pt"")"),"ver")</f>
@@ -14342,13 +14342,13 @@
     </row>
     <row r="585" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B585" t="s">
         <v>1113</v>
       </c>
-      <c r="B585" t="s">
-        <v>1114</v>
-      </c>
       <c r="C585" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D585" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B585, ""en"", ""pt"")"),"água")</f>
@@ -14357,13 +14357,13 @@
     </row>
     <row r="586" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B586" t="s">
         <v>1115</v>
       </c>
-      <c r="B586" t="s">
-        <v>1116</v>
-      </c>
       <c r="C586" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D586" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B586, ""en"", ""pt"")"),"onda")</f>
@@ -14372,13 +14372,13 @@
     </row>
     <row r="587" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B587" t="s">
         <v>1117</v>
       </c>
-      <c r="B587" t="s">
-        <v>1118</v>
-      </c>
       <c r="C587" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D587" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B587, ""en"", ""pt"")"),"nós")</f>
@@ -14387,13 +14387,13 @@
     </row>
     <row r="588" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B588" t="s">
         <v>1119</v>
       </c>
-      <c r="B588" t="s">
-        <v>1120</v>
-      </c>
       <c r="C588" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D588" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B588, ""en"", ""pt"")"),"fraco")</f>
@@ -14402,13 +14402,13 @@
     </row>
     <row r="589" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B589" t="s">
         <v>1121</v>
       </c>
-      <c r="B589" t="s">
-        <v>1122</v>
-      </c>
       <c r="C589" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D589" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B589, ""en"", ""pt"")"),"vestir")</f>
@@ -14417,13 +14417,13 @@
     </row>
     <row r="590" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B590" t="s">
         <v>1123</v>
       </c>
-      <c r="B590" t="s">
-        <v>1124</v>
-      </c>
       <c r="C590" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D590" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B590, ""en"", ""pt"")"),"Casamento")</f>
@@ -14432,13 +14432,13 @@
     </row>
     <row r="591" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B591" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C591" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D591" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B591, ""en"", ""pt"")"),"quarta-feira")</f>
@@ -14447,13 +14447,13 @@
     </row>
     <row r="592" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B592" t="s">
         <v>1126</v>
       </c>
-      <c r="B592" t="s">
-        <v>1127</v>
-      </c>
       <c r="C592" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D592" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B592, ""en"", ""pt"")"),"semana")</f>
@@ -14462,13 +14462,13 @@
     </row>
     <row r="593" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B593" t="s">
         <v>1128</v>
       </c>
-      <c r="B593" t="s">
-        <v>1129</v>
-      </c>
       <c r="C593" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D593" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B593, ""en"", ""pt"")"),"peso")</f>
@@ -14477,13 +14477,13 @@
     </row>
     <row r="594" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B594" t="s">
         <v>1130</v>
       </c>
-      <c r="B594" t="s">
-        <v>1131</v>
-      </c>
       <c r="C594" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D594" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B594, ""en"", ""pt"")"),"oeste")</f>
@@ -14492,13 +14492,13 @@
     </row>
     <row r="595" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B595" t="s">
         <v>1132</v>
       </c>
-      <c r="B595" t="s">
-        <v>1133</v>
-      </c>
       <c r="C595" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D595" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B595, ""en"", ""pt"")"),"molhado")</f>
@@ -14507,13 +14507,13 @@
     </row>
     <row r="596" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B596" t="s">
         <v>1134</v>
       </c>
-      <c r="B596" t="s">
-        <v>1135</v>
-      </c>
       <c r="C596" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D596" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B596, ""en"", ""pt"")"),"branco")</f>
@@ -14522,13 +14522,13 @@
     </row>
     <row r="597" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B597" t="s">
         <v>1136</v>
       </c>
-      <c r="B597" t="s">
-        <v>1137</v>
-      </c>
       <c r="C597" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D597" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B597, ""en"", ""pt"")"),"Largo")</f>
@@ -14537,13 +14537,13 @@
     </row>
     <row r="598" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B598" t="s">
         <v>1138</v>
       </c>
-      <c r="B598" t="s">
-        <v>1139</v>
-      </c>
       <c r="C598" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D598" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B598, ""en"", ""pt"")"),"esposa")</f>
@@ -14552,13 +14552,13 @@
     </row>
     <row r="599" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B599" t="s">
         <v>1140</v>
       </c>
-      <c r="B599" t="s">
-        <v>1141</v>
-      </c>
       <c r="C599" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D599" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B599, ""en"", ""pt"")"),"ganhar")</f>
@@ -14567,13 +14567,13 @@
     </row>
     <row r="600" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B600" t="s">
         <v>1142</v>
       </c>
-      <c r="B600" t="s">
-        <v>1143</v>
-      </c>
       <c r="C600" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D600" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B600, ""en"", ""pt"")"),"vento")</f>
@@ -14582,13 +14582,13 @@
     </row>
     <row r="601" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B601" t="s">
         <v>1144</v>
       </c>
-      <c r="B601" t="s">
-        <v>1145</v>
-      </c>
       <c r="C601" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D601" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B601, ""en"", ""pt"")"),"janela")</f>
@@ -14597,13 +14597,13 @@
     </row>
     <row r="602" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B602" t="s">
         <v>1146</v>
       </c>
-      <c r="B602" t="s">
-        <v>1147</v>
-      </c>
       <c r="C602" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D602" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B602, ""en"", ""pt"")"),"vinho")</f>
@@ -14612,13 +14612,13 @@
     </row>
     <row r="603" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B603" t="s">
         <v>1148</v>
       </c>
-      <c r="B603" t="s">
-        <v>1149</v>
-      </c>
       <c r="C603" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D603" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B603, ""en"", ""pt"")"),"asa")</f>
@@ -14627,13 +14627,13 @@
     </row>
     <row r="604" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B604" t="s">
         <v>1150</v>
       </c>
-      <c r="B604" t="s">
-        <v>1151</v>
-      </c>
       <c r="C604" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D604" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B604, ""en"", ""pt"")"),"inverno")</f>
@@ -14642,13 +14642,13 @@
     </row>
     <row r="605" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B605" t="s">
         <v>1152</v>
       </c>
-      <c r="B605" t="s">
-        <v>1153</v>
-      </c>
       <c r="C605" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D605" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B605, ""en"", ""pt"")"),"mulher")</f>
@@ -14657,13 +14657,13 @@
     </row>
     <row r="606" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B606" t="s">
         <v>1154</v>
       </c>
-      <c r="B606" t="s">
-        <v>1155</v>
-      </c>
       <c r="C606" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D606" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B606, ""en"", ""pt"")"),"madeira")</f>
@@ -14672,13 +14672,13 @@
     </row>
     <row r="607" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B607" t="s">
         <v>1156</v>
       </c>
-      <c r="B607" t="s">
-        <v>1157</v>
-      </c>
       <c r="C607" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D607" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B607, ""en"", ""pt"")"),"trabalhos")</f>
@@ -14687,13 +14687,13 @@
     </row>
     <row r="608" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B608" t="s">
         <v>1158</v>
       </c>
-      <c r="B608" t="s">
-        <v>1159</v>
-      </c>
       <c r="C608" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D608" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B608, ""en"", ""pt"")"),"mundo")</f>
@@ -14702,13 +14702,13 @@
     </row>
     <row r="609" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B609" t="s">
         <v>1160</v>
       </c>
-      <c r="B609" t="s">
-        <v>1161</v>
-      </c>
       <c r="C609" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D609" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B609, ""en"", ""pt"")"),"escrever")</f>
@@ -14717,13 +14717,13 @@
     </row>
     <row r="610" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B610" t="s">
         <v>1162</v>
       </c>
-      <c r="B610" t="s">
-        <v>1163</v>
-      </c>
       <c r="C610" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D610" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B610, ""en"", ""pt"")"),"Jardim")</f>
@@ -14732,13 +14732,13 @@
     </row>
     <row r="611" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B611" t="s">
         <v>1164</v>
       </c>
-      <c r="B611" t="s">
-        <v>1165</v>
-      </c>
       <c r="C611" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D611" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B611, ""en"", ""pt"")"),"ano")</f>
@@ -14747,13 +14747,13 @@
     </row>
     <row r="612" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B612" t="s">
         <v>1166</v>
       </c>
-      <c r="B612" t="s">
-        <v>1167</v>
-      </c>
       <c r="C612" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D612" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B612, ""en"", ""pt"")"),"amarelo")</f>
@@ -14762,13 +14762,13 @@
     </row>
     <row r="613" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B613" t="s">
         <v>1168</v>
       </c>
-      <c r="B613" t="s">
-        <v>1169</v>
-      </c>
       <c r="C613" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D613" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B613, ""en"", ""pt"")"),"sim")</f>
@@ -14777,13 +14777,13 @@
     </row>
     <row r="614" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B614" t="s">
         <v>1170</v>
       </c>
-      <c r="B614" t="s">
-        <v>1171</v>
-      </c>
       <c r="C614" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D614" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B614, ""en"", ""pt"")"),"vocês")</f>
@@ -14792,13 +14792,13 @@
     </row>
     <row r="615" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B615" t="s">
         <v>1172</v>
       </c>
-      <c r="B615" t="s">
-        <v>1173</v>
-      </c>
       <c r="C615" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D615" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B615, ""en"", ""pt"")"),"jovem")</f>
@@ -14807,13 +14807,13 @@
     </row>
     <row r="616" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B616" t="s">
         <v>1174</v>
       </c>
-      <c r="B616" t="s">
-        <v>1175</v>
-      </c>
       <c r="C616" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D616" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B616, ""en"", ""pt"")"),"zero")</f>

--- a/625_words/data_set_flashcards.xlsx
+++ b/625_words/data_set_flashcards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NAPO\Desktop\languages_anki\625_words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4765276-B201-4AF7-B068-60E0B3562457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D385C8-0CCE-48FD-BAFE-68C9BB4EF481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="1757">
   <si>
     <t>&lt;img src="actor.jpg"&gt;</t>
   </si>
@@ -1636,12 +1636,6 @@
     <t>laptop</t>
   </si>
   <si>
-    <t>&lt;img src="large.jpg"&gt;</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
     <t>&lt;img src="laugh.jpg"&gt;</t>
   </si>
   <si>
@@ -1726,12 +1720,6 @@
     <t>listen</t>
   </si>
   <si>
-    <t>&lt;img src="little.jpg"&gt;</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>&lt;img src="location.jpg"&gt;</t>
   </si>
   <si>
@@ -2656,12 +2644,6 @@
     <t>shoot</t>
   </si>
   <si>
-    <t>&lt;img src="shop.jpg"&gt;</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
     <t>&lt;img src="short.jpg"&gt;</t>
   </si>
   <si>
@@ -4714,9 +4696,6 @@
     <t>río</t>
   </si>
   <si>
-    <t>la carretera</t>
-  </si>
-  <si>
     <t>raíz</t>
   </si>
   <si>
@@ -4804,9 +4783,6 @@
     <t>disparar</t>
   </si>
   <si>
-    <t>tienda</t>
-  </si>
-  <si>
     <t>corto</t>
   </si>
   <si>
@@ -5309,6 +5285,12 @@
   </si>
   <si>
     <t>&lt;img src="i.jpg"&gt;</t>
+  </si>
+  <si>
+    <t>estrada</t>
+  </si>
+  <si>
+    <t>carretera</t>
   </si>
 </sst>
 </file>
@@ -5348,9 +5330,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5569,10 +5552,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D616"/>
+  <dimension ref="A1:D613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5603,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""pt"")"),"adjetivo")</f>
@@ -5618,7 +5601,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""pt"")"),"adulto")</f>
@@ -5633,7 +5616,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""pt"")"),"tarde")</f>
@@ -5648,7 +5631,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""pt"")"),"ar")</f>
@@ -5663,7 +5646,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""pt"")"),"aeroporto")</f>
@@ -5678,7 +5661,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="D7" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""pt"")"),"vivo")</f>
@@ -5708,7 +5691,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="D9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""pt"")"),"apartamento")</f>
@@ -5723,7 +5706,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="D10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""pt"")"),"maçã")</f>
@@ -5732,13 +5715,13 @@
     </row>
     <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="D11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""pt"")"),"abril")</f>
@@ -5753,7 +5736,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="D12" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""pt"")"),"braço")</f>
@@ -5768,7 +5751,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="D13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""pt"")"),"exército")</f>
@@ -5783,7 +5766,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="D14" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""pt"")"),"arte")</f>
@@ -5798,7 +5781,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="D15" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""pt"")"),"artista")</f>
@@ -5813,7 +5796,7 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="D16" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""pt"")"),"ataque")</f>
@@ -5822,13 +5805,13 @@
     </row>
     <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="D17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""pt"")"),"agosto")</f>
@@ -5843,7 +5826,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="D18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""pt"")"),"autor")</f>
@@ -5858,7 +5841,7 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="D19" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""pt"")"),"bebê")</f>
@@ -5873,7 +5856,7 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="D20" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""pt"")"),"costas")</f>
@@ -5888,7 +5871,7 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="D21" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""pt"")"),"costas")</f>
@@ -5903,7 +5886,7 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="D22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""pt"")"),"mau")</f>
@@ -5918,7 +5901,7 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="D23" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""pt"")"),"saco")</f>
@@ -5933,7 +5916,7 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="D24" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""pt"")"),"bola")</f>
@@ -5948,7 +5931,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="D25" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""pt"")"),"banana")</f>
@@ -5963,7 +5946,7 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="D26" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""pt"")"),"banda")</f>
@@ -5978,7 +5961,7 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="D27" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""pt"")"),"banco")</f>
@@ -6008,7 +5991,7 @@
         <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="D29" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""pt"")"),"banheiro")</f>
@@ -6023,7 +6006,7 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="D30" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""pt"")"),"de praia")</f>
@@ -6038,7 +6021,7 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D31" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""pt"")"),"barba")</f>
@@ -6053,7 +6036,7 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D32" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""pt"")"),"batida")</f>
@@ -6068,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="D33" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""pt"")"),"lindo")</f>
@@ -6083,7 +6066,7 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="D34" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""pt"")"),"cama")</f>
@@ -6098,7 +6081,7 @@
         <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="D35" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""pt"")"),"quarto")</f>
@@ -6113,7 +6096,7 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="D36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""pt"")"),"carne")</f>
@@ -6128,7 +6111,7 @@
         <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="D37" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""pt"")"),"Cerveja")</f>
@@ -6143,7 +6126,7 @@
         <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="D38" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""pt"")"),"dobrar")</f>
@@ -6158,7 +6141,7 @@
         <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="D39" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""pt"")"),"bebida")</f>
@@ -6173,7 +6156,7 @@
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="D40" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""pt"")"),"bicicleta")</f>
@@ -6188,7 +6171,7 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="D41" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""pt"")"),"grande")</f>
@@ -6203,7 +6186,7 @@
         <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="D42" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""pt"")"),"conta")</f>
@@ -6218,7 +6201,7 @@
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="D43" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""pt"")"),"bilhão")</f>
@@ -6233,7 +6216,7 @@
         <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="D44" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""pt"")"),"pássaro")</f>
@@ -6248,7 +6231,7 @@
         <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="D45" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""pt"")"),"Preto")</f>
@@ -6263,7 +6246,7 @@
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="D46" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""pt"")"),"cego")</f>
@@ -6278,7 +6261,7 @@
         <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="D47" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""pt"")"),"sangue")</f>
@@ -6293,7 +6276,7 @@
         <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="D48" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""pt"")"),"azul")</f>
@@ -6308,7 +6291,7 @@
         <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="D49" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""pt"")"),"barco")</f>
@@ -6323,7 +6306,7 @@
         <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="D50" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""pt"")"),"corpo")</f>
@@ -6338,7 +6321,7 @@
         <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="D51" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""pt"")"),"osso")</f>
@@ -6353,7 +6336,7 @@
         <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="D52" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""pt"")"),"livro")</f>
@@ -6368,7 +6351,7 @@
         <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="D53" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""pt"")"),"garrafa")</f>
@@ -6383,7 +6366,7 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="D54" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""pt"")"),"inferior")</f>
@@ -6398,7 +6381,7 @@
         <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="D55" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""pt"")"),"caixa")</f>
@@ -6413,7 +6396,7 @@
         <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="D56" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""pt"")"),"Garoto")</f>
@@ -6428,7 +6411,7 @@
         <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="D57" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""pt"")"),"cérebro")</f>
@@ -6443,7 +6426,7 @@
         <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="D58" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""pt"")"),"pão")</f>
@@ -6458,7 +6441,7 @@
         <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="D59" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""pt"")"),"quebrar")</f>
@@ -6473,7 +6456,7 @@
         <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="D60" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""pt"")"),"café da manhã")</f>
@@ -6488,7 +6471,7 @@
         <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="D61" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""pt"")"),"ponte")</f>
@@ -6503,7 +6486,7 @@
         <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="D62" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""pt"")"),"irmão")</f>
@@ -6518,7 +6501,7 @@
         <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="D63" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""pt"")"),"Castanho")</f>
@@ -6533,7 +6516,7 @@
         <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="D64" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""pt"")"),"Construir")</f>
@@ -6548,7 +6531,7 @@
         <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="D65" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""pt"")"),"construção")</f>
@@ -6563,7 +6546,7 @@
         <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="D66" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""pt"")"),"queimar")</f>
@@ -6578,7 +6561,7 @@
         <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="D67" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""pt"")"),"ônibus")</f>
@@ -6593,7 +6576,7 @@
         <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="D68" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B68, ""en"", ""pt"")"),"Comprar")</f>
@@ -6608,7 +6591,7 @@
         <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="D69" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B69, ""en"", ""pt"")"),"bolo")</f>
@@ -6623,7 +6606,7 @@
         <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="D70" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B70, ""en"", ""pt"")"),"ligar")</f>
@@ -6638,7 +6621,7 @@
         <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="D71" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B71, ""en"", ""pt"")"),"Câmera")</f>
@@ -6653,7 +6636,7 @@
         <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="D72" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""pt"")"),"acampamento")</f>
@@ -6668,7 +6651,7 @@
         <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="D73" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B73, ""en"", ""pt"")"),"carro")</f>
@@ -6683,7 +6666,7 @@
         <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="D74" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B74, ""en"", ""pt"")"),"cartão")</f>
@@ -6698,7 +6681,7 @@
         <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="D75" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B75, ""en"", ""pt"")"),"carry")</f>
@@ -6713,7 +6696,7 @@
         <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="D76" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B76, ""en"", ""pt"")"),"gato")</f>
@@ -6728,7 +6711,7 @@
         <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="D77" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B77, ""en"", ""pt"")"),"pegar")</f>
@@ -6743,7 +6726,7 @@
         <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="D78" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""pt"")"),"teto")</f>
@@ -6758,7 +6741,7 @@
         <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="D79" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B79, ""en"", ""pt"")"),"célula")</f>
@@ -6773,7 +6756,7 @@
         <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="D80" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B80, ""en"", ""pt"")"),"centímetro")</f>
@@ -6788,7 +6771,7 @@
         <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="D81" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""pt"")"),"cadeira")</f>
@@ -6803,7 +6786,7 @@
         <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="D82" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B82, ""en"", ""pt"")"),"barato")</f>
@@ -6818,7 +6801,7 @@
         <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="D83" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B83, ""en"", ""pt"")"),"queijo")</f>
@@ -6833,7 +6816,7 @@
         <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="D84" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B84, ""en"", ""pt"")"),"frango")</f>
@@ -6848,7 +6831,7 @@
         <v>165</v>
       </c>
       <c r="C85" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="D85" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B85, ""en"", ""pt"")"),"criança")</f>
@@ -6863,7 +6846,7 @@
         <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="D86" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B86, ""en"", ""pt"")"),"Igreja")</f>
@@ -6878,7 +6861,7 @@
         <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="D87" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B87, ""en"", ""pt"")"),"círculo")</f>
@@ -6893,7 +6876,7 @@
         <v>171</v>
       </c>
       <c r="C88" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="D88" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B88, ""en"", ""pt"")"),"cidade")</f>
@@ -6908,7 +6891,7 @@
         <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="D89" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B89, ""en"", ""pt"")"),"argila")</f>
@@ -6923,7 +6906,7 @@
         <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="D90" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B90, ""en"", ""pt"")"),"limpar \ limpo")</f>
@@ -6938,7 +6921,7 @@
         <v>175</v>
       </c>
       <c r="C91" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="D91" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B91, ""en"", ""pt"")"),"limpar \ limpo")</f>
@@ -6953,7 +6936,7 @@
         <v>177</v>
       </c>
       <c r="C92" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="D92" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B92, ""en"", ""pt"")"),"relógio")</f>
@@ -6968,7 +6951,7 @@
         <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="D93" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B93, ""en"", ""pt"")"),"fechar")</f>
@@ -6983,7 +6966,7 @@
         <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="D94" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B94, ""en"", ""pt"")"),"roupas")</f>
@@ -7013,7 +6996,7 @@
         <v>185</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="D96" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B96, ""en"", ""pt"")"),"casaco")</f>
@@ -7028,7 +7011,7 @@
         <v>187</v>
       </c>
       <c r="C97" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="D97" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B97, ""en"", ""pt"")"),"café")</f>
@@ -7043,7 +7026,7 @@
         <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="D98" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B98, ""en"", ""pt"")"),"frio")</f>
@@ -7073,7 +7056,7 @@
         <v>193</v>
       </c>
       <c r="C100" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="D100" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B100, ""en"", ""pt"")"),"computador")</f>
@@ -7088,7 +7071,7 @@
         <v>195</v>
       </c>
       <c r="C101" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="D101" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B101, ""en"", ""pt"")"),"consoante")</f>
@@ -7103,7 +7086,7 @@
         <v>197</v>
       </c>
       <c r="C102" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="D102" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B102, ""en"", ""pt"")"),"contrato")</f>
@@ -7118,7 +7101,7 @@
         <v>199</v>
       </c>
       <c r="C103" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="D103" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B103, ""en"", ""pt"")"),"cozinhar")</f>
@@ -7133,7 +7116,7 @@
         <v>201</v>
       </c>
       <c r="C104" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="D104" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B104, ""en"", ""pt"")"),"legal")</f>
@@ -7148,7 +7131,7 @@
         <v>203</v>
       </c>
       <c r="C105" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="D105" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B105, ""en"", ""pt"")"),"cobre")</f>
@@ -7163,7 +7146,7 @@
         <v>205</v>
       </c>
       <c r="C106" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="D106" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B106, ""en"", ""pt"")"),"milho")</f>
@@ -7178,7 +7161,7 @@
         <v>207</v>
       </c>
       <c r="C107" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="D107" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B107, ""en"", ""pt"")"),"canto")</f>
@@ -7193,7 +7176,7 @@
         <v>209</v>
       </c>
       <c r="C108" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="D108" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B108, ""en"", ""pt"")"),"contagem")</f>
@@ -7208,7 +7191,7 @@
         <v>211</v>
       </c>
       <c r="C109" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="D109" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B109, ""en"", ""pt"")"),"país")</f>
@@ -7223,7 +7206,7 @@
         <v>213</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
       <c r="D110" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B110, ""en"", ""pt"")"),"quadra")</f>
@@ -7238,7 +7221,7 @@
         <v>215</v>
       </c>
       <c r="C111" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="D111" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B111, ""en"", ""pt"")"),"vaca")</f>
@@ -7253,7 +7236,7 @@
         <v>217</v>
       </c>
       <c r="C112" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="D112" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B112, ""en"", ""pt"")"),"multidão")</f>
@@ -7268,7 +7251,7 @@
         <v>219</v>
       </c>
       <c r="C113" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="D113" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B113, ""en"", ""pt"")"),"choro")</f>
@@ -7283,7 +7266,7 @@
         <v>221</v>
       </c>
       <c r="C114" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="D114" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B114, ""en"", ""pt"")"),"copo")</f>
@@ -7298,7 +7281,7 @@
         <v>223</v>
       </c>
       <c r="C115" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="D115" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B115, ""en"", ""pt"")"),"curvado")</f>
@@ -7313,7 +7296,7 @@
         <v>225</v>
       </c>
       <c r="C116" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="D116" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B116, ""en"", ""pt"")"),"cortar")</f>
@@ -7328,7 +7311,7 @@
         <v>227</v>
       </c>
       <c r="C117" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="D117" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B117, ""en"", ""pt"")"),"dança")</f>
@@ -7343,7 +7326,7 @@
         <v>229</v>
       </c>
       <c r="C118" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="D118" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B118, ""en"", ""pt"")"),"Sombrio")</f>
@@ -7358,7 +7341,7 @@
         <v>231</v>
       </c>
       <c r="C119" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="D119" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B119, ""en"", ""pt"")"),"encontro")</f>
@@ -7373,7 +7356,7 @@
         <v>233</v>
       </c>
       <c r="C120" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="D120" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B120, ""en"", ""pt"")"),"filha")</f>
@@ -7388,7 +7371,7 @@
         <v>235</v>
       </c>
       <c r="C121" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="D121" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B121, ""en"", ""pt"")"),"dia")</f>
@@ -7403,7 +7386,7 @@
         <v>237</v>
       </c>
       <c r="C122" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="D122" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B122, ""en"", ""pt"")"),"morto")</f>
@@ -7418,7 +7401,7 @@
         <v>239</v>
       </c>
       <c r="C123" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="D123" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B123, ""en"", ""pt"")"),"surdo")</f>
@@ -7433,7 +7416,7 @@
         <v>241</v>
       </c>
       <c r="C124" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="D124" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B124, ""en"", ""pt"")"),"morte")</f>
@@ -7442,13 +7425,13 @@
     </row>
     <row r="125" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="B125" t="s">
         <v>242</v>
       </c>
       <c r="C125" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="D125" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B125, ""en"", ""pt"")"),"dezembro")</f>
@@ -7463,7 +7446,7 @@
         <v>244</v>
       </c>
       <c r="C126" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="D126" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B126, ""en"", ""pt"")"),"profundo")</f>
@@ -7478,7 +7461,7 @@
         <v>246</v>
       </c>
       <c r="C127" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="D127" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B127, ""en"", ""pt"")"),"diamante")</f>
@@ -7493,7 +7476,7 @@
         <v>248</v>
       </c>
       <c r="C128" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="D128" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B128, ""en"", ""pt"")"),"morrer")</f>
@@ -7508,7 +7491,7 @@
         <v>250</v>
       </c>
       <c r="C129" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="D129" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B129, ""en"", ""pt"")"),"escavação")</f>
@@ -7523,7 +7506,7 @@
         <v>252</v>
       </c>
       <c r="C130" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="D130" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B130, ""en"", ""pt"")"),"jantar")</f>
@@ -7538,7 +7521,7 @@
         <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="D131" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B131, ""en"", ""pt"")"),"direção")</f>
@@ -7553,7 +7536,7 @@
         <v>256</v>
       </c>
       <c r="C132" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="D132" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B132, ""en"", ""pt"")"),"sujo")</f>
@@ -7568,7 +7551,7 @@
         <v>258</v>
       </c>
       <c r="C133" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="D133" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B133, ""en"", ""pt"")"),"doença")</f>
@@ -7598,7 +7581,7 @@
         <v>262</v>
       </c>
       <c r="C135" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="D135" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B135, ""en"", ""pt"")"),"cão")</f>
@@ -7613,7 +7596,7 @@
         <v>264</v>
       </c>
       <c r="C136" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="D136" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B136, ""en"", ""pt"")"),"dólar")</f>
@@ -7628,7 +7611,7 @@
         <v>266</v>
       </c>
       <c r="C137" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="D137" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B137, ""en"", ""pt"")"),"porta")</f>
@@ -7643,7 +7626,7 @@
         <v>268</v>
       </c>
       <c r="C138" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="D138" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B138, ""en"", ""pt"")"),"ponto")</f>
@@ -7658,7 +7641,7 @@
         <v>270</v>
       </c>
       <c r="C139" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="D139" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B139, ""en"", ""pt"")"),"baixa")</f>
@@ -7673,7 +7656,7 @@
         <v>270</v>
       </c>
       <c r="C140" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="D140" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B140, ""en"", ""pt"")"),"baixa")</f>
@@ -7688,7 +7671,7 @@
         <v>272</v>
       </c>
       <c r="C141" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="D141" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B141, ""en"", ""pt"")"),"desenhar")</f>
@@ -7703,7 +7686,7 @@
         <v>274</v>
       </c>
       <c r="C142" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="D142" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B142, ""en"", ""pt"")"),"Sonhe")</f>
@@ -7718,7 +7701,7 @@
         <v>276</v>
       </c>
       <c r="C143" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="D143" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B143, ""en"", ""pt"")"),"vestir")</f>
@@ -7733,7 +7716,7 @@
         <v>278</v>
       </c>
       <c r="C144" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="D144" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B144, ""en"", ""pt"")"),"bebida")</f>
@@ -7748,7 +7731,7 @@
         <v>280</v>
       </c>
       <c r="C145" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="D145" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B145, ""en"", ""pt"")"),"dirigir")</f>
@@ -7763,7 +7746,7 @@
         <v>282</v>
       </c>
       <c r="C146" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="D146" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B146, ""en"", ""pt"")"),"medicamento")</f>
@@ -7778,7 +7761,7 @@
         <v>284</v>
       </c>
       <c r="C147" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="D147" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B147, ""en"", ""pt"")"),"seco")</f>
@@ -7793,7 +7776,7 @@
         <v>286</v>
       </c>
       <c r="C148" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="D148" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B148, ""en"", ""pt"")"),"poeira")</f>
@@ -7808,7 +7791,7 @@
         <v>288</v>
       </c>
       <c r="C149" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="D149" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B149, ""en"", ""pt"")"),"orelha")</f>
@@ -7823,7 +7806,7 @@
         <v>290</v>
       </c>
       <c r="C150" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="D150" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B150, ""en"", ""pt"")"),"terra")</f>
@@ -7838,7 +7821,7 @@
         <v>291</v>
       </c>
       <c r="C151" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="D151" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B151, ""en"", ""pt"")"),"Terra")</f>
@@ -7853,7 +7836,7 @@
         <v>293</v>
       </c>
       <c r="C152" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="D152" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B152, ""en"", ""pt"")"),"leste")</f>
@@ -7868,7 +7851,7 @@
         <v>295</v>
       </c>
       <c r="C153" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="D153" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B153, ""en"", ""pt"")"),"comer")</f>
@@ -7883,7 +7866,7 @@
         <v>297</v>
       </c>
       <c r="C154" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="D154" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B154, ""en"", ""pt"")"),"Beira")</f>
@@ -7898,7 +7881,7 @@
         <v>299</v>
       </c>
       <c r="C155" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="D155" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B155, ""en"", ""pt"")"),"ovo")</f>
@@ -7913,7 +7896,7 @@
         <v>301</v>
       </c>
       <c r="C156" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="D156" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B156, ""en"", ""pt"")"),"oito")</f>
@@ -7928,7 +7911,7 @@
         <v>303</v>
       </c>
       <c r="C157" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="D157" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B157, ""en"", ""pt"")"),"dezoito")</f>
@@ -7943,7 +7926,7 @@
         <v>305</v>
       </c>
       <c r="C158" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="D158" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B158, ""en"", ""pt"")"),"oitenta")</f>
@@ -7958,7 +7941,7 @@
         <v>307</v>
       </c>
       <c r="C159" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="D159" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B159, ""en"", ""pt"")"),"eleição")</f>
@@ -7973,7 +7956,7 @@
         <v>309</v>
       </c>
       <c r="C160" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="D160" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B160, ""en"", ""pt"")"),"eletrônicos")</f>
@@ -7988,7 +7971,7 @@
         <v>311</v>
       </c>
       <c r="C161" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="D161" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B161, ""en"", ""pt"")"),"onze")</f>
@@ -8003,7 +7986,7 @@
         <v>313</v>
       </c>
       <c r="C162" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="D162" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B162, ""en"", ""pt"")"),"energia")</f>
@@ -8018,7 +8001,7 @@
         <v>315</v>
       </c>
       <c r="C163" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="D163" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B163, ""en"", ""pt"")"),"motor")</f>
@@ -8033,7 +8016,7 @@
         <v>317</v>
       </c>
       <c r="C164" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="D164" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B164, ""en"", ""pt"")"),"tarde")</f>
@@ -8048,7 +8031,7 @@
         <v>319</v>
       </c>
       <c r="C165" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="D165" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B165, ""en"", ""pt"")"),"exercício")</f>
@@ -8063,7 +8046,7 @@
         <v>321</v>
       </c>
       <c r="C166" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="D166" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B166, ""en"", ""pt"")"),"caro")</f>
@@ -8078,7 +8061,7 @@
         <v>323</v>
       </c>
       <c r="C167" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D167" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B167, ""en"", ""pt"")"),"explodir")</f>
@@ -8093,7 +8076,7 @@
         <v>325</v>
       </c>
       <c r="C168" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="D168" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B168, ""en"", ""pt"")"),"olho")</f>
@@ -8108,7 +8091,7 @@
         <v>327</v>
       </c>
       <c r="C169" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="D169" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B169, ""en"", ""pt"")"),"cara")</f>
@@ -8123,7 +8106,7 @@
         <v>329</v>
       </c>
       <c r="C170" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="D170" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B170, ""en"", ""pt"")"),"cair")</f>
@@ -8138,7 +8121,7 @@
         <v>329</v>
       </c>
       <c r="C171" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="D171" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B171, ""en"", ""pt"")"),"cair")</f>
@@ -8153,7 +8136,7 @@
         <v>331</v>
       </c>
       <c r="C172" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="D172" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B172, ""en"", ""pt"")"),"família")</f>
@@ -8168,7 +8151,7 @@
         <v>333</v>
       </c>
       <c r="C173" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="D173" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B173, ""en"", ""pt"")"),"famoso")</f>
@@ -8183,7 +8166,7 @@
         <v>335</v>
       </c>
       <c r="C174" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="D174" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B174, ""en"", ""pt"")"),"ventilador")</f>
@@ -8198,7 +8181,7 @@
         <v>335</v>
       </c>
       <c r="C175" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="D175" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B175, ""en"", ""pt"")"),"ventilador")</f>
@@ -8213,7 +8196,7 @@
         <v>337</v>
       </c>
       <c r="C176" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="D176" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B176, ""en"", ""pt"")"),"Fazenda")</f>
@@ -8228,7 +8211,7 @@
         <v>339</v>
       </c>
       <c r="C177" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="D177" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B177, ""en"", ""pt"")"),"velozes")</f>
@@ -8243,7 +8226,7 @@
         <v>341</v>
       </c>
       <c r="C178" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="D178" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B178, ""en"", ""pt"")"),"pai")</f>
@@ -8258,7 +8241,7 @@
         <v>343</v>
       </c>
       <c r="C179" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="D179" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B179, ""en"", ""pt"")"),"fevereiro")</f>
@@ -8273,7 +8256,7 @@
         <v>345</v>
       </c>
       <c r="C180" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="D180" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B180, ""en"", ""pt"")"),"alimentação")</f>
@@ -8288,7 +8271,7 @@
         <v>347</v>
       </c>
       <c r="C181" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="D181" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B181, ""en"", ""pt"")"),"fêmea")</f>
@@ -8303,7 +8286,7 @@
         <v>349</v>
       </c>
       <c r="C182" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="D182" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B182, ""en"", ""pt"")"),"quinze")</f>
@@ -8318,7 +8301,7 @@
         <v>351</v>
       </c>
       <c r="C183" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="D183" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B183, ""en"", ""pt"")"),"quinto")</f>
@@ -8333,7 +8316,7 @@
         <v>353</v>
       </c>
       <c r="C184" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="D184" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B184, ""en"", ""pt"")"),"cinquenta")</f>
@@ -8348,7 +8331,7 @@
         <v>355</v>
       </c>
       <c r="C185" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="D185" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B185, ""en"", ""pt"")"),"luta")</f>
@@ -8363,7 +8346,7 @@
         <v>357</v>
       </c>
       <c r="C186" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="D186" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B186, ""en"", ""pt"")"),"encontrar")</f>
@@ -8378,7 +8361,7 @@
         <v>359</v>
       </c>
       <c r="C187" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="D187" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B187, ""en"", ""pt"")"),"dedo")</f>
@@ -8393,7 +8376,7 @@
         <v>361</v>
       </c>
       <c r="C188" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="D188" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B188, ""en"", ""pt"")"),"fogo")</f>
@@ -8408,7 +8391,7 @@
         <v>363</v>
       </c>
       <c r="C189" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="D189" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B189, ""en"", ""pt"")"),"primeiro")</f>
@@ -8423,7 +8406,7 @@
         <v>365</v>
       </c>
       <c r="C190" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="D190" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B190, ""en"", ""pt"")"),"peixe")</f>
@@ -8438,7 +8421,7 @@
         <v>367</v>
       </c>
       <c r="C191" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="D191" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B191, ""en"", ""pt"")"),"cinco")</f>
@@ -8453,7 +8436,7 @@
         <v>369</v>
       </c>
       <c r="C192" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="D192" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B192, ""en"", ""pt"")"),"plano")</f>
@@ -8468,7 +8451,7 @@
         <v>371</v>
       </c>
       <c r="C193" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="D193" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B193, ""en"", ""pt"")"),"chão")</f>
@@ -8483,7 +8466,7 @@
         <v>373</v>
       </c>
       <c r="C194" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="D194" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B194, ""en"", ""pt"")"),"flor")</f>
@@ -8498,7 +8481,7 @@
         <v>375</v>
       </c>
       <c r="C195" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="D195" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B195, ""en"", ""pt"")"),"mosca")</f>
@@ -8513,7 +8496,7 @@
         <v>377</v>
       </c>
       <c r="C196" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="D196" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B196, ""en"", ""pt"")"),"Segue")</f>
@@ -8528,7 +8511,7 @@
         <v>379</v>
       </c>
       <c r="C197" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="D197" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B197, ""en"", ""pt"")"),"Comida")</f>
@@ -8543,7 +8526,7 @@
         <v>381</v>
       </c>
       <c r="C198" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="D198" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B198, ""en"", ""pt"")"),"pé")</f>
@@ -8558,7 +8541,7 @@
         <v>381</v>
       </c>
       <c r="C199" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="D199" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B199, ""en"", ""pt"")"),"pé")</f>
@@ -8573,7 +8556,7 @@
         <v>383</v>
       </c>
       <c r="C200" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="D200" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B200, ""en"", ""pt"")"),"floresta")</f>
@@ -8588,7 +8571,7 @@
         <v>385</v>
       </c>
       <c r="C201" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="D201" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B201, ""en"", ""pt"")"),"garfo")</f>
@@ -8603,7 +8586,7 @@
         <v>387</v>
       </c>
       <c r="C202" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="D202" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B202, ""en"", ""pt"")"),"quarenta")</f>
@@ -8618,7 +8601,7 @@
         <v>389</v>
       </c>
       <c r="C203" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="D203" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B203, ""en"", ""pt"")"),"quatro")</f>
@@ -8633,7 +8616,7 @@
         <v>391</v>
       </c>
       <c r="C204" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="D204" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B204, ""en"", ""pt"")"),"quatorze")</f>
@@ -8648,7 +8631,7 @@
         <v>393</v>
       </c>
       <c r="C205" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="D205" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B205, ""en"", ""pt"")"),"quarto")</f>
@@ -8657,13 +8640,13 @@
     </row>
     <row r="206" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="B206" t="s">
         <v>394</v>
       </c>
       <c r="C206" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="D206" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B206, ""en"", ""pt"")"),"Sexta-feira")</f>
@@ -8678,7 +8661,7 @@
         <v>396</v>
       </c>
       <c r="C207" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="D207" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B207, ""en"", ""pt"")"),"amigo")</f>
@@ -8693,7 +8676,7 @@
         <v>398</v>
       </c>
       <c r="C208" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="D208" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B208, ""en"", ""pt"")"),"frente")</f>
@@ -8708,7 +8691,7 @@
         <v>400</v>
       </c>
       <c r="C209" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="D209" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B209, ""en"", ""pt"")"),"jogos")</f>
@@ -8723,7 +8706,7 @@
         <v>402</v>
       </c>
       <c r="C210" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="D210" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B210, ""en"", ""pt"")"),"jardim")</f>
@@ -8738,7 +8721,7 @@
         <v>404</v>
       </c>
       <c r="C211" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="D211" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B211, ""en"", ""pt"")"),"Gasolina")</f>
@@ -8753,7 +8736,7 @@
         <v>406</v>
       </c>
       <c r="C212" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="D212" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B212, ""en"", ""pt"")"),"presente")</f>
@@ -8768,7 +8751,7 @@
         <v>408</v>
       </c>
       <c r="C213" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="D213" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B213, ""en"", ""pt"")"),"menina")</f>
@@ -8783,7 +8766,7 @@
         <v>410</v>
       </c>
       <c r="C214" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="D214" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B214, ""en"", ""pt"")"),"vidro")</f>
@@ -8798,7 +8781,7 @@
         <v>412</v>
       </c>
       <c r="C215" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="D215" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B215, ""en"", ""pt"")"),"vai")</f>
@@ -8807,13 +8790,13 @@
     </row>
     <row r="216" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="B216" t="s">
         <v>413</v>
       </c>
       <c r="C216" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="D216" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B216, ""en"", ""pt"")"),"Deus")</f>
@@ -8828,7 +8811,7 @@
         <v>415</v>
       </c>
       <c r="C217" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="D217" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B217, ""en"", ""pt"")"),"ouro")</f>
@@ -8843,7 +8826,7 @@
         <v>417</v>
       </c>
       <c r="C218" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="D218" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B218, ""en"", ""pt"")"),"Boa")</f>
@@ -8858,7 +8841,7 @@
         <v>419</v>
       </c>
       <c r="C219" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="D219" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B219, ""en"", ""pt"")"),"avô")</f>
@@ -8873,7 +8856,7 @@
         <v>421</v>
       </c>
       <c r="C220" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="D220" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B220, ""en"", ""pt"")"),"avó")</f>
@@ -8888,7 +8871,7 @@
         <v>423</v>
       </c>
       <c r="C221" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="D221" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B221, ""en"", ""pt"")"),"Relva")</f>
@@ -8903,7 +8886,7 @@
         <v>425</v>
       </c>
       <c r="C222" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="D222" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B222, ""en"", ""pt"")"),"cinzento")</f>
@@ -8918,7 +8901,7 @@
         <v>427</v>
       </c>
       <c r="C223" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="D223" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B223, ""en"", ""pt"")"),"verde")</f>
@@ -8933,7 +8916,7 @@
         <v>429</v>
       </c>
       <c r="C224" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="D224" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B224, ""en"", ""pt"")"),"terra")</f>
@@ -8948,7 +8931,7 @@
         <v>431</v>
       </c>
       <c r="C225" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="D225" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B225, ""en"", ""pt"")"),"crescer")</f>
@@ -8963,7 +8946,7 @@
         <v>433</v>
       </c>
       <c r="C226" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="D226" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B226, ""en"", ""pt"")"),"arma de fogo")</f>
@@ -8978,7 +8961,7 @@
         <v>435</v>
       </c>
       <c r="C227" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="D227" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B227, ""en"", ""pt"")"),"cabelo")</f>
@@ -8993,7 +8976,7 @@
         <v>437</v>
       </c>
       <c r="C228" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="D228" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B228, ""en"", ""pt"")"),"metade")</f>
@@ -9008,7 +8991,7 @@
         <v>439</v>
       </c>
       <c r="C229" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="D229" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B229, ""en"", ""pt"")"),"mão")</f>
@@ -9023,7 +9006,7 @@
         <v>441</v>
       </c>
       <c r="C230" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="D230" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B230, ""en"", ""pt"")"),"aguentar")</f>
@@ -9038,7 +9021,7 @@
         <v>443</v>
       </c>
       <c r="C231" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="D231" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B231, ""en"", ""pt"")"),"feliz")</f>
@@ -9053,7 +9036,7 @@
         <v>445</v>
       </c>
       <c r="C232" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="D232" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B232, ""en"", ""pt"")"),"Difícil")</f>
@@ -9068,7 +9051,7 @@
         <v>447</v>
       </c>
       <c r="C233" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="D233" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B233, ""en"", ""pt"")"),"chapéu")</f>
@@ -9083,7 +9066,7 @@
         <v>449</v>
       </c>
       <c r="C234" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="D234" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B234, ""en"", ""pt"")"),"ele")</f>
@@ -9098,7 +9081,7 @@
         <v>451</v>
       </c>
       <c r="C235" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="D235" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B235, ""en"", ""pt"")"),"cabeça")</f>
@@ -9113,7 +9096,7 @@
         <v>453</v>
       </c>
       <c r="C236" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="D236" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B236, ""en"", ""pt"")"),"saudável")</f>
@@ -9128,7 +9111,7 @@
         <v>455</v>
       </c>
       <c r="C237" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="D237" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B237, ""en"", ""pt"")"),"ouvir")</f>
@@ -9143,7 +9126,7 @@
         <v>457</v>
       </c>
       <c r="C238" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="D238" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B238, ""en"", ""pt"")"),"coração")</f>
@@ -9158,7 +9141,7 @@
         <v>459</v>
       </c>
       <c r="C239" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="D239" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B239, ""en"", ""pt"")"),"calor")</f>
@@ -9173,7 +9156,7 @@
         <v>461</v>
       </c>
       <c r="C240" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="D240" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B240, ""en"", ""pt"")"),"céu")</f>
@@ -9188,7 +9171,7 @@
         <v>463</v>
       </c>
       <c r="C241" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="D241" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B241, ""en"", ""pt"")"),"pesado")</f>
@@ -9203,7 +9186,7 @@
         <v>465</v>
       </c>
       <c r="C242" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="D242" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B242, ""en"", ""pt"")"),"inferno")</f>
@@ -9218,7 +9201,7 @@
         <v>467</v>
       </c>
       <c r="C243" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="D243" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B243, ""en"", ""pt"")"),"Alto")</f>
@@ -9233,7 +9216,7 @@
         <v>469</v>
       </c>
       <c r="C244" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="D244" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B244, ""en"", ""pt"")"),"Colina")</f>
@@ -9248,7 +9231,7 @@
         <v>471</v>
       </c>
       <c r="C245" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="D245" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B245, ""en"", ""pt"")"),"orifício")</f>
@@ -9263,7 +9246,7 @@
         <v>473</v>
       </c>
       <c r="C246" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="D246" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B246, ""en"", ""pt"")"),"cavalo")</f>
@@ -9293,7 +9276,7 @@
         <v>477</v>
       </c>
       <c r="C248" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="D248" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B248, ""en"", ""pt"")"),"quente")</f>
@@ -9323,7 +9306,7 @@
         <v>481</v>
       </c>
       <c r="C250" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="D250" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B250, ""en"", ""pt"")"),"hora")</f>
@@ -9338,7 +9321,7 @@
         <v>483</v>
       </c>
       <c r="C251" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="D251" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B251, ""en"", ""pt"")"),"casa")</f>
@@ -9353,7 +9336,7 @@
         <v>485</v>
       </c>
       <c r="C252" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="D252" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B252, ""en"", ""pt"")"),"humano")</f>
@@ -9368,7 +9351,7 @@
         <v>487</v>
       </c>
       <c r="C253" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="D253" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B253, ""en"", ""pt"")"),"cem")</f>
@@ -9383,7 +9366,7 @@
         <v>489</v>
       </c>
       <c r="C254" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="D254" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B254, ""en"", ""pt"")"),"marido")</f>
@@ -9392,13 +9375,13 @@
     </row>
     <row r="255" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="B255" t="s">
         <v>490</v>
       </c>
       <c r="C255" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="D255" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B255, ""en"", ""pt"")"),"Eu")</f>
@@ -9413,7 +9396,7 @@
         <v>492</v>
       </c>
       <c r="C256" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="D256" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B256, ""en"", ""pt"")"),"gelo")</f>
@@ -9428,7 +9411,7 @@
         <v>494</v>
       </c>
       <c r="C257" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="D257" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B257, ""en"", ""pt"")"),"imagem")</f>
@@ -9443,7 +9426,7 @@
         <v>496</v>
       </c>
       <c r="C258" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="D258" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B258, ""en"", ""pt"")"),"polegada")</f>
@@ -9458,7 +9441,7 @@
         <v>498</v>
       </c>
       <c r="C259" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="D259" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B259, ""en"", ""pt"")"),"ferimentos")</f>
@@ -9473,7 +9456,7 @@
         <v>500</v>
       </c>
       <c r="C260" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="D260" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B260, ""en"", ""pt"")"),"dentro")</f>
@@ -9488,7 +9471,7 @@
         <v>502</v>
       </c>
       <c r="C261" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="D261" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B261, ""en"", ""pt"")"),"instrumento")</f>
@@ -9503,7 +9486,7 @@
         <v>504</v>
       </c>
       <c r="C262" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="D262" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B262, ""en"", ""pt"")"),"ilha")</f>
@@ -9518,7 +9501,7 @@
         <v>506</v>
       </c>
       <c r="C263" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="D263" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B263, ""en"", ""pt"")"),"isto")</f>
@@ -9527,13 +9510,13 @@
     </row>
     <row r="264" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="B264" t="s">
         <v>507</v>
       </c>
       <c r="C264" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="D264" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B264, ""en"", ""pt"")"),"janeiro")</f>
@@ -9548,7 +9531,7 @@
         <v>509</v>
       </c>
       <c r="C265" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="D265" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B265, ""en"", ""pt"")"),"trabalho")</f>
@@ -9563,7 +9546,7 @@
         <v>511</v>
       </c>
       <c r="C266" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="D266" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B266, ""en"", ""pt"")"),"suco")</f>
@@ -9572,13 +9555,13 @@
     </row>
     <row r="267" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
       <c r="B267" t="s">
         <v>512</v>
       </c>
       <c r="C267" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="D267" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B267, ""en"", ""pt"")"),"Julho")</f>
@@ -9593,7 +9576,7 @@
         <v>514</v>
       </c>
       <c r="C268" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="D268" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B268, ""en"", ""pt"")"),"saltar")</f>
@@ -9602,13 +9585,13 @@
     </row>
     <row r="269" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="B269" t="s">
         <v>515</v>
       </c>
       <c r="C269" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="D269" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B269, ""en"", ""pt"")"),"Junho")</f>
@@ -9623,7 +9606,7 @@
         <v>517</v>
       </c>
       <c r="C270" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="D270" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B270, ""en"", ""pt"")"),"chave")</f>
@@ -9638,7 +9621,7 @@
         <v>519</v>
       </c>
       <c r="C271" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="D271" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B271, ""en"", ""pt"")"),"matar")</f>
@@ -9653,7 +9636,7 @@
         <v>521</v>
       </c>
       <c r="C272" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="D272" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B272, ""en"", ""pt"")"),"quilograma")</f>
@@ -9668,7 +9651,7 @@
         <v>523</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="D273" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B273, ""en"", ""pt"")"),"rei")</f>
@@ -9683,7 +9666,7 @@
         <v>525</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="D274" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B274, ""en"", ""pt"")"),"beijo")</f>
@@ -9698,7 +9681,7 @@
         <v>527</v>
       </c>
       <c r="C275" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="D275" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B275, ""en"", ""pt"")"),"cozinha")</f>
@@ -9713,7 +9696,7 @@
         <v>529</v>
       </c>
       <c r="C276" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="D276" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B276, ""en"", ""pt"")"),"joelho")</f>
@@ -9728,7 +9711,7 @@
         <v>531</v>
       </c>
       <c r="C277" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="D277" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B277, ""en"", ""pt"")"),"faca")</f>
@@ -9743,7 +9726,7 @@
         <v>533</v>
       </c>
       <c r="C278" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="D278" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B278, ""en"", ""pt"")"),"lago")</f>
@@ -9758,7 +9741,7 @@
         <v>535</v>
       </c>
       <c r="C279" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="D279" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B279, ""en"", ""pt"")"),"luminária")</f>
@@ -9773,7 +9756,7 @@
         <v>537</v>
       </c>
       <c r="C280" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="D280" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B280, ""en"", ""pt"")"),"computador portátil")</f>
@@ -9788,11 +9771,11 @@
         <v>539</v>
       </c>
       <c r="C281" t="s">
-        <v>1208</v>
+        <v>1427</v>
       </c>
       <c r="D281" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B281, ""en"", ""pt"")"),"ampla")</f>
-        <v>ampla</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B282, ""en"", ""pt"")"),"rir")</f>
+        <v>rir</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9803,11 +9786,11 @@
         <v>541</v>
       </c>
       <c r="C282" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="D282" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B282, ""en"", ""pt"")"),"rir")</f>
-        <v>rir</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B283, ""en"", ""pt"")"),"advogado")</f>
+        <v>advogado</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9818,11 +9801,11 @@
         <v>543</v>
       </c>
       <c r="C283" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="D283" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B283, ""en"", ""pt"")"),"advogado")</f>
-        <v>advogado</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B284, ""en"", ""pt"")"),"folha")</f>
+        <v>folha</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9833,11 +9816,11 @@
         <v>545</v>
       </c>
       <c r="C284" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="D284" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B284, ""en"", ""pt"")"),"folha")</f>
-        <v>folha</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B285, ""en"", ""pt"")"),"aprender")</f>
+        <v>aprender</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9848,11 +9831,11 @@
         <v>547</v>
       </c>
       <c r="C285" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="D285" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B285, ""en"", ""pt"")"),"aprender")</f>
-        <v>aprender</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B286, ""en"", ""pt"")"),"esquerda")</f>
+        <v>esquerda</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9863,11 +9846,11 @@
         <v>549</v>
       </c>
       <c r="C286" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="D286" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B286, ""en"", ""pt"")"),"esquerda")</f>
-        <v>esquerda</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B287, ""en"", ""pt"")"),"perna")</f>
+        <v>perna</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9878,11 +9861,11 @@
         <v>551</v>
       </c>
       <c r="C287" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="D287" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B287, ""en"", ""pt"")"),"perna")</f>
-        <v>perna</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B288, ""en"", ""pt"")"),"limão")</f>
+        <v>limão</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9893,11 +9876,11 @@
         <v>553</v>
       </c>
       <c r="C288" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="D288" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B288, ""en"", ""pt"")"),"limão")</f>
-        <v>limão</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B289, ""en"", ""pt"")"),"carta")</f>
+        <v>carta</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9908,11 +9891,11 @@
         <v>555</v>
       </c>
       <c r="C289" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="D289" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B289, ""en"", ""pt"")"),"carta")</f>
-        <v>carta</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B290, ""en"", ""pt"")"),"biblioteca")</f>
+        <v>biblioteca</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9923,11 +9906,11 @@
         <v>557</v>
       </c>
       <c r="C290" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="D290" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B290, ""en"", ""pt"")"),"biblioteca")</f>
-        <v>biblioteca</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B291, ""en"", ""pt"")"),"mentira")</f>
+        <v>mentira</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9938,11 +9921,11 @@
         <v>559</v>
       </c>
       <c r="C291" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="D291" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B291, ""en"", ""pt"")"),"mentira")</f>
-        <v>mentira</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B292, ""en"", ""pt"")"),"lift")</f>
+        <v>lift</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9953,40 +9936,40 @@
         <v>561</v>
       </c>
       <c r="C292" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="D292" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B292, ""en"", ""pt"")"),"lift")</f>
-        <v>lift</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B293, ""en"", ""pt"")"),"luz")</f>
+        <v>luz</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B293" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C293" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="D293" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B293, ""en"", ""pt"")"),"luz")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B294, ""en"", ""pt"")"),"luz")</f>
         <v>luz</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B294" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C294" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="D294" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B294, ""en"", ""pt"")"),"luz")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B295, ""en"", ""pt"")"),"luz")</f>
         <v>luz</v>
       </c>
     </row>
@@ -9998,11 +9981,11 @@
         <v>563</v>
       </c>
       <c r="C295" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="D295" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B295, ""en"", ""pt"")"),"luz")</f>
-        <v>luz</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B296, ""en"", ""pt"")"),"lábio")</f>
+        <v>lábio</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10013,11 +9996,11 @@
         <v>565</v>
       </c>
       <c r="C296" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="D296" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B296, ""en"", ""pt"")"),"lábio")</f>
-        <v>lábio</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B297, ""en"", ""pt"")"),"ouço")</f>
+        <v>ouço</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10028,11 +10011,11 @@
         <v>567</v>
       </c>
       <c r="C297" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="D297" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B297, ""en"", ""pt"")"),"ouço")</f>
-        <v>ouço</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B299, ""en"", ""pt"")"),"localização")</f>
+        <v>localização</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10043,11 +10026,11 @@
         <v>569</v>
       </c>
       <c r="C298" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="D298" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B298, ""en"", ""pt"")"),"pequeno")</f>
-        <v>pequeno</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B300, ""en"", ""pt"")"),"bloqueio")</f>
+        <v>bloqueio</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10058,11 +10041,11 @@
         <v>571</v>
       </c>
       <c r="C299" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="D299" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B299, ""en"", ""pt"")"),"localização")</f>
-        <v>localização</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B301, ""en"", ""pt"")"),"longo")</f>
+        <v>longo</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10073,11 +10056,11 @@
         <v>573</v>
       </c>
       <c r="C300" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="D300" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B300, ""en"", ""pt"")"),"bloqueio")</f>
-        <v>bloqueio</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B302, ""en"", ""pt"")"),"perder")</f>
+        <v>perder</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10088,11 +10071,11 @@
         <v>575</v>
       </c>
       <c r="C301" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="D301" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B301, ""en"", ""pt"")"),"longo")</f>
-        <v>longo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B303, ""en"", ""pt"")"),"perder")</f>
+        <v>perder</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10103,11 +10086,11 @@
         <v>577</v>
       </c>
       <c r="C302" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="D302" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B302, ""en"", ""pt"")"),"perder")</f>
-        <v>perder</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B304, ""en"", ""pt"")"),"alto")</f>
+        <v>alto</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10118,11 +10101,11 @@
         <v>579</v>
       </c>
       <c r="C303" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="D303" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B303, ""en"", ""pt"")"),"perder")</f>
-        <v>perder</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B305, ""en"", ""pt"")"),"amar")</f>
+        <v>amar</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10133,11 +10116,11 @@
         <v>581</v>
       </c>
       <c r="C304" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D304" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B304, ""en"", ""pt"")"),"alto")</f>
-        <v>alto</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B306, ""en"", ""pt"")"),"baixo")</f>
+        <v>baixo</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10148,11 +10131,11 @@
         <v>583</v>
       </c>
       <c r="C305" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="D305" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B305, ""en"", ""pt"")"),"amar")</f>
-        <v>amar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B307, ""en"", ""pt"")"),"almoço")</f>
+        <v>almoço</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10163,11 +10146,11 @@
         <v>585</v>
       </c>
       <c r="C306" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="D306" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B306, ""en"", ""pt"")"),"baixo")</f>
-        <v>baixo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B308, ""en"", ""pt"")"),"revista")</f>
+        <v>revista</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10178,11 +10161,11 @@
         <v>587</v>
       </c>
       <c r="C307" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="D307" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B307, ""en"", ""pt"")"),"almoço")</f>
-        <v>almoço</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B309, ""en"", ""pt"")"),"masculino")</f>
+        <v>masculino</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10193,11 +10176,11 @@
         <v>589</v>
       </c>
       <c r="C308" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D308" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B308, ""en"", ""pt"")"),"revista")</f>
-        <v>revista</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B310, ""en"", ""pt"")"),"homem")</f>
+        <v>homem</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10208,11 +10191,11 @@
         <v>591</v>
       </c>
       <c r="C309" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="D309" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B309, ""en"", ""pt"")"),"masculino")</f>
-        <v>masculino</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B311, ""en"", ""pt"")"),"Gerente")</f>
+        <v>Gerente</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10223,56 +10206,56 @@
         <v>593</v>
       </c>
       <c r="C310" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="D310" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B310, ""en"", ""pt"")"),"homem")</f>
-        <v>homem</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B312, ""en"", ""pt"")"),"mapa")</f>
+        <v>mapa</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="A311" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B311" t="s">
         <v>594</v>
       </c>
-      <c r="B311" t="s">
-        <v>595</v>
-      </c>
       <c r="C311" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="D311" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B311, ""en"", ""pt"")"),"Gerente")</f>
-        <v>Gerente</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B313, ""en"", ""pt"")"),"Março")</f>
+        <v>Março</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>595</v>
+      </c>
+      <c r="B312" t="s">
         <v>596</v>
       </c>
-      <c r="B312" t="s">
+      <c r="C312" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D312" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B314, ""en"", ""pt"")"),"mercado")</f>
+        <v>mercado</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>597</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D312" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B312, ""en"", ""pt"")"),"mapa")</f>
-        <v>mapa</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>1744</v>
       </c>
       <c r="B313" t="s">
         <v>598</v>
       </c>
       <c r="C313" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="D313" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B313, ""en"", ""pt"")"),"Março")</f>
-        <v>Março</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B315, ""en"", ""pt"")"),"casamento")</f>
+        <v>casamento</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10283,11 +10266,11 @@
         <v>600</v>
       </c>
       <c r="C314" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="D314" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B314, ""en"", ""pt"")"),"mercado")</f>
-        <v>mercado</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B316, ""en"", ""pt"")"),"casar")</f>
+        <v>casar</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10298,56 +10281,56 @@
         <v>602</v>
       </c>
       <c r="C315" t="s">
-        <v>1464</v>
+        <v>602</v>
       </c>
       <c r="D315" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B315, ""en"", ""pt"")"),"casamento")</f>
-        <v>casamento</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B317, ""en"", ""pt"")"),"material")</f>
+        <v>material</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="A316" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B316" t="s">
         <v>603</v>
       </c>
-      <c r="B316" t="s">
-        <v>604</v>
-      </c>
       <c r="C316" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="D316" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B316, ""en"", ""pt"")"),"casar")</f>
-        <v>casar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B318, ""en"", ""pt"")"),"Maio")</f>
+        <v>Maio</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>604</v>
+      </c>
+      <c r="B317" t="s">
         <v>605</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D317" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B319, ""en"", ""pt"")"),"significar")</f>
+        <v>significar</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>606</v>
-      </c>
-      <c r="C317" t="s">
-        <v>606</v>
-      </c>
-      <c r="D317" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B317, ""en"", ""pt"")"),"material")</f>
-        <v>material</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>1745</v>
       </c>
       <c r="B318" t="s">
         <v>607</v>
       </c>
       <c r="C318" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="D318" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B318, ""en"", ""pt"")"),"Maio")</f>
-        <v>Maio</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B320, ""en"", ""pt"")"),"remédio")</f>
+        <v>remédio</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10358,11 +10341,11 @@
         <v>609</v>
       </c>
       <c r="C319" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="D319" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B319, ""en"", ""pt"")"),"significar")</f>
-        <v>significar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B321, ""en"", ""pt"")"),"fundição")</f>
+        <v>fundição</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10373,11 +10356,11 @@
         <v>611</v>
       </c>
       <c r="C320" t="s">
-        <v>1468</v>
+        <v>611</v>
       </c>
       <c r="D320" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B320, ""en"", ""pt"")"),"remédio")</f>
-        <v>remédio</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B322, ""en"", ""pt"")"),"metal")</f>
+        <v>metal</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10388,11 +10371,11 @@
         <v>613</v>
       </c>
       <c r="C321" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="D321" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B321, ""en"", ""pt"")"),"fundição")</f>
-        <v>fundição</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B323, ""en"", ""pt"")"),"metro")</f>
+        <v>metro</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10402,12 +10385,12 @@
       <c r="B322" t="s">
         <v>615</v>
       </c>
-      <c r="C322" t="s">
-        <v>615</v>
+      <c r="C322" s="1" t="s">
+        <v>1752</v>
       </c>
       <c r="D322" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B322, ""en"", ""pt"")"),"metal")</f>
-        <v>metal</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B324, ""en"", ""pt"")"),"leite")</f>
+        <v>leite</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10418,11 +10401,11 @@
         <v>617</v>
       </c>
       <c r="C323" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="D323" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B323, ""en"", ""pt"")"),"metro")</f>
-        <v>metro</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B325, ""en"", ""pt"")"),"milhão")</f>
+        <v>milhão</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10432,12 +10415,12 @@
       <c r="B324" t="s">
         <v>619</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>1760</v>
+      <c r="C324" t="s">
+        <v>1466</v>
       </c>
       <c r="D324" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B324, ""en"", ""pt"")"),"leite")</f>
-        <v>leite</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B326, ""en"", ""pt"")"),"minuto")</f>
+        <v>minuto</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10448,56 +10431,56 @@
         <v>621</v>
       </c>
       <c r="C325" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="D325" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B325, ""en"", ""pt"")"),"milhão")</f>
-        <v>milhão</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B327, ""en"", ""pt"")"),"misturar")</f>
+        <v>misturar</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B326" t="s">
         <v>622</v>
       </c>
-      <c r="B326" t="s">
-        <v>623</v>
-      </c>
       <c r="C326" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D326" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B326, ""en"", ""pt"")"),"minuto")</f>
-        <v>minuto</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B328, ""en"", ""pt"")"),"Segunda-feira")</f>
+        <v>Segunda-feira</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>623</v>
+      </c>
+      <c r="B327" t="s">
         <v>624</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D327" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B329, ""en"", ""pt"")"),"dinheiro")</f>
+        <v>dinheiro</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>625</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D327" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B327, ""en"", ""pt"")"),"misturar")</f>
-        <v>misturar</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>1746</v>
       </c>
       <c r="B328" t="s">
         <v>626</v>
       </c>
       <c r="C328" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="D328" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B328, ""en"", ""pt"")"),"Segunda-feira")</f>
-        <v>Segunda-feira</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B330, ""en"", ""pt"")"),"mês")</f>
+        <v>mês</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10508,11 +10491,11 @@
         <v>628</v>
       </c>
       <c r="C329" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="D329" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B329, ""en"", ""pt"")"),"dinheiro")</f>
-        <v>dinheiro</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B331, ""en"", ""pt"")"),"lua")</f>
+        <v>lua</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10522,12 +10505,12 @@
       <c r="B330" t="s">
         <v>630</v>
       </c>
-      <c r="C330" t="s">
-        <v>1476</v>
+      <c r="C330" s="1" t="s">
+        <v>1753</v>
       </c>
       <c r="D330" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B330, ""en"", ""pt"")"),"mês")</f>
-        <v>mês</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B332, ""en"", ""pt"")"),"manhã")</f>
+        <v>manhã</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10538,11 +10521,11 @@
         <v>632</v>
       </c>
       <c r="C331" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="D331" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B331, ""en"", ""pt"")"),"lua")</f>
-        <v>lua</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B333, ""en"", ""pt"")"),"mãe")</f>
+        <v>mãe</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10552,12 +10535,12 @@
       <c r="B332" t="s">
         <v>634</v>
       </c>
-      <c r="C332" s="1" t="s">
-        <v>1761</v>
+      <c r="C332" t="s">
+        <v>1473</v>
       </c>
       <c r="D332" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B332, ""en"", ""pt"")"),"manhã")</f>
-        <v>manhã</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B334, ""en"", ""pt"")"),"montanha")</f>
+        <v>montanha</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10568,11 +10551,11 @@
         <v>636</v>
       </c>
       <c r="C333" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="D333" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B333, ""en"", ""pt"")"),"mãe")</f>
-        <v>mãe</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B335, ""en"", ""pt"")"),"rato")</f>
+        <v>rato</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10583,11 +10566,11 @@
         <v>638</v>
       </c>
       <c r="C334" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="D334" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B334, ""en"", ""pt"")"),"montanha")</f>
-        <v>montanha</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B336, ""en"", ""pt"")"),"boca")</f>
+        <v>boca</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10598,11 +10581,11 @@
         <v>640</v>
       </c>
       <c r="C335" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="D335" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B335, ""en"", ""pt"")"),"rato")</f>
-        <v>rato</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B337, ""en"", ""pt"")"),"filme")</f>
+        <v>filme</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10613,11 +10596,11 @@
         <v>642</v>
       </c>
       <c r="C336" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="D336" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B336, ""en"", ""pt"")"),"boca")</f>
-        <v>boca</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B338, ""en"", ""pt"")"),"assassinato")</f>
+        <v>assassinato</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10628,11 +10611,11 @@
         <v>644</v>
       </c>
       <c r="C337" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="D337" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B337, ""en"", ""pt"")"),"filme")</f>
-        <v>filme</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B339, ""en"", ""pt"")"),"música")</f>
+        <v>música</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10643,11 +10626,11 @@
         <v>646</v>
       </c>
       <c r="C338" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="D338" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B338, ""en"", ""pt"")"),"assassinato")</f>
-        <v>assassinato</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B340, ""en"", ""pt"")"),"limitar")</f>
+        <v>limitar</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10658,11 +10641,11 @@
         <v>648</v>
       </c>
       <c r="C339" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="D339" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B339, ""en"", ""pt"")"),"música")</f>
-        <v>música</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B341, ""en"", ""pt"")"),"natureza")</f>
+        <v>natureza</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10673,11 +10656,11 @@
         <v>650</v>
       </c>
       <c r="C340" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="D340" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B340, ""en"", ""pt"")"),"limitar")</f>
-        <v>limitar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B342, ""en"", ""pt"")"),"pescoço")</f>
+        <v>pescoço</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10688,11 +10671,11 @@
         <v>652</v>
       </c>
       <c r="C341" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="D341" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B341, ""en"", ""pt"")"),"natureza")</f>
-        <v>natureza</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B343, ""en"", ""pt"")"),"agulha")</f>
+        <v>agulha</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10703,11 +10686,11 @@
         <v>654</v>
       </c>
       <c r="C342" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="D342" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B342, ""en"", ""pt"")"),"pescoço")</f>
-        <v>pescoço</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B344, ""en"", ""pt"")"),"vizinho")</f>
+        <v>vizinho</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10718,11 +10701,11 @@
         <v>656</v>
       </c>
       <c r="C343" t="s">
-        <v>1488</v>
+        <v>794</v>
       </c>
       <c r="D343" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B343, ""en"", ""pt"")"),"agulha")</f>
-        <v>agulha</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B345, ""en"", ""pt"")"),"rede")</f>
+        <v>rede</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10733,11 +10716,11 @@
         <v>658</v>
       </c>
       <c r="C344" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="D344" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B344, ""en"", ""pt"")"),"vizinho")</f>
-        <v>vizinho</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B346, ""en"", ""pt"")"),"Novo")</f>
+        <v>Novo</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10748,11 +10731,11 @@
         <v>660</v>
       </c>
       <c r="C345" t="s">
-        <v>798</v>
+        <v>1485</v>
       </c>
       <c r="D345" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B345, ""en"", ""pt"")"),"rede")</f>
-        <v>rede</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B347, ""en"", ""pt"")"),"jornal")</f>
+        <v>jornal</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10763,11 +10746,11 @@
         <v>662</v>
       </c>
       <c r="C346" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="D346" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B346, ""en"", ""pt"")"),"Novo")</f>
-        <v>Novo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B348, ""en"", ""pt"")"),"bom")</f>
+        <v>bom</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10778,11 +10761,11 @@
         <v>664</v>
       </c>
       <c r="C347" t="s">
-        <v>1491</v>
+        <v>1318</v>
       </c>
       <c r="D347" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B347, ""en"", ""pt"")"),"jornal")</f>
-        <v>jornal</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B349, ""en"", ""pt"")"),"noite")</f>
+        <v>noite</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10793,11 +10776,11 @@
         <v>666</v>
       </c>
       <c r="C348" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="D348" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B348, ""en"", ""pt"")"),"bom")</f>
-        <v>bom</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B350, ""en"", ""pt"")"),"nove")</f>
+        <v>nove</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10808,11 +10791,11 @@
         <v>668</v>
       </c>
       <c r="C349" t="s">
-        <v>1324</v>
+        <v>1488</v>
       </c>
       <c r="D349" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B349, ""en"", ""pt"")"),"noite")</f>
-        <v>noite</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B351, ""en"", ""pt"")"),"dezenove")</f>
+        <v>dezenove</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10823,11 +10806,11 @@
         <v>670</v>
       </c>
       <c r="C350" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="D350" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B350, ""en"", ""pt"")"),"nove")</f>
-        <v>nove</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B352, ""en"", ""pt"")"),"noventa")</f>
+        <v>noventa</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10838,11 +10821,11 @@
         <v>672</v>
       </c>
       <c r="C351" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="D351" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B351, ""en"", ""pt"")"),"dezenove")</f>
-        <v>dezenove</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B353, ""en"", ""pt"")"),"não")</f>
+        <v>não</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10853,11 +10836,11 @@
         <v>674</v>
       </c>
       <c r="C352" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="D352" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B352, ""en"", ""pt"")"),"noventa")</f>
-        <v>noventa</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B354, ""en"", ""pt"")"),"norte")</f>
+        <v>norte</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10868,11 +10851,11 @@
         <v>676</v>
       </c>
       <c r="C353" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="D353" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B353, ""en"", ""pt"")"),"não")</f>
-        <v>não</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B355, ""en"", ""pt"")"),"nariz")</f>
+        <v>nariz</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10883,56 +10866,56 @@
         <v>678</v>
       </c>
       <c r="C354" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="D354" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B354, ""en"", ""pt"")"),"norte")</f>
-        <v>norte</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B356, ""en"", ""pt"")"),"Nota")</f>
+        <v>Nota</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="A355" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B355" t="s">
         <v>679</v>
       </c>
-      <c r="B355" t="s">
-        <v>680</v>
-      </c>
       <c r="C355" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="D355" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B355, ""en"", ""pt"")"),"nariz")</f>
-        <v>nariz</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B357, ""en"", ""pt"")"),"novembro")</f>
+        <v>novembro</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>680</v>
+      </c>
+      <c r="B356" t="s">
         <v>681</v>
       </c>
-      <c r="B356" t="s">
+      <c r="C356" t="s">
+        <v>681</v>
+      </c>
+      <c r="D356" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B358, ""en"", ""pt"")"),"nuclear")</f>
+        <v>nuclear</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>682</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D356" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B356, ""en"", ""pt"")"),"Nota")</f>
-        <v>Nota</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>1747</v>
       </c>
       <c r="B357" t="s">
         <v>683</v>
       </c>
       <c r="C357" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="D357" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B357, ""en"", ""pt"")"),"novembro")</f>
-        <v>novembro</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B359, ""en"", ""pt"")"),"número")</f>
+        <v>número</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10943,56 +10926,56 @@
         <v>685</v>
       </c>
       <c r="C358" t="s">
-        <v>685</v>
+        <v>1496</v>
       </c>
       <c r="D358" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B358, ""en"", ""pt"")"),"nuclear")</f>
-        <v>nuclear</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B360, ""en"", ""pt"")"),"oceano")</f>
+        <v>oceano</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="A359" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B359" t="s">
         <v>686</v>
       </c>
-      <c r="B359" t="s">
-        <v>687</v>
-      </c>
       <c r="C359" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="D359" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B359, ""en"", ""pt"")"),"número")</f>
-        <v>número</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B361, ""en"", ""pt"")"),"Outubro")</f>
+        <v>Outubro</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>687</v>
+      </c>
+      <c r="B360" t="s">
         <v>688</v>
       </c>
-      <c r="B360" t="s">
+      <c r="C360" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D360" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B362, ""en"", ""pt"")"),"escritório")</f>
+        <v>escritório</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
         <v>689</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D360" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B360, ""en"", ""pt"")"),"oceano")</f>
-        <v>oceano</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>1748</v>
       </c>
       <c r="B361" t="s">
         <v>690</v>
       </c>
       <c r="C361" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="D361" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B361, ""en"", ""pt"")"),"Outubro")</f>
-        <v>Outubro</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B363, ""en"", ""pt"")"),"óleo")</f>
+        <v>óleo</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11003,71 +10986,71 @@
         <v>692</v>
       </c>
       <c r="C362" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="D362" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B362, ""en"", ""pt"")"),"escritório")</f>
-        <v>escritório</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B364, ""en"", ""pt"")"),"velho")</f>
+        <v>velho</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B363" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C363" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="D363" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B363, ""en"", ""pt"")"),"óleo")</f>
-        <v>óleo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B365, ""en"", ""pt"")"),"velho")</f>
+        <v>velho</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B364" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C364" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="D364" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B364, ""en"", ""pt"")"),"velho")</f>
-        <v>velho</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B366, ""en"", ""pt"")"),"1")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B365" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C365" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="D365" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B365, ""en"", ""pt"")"),"velho")</f>
-        <v>velho</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B367, ""en"", ""pt"")"),"1")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B366" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C366" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="D366" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B366, ""en"", ""pt"")"),"1")</f>
-        <v>1</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B368, ""en"", ""pt"")"),"abrir")</f>
+        <v>abrir</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11078,41 +11061,41 @@
         <v>698</v>
       </c>
       <c r="C367" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="D367" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B367, ""en"", ""pt"")"),"1")</f>
-        <v>1</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B369, ""en"", ""pt"")"),"laranja")</f>
+        <v>laranja</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B368" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C368" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="D368" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B368, ""en"", ""pt"")"),"abrir")</f>
-        <v>abrir</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B370, ""en"", ""pt"")"),"laranja")</f>
+        <v>laranja</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B369" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C369" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="D369" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B369, ""en"", ""pt"")"),"laranja")</f>
-        <v>laranja</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B371, ""en"", ""pt"")"),"lado de fora")</f>
+        <v>lado de fora</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11123,11 +11106,11 @@
         <v>702</v>
       </c>
       <c r="C370" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="D370" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B370, ""en"", ""pt"")"),"laranja")</f>
-        <v>laranja</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B372, ""en"", ""pt"")"),"página")</f>
+        <v>página</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11138,11 +11121,11 @@
         <v>704</v>
       </c>
       <c r="C371" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="D371" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B371, ""en"", ""pt"")"),"lado de fora")</f>
-        <v>lado de fora</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B373, ""en"", ""pt"")"),"dor")</f>
+        <v>dor</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11153,11 +11136,11 @@
         <v>706</v>
       </c>
       <c r="C372" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="D372" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B372, ""en"", ""pt"")"),"página")</f>
-        <v>página</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B374, ""en"", ""pt"")"),"pintura")</f>
+        <v>pintura</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11168,11 +11151,11 @@
         <v>708</v>
       </c>
       <c r="C373" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="D373" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B373, ""en"", ""pt"")"),"dor")</f>
-        <v>dor</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B375, ""en"", ""pt"")"),"calça")</f>
+        <v>calça</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11183,11 +11166,11 @@
         <v>710</v>
       </c>
       <c r="C374" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="D374" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B374, ""en"", ""pt"")"),"pintura")</f>
-        <v>pintura</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B376, ""en"", ""pt"")"),"papel")</f>
+        <v>papel</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11198,11 +11181,11 @@
         <v>712</v>
       </c>
       <c r="C375" t="s">
-        <v>1514</v>
+        <v>1330</v>
       </c>
       <c r="D375" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B375, ""en"", ""pt"")"),"calça")</f>
-        <v>calça</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B377, ""en"", ""pt"")"),"parente")</f>
+        <v>parente</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11213,11 +11196,11 @@
         <v>714</v>
       </c>
       <c r="C376" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="D376" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B376, ""en"", ""pt"")"),"papel")</f>
-        <v>papel</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B378, ""en"", ""pt"")"),"parque")</f>
+        <v>parque</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11228,11 +11211,11 @@
         <v>716</v>
       </c>
       <c r="C377" t="s">
-        <v>1336</v>
+        <v>1511</v>
       </c>
       <c r="D377" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B377, ""en"", ""pt"")"),"parente")</f>
-        <v>parente</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B379, ""en"", ""pt"")"),"passar")</f>
+        <v>passar</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11243,11 +11226,11 @@
         <v>718</v>
       </c>
       <c r="C378" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="D378" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B378, ""en"", ""pt"")"),"parque")</f>
-        <v>parque</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B380, ""en"", ""pt"")"),"paciente")</f>
+        <v>paciente</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11258,11 +11241,11 @@
         <v>720</v>
       </c>
       <c r="C379" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="D379" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B379, ""en"", ""pt"")"),"passar")</f>
-        <v>passar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B381, ""en"", ""pt"")"),"padronizar")</f>
+        <v>padronizar</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11273,11 +11256,11 @@
         <v>722</v>
       </c>
       <c r="C380" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="D380" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B380, ""en"", ""pt"")"),"paciente")</f>
-        <v>paciente</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B382, ""en"", ""pt"")"),"pagamento")</f>
+        <v>pagamento</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11288,11 +11271,11 @@
         <v>724</v>
       </c>
       <c r="C381" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="D381" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B381, ""en"", ""pt"")"),"padronizar")</f>
-        <v>padronizar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B383, ""en"", ""pt"")"),"Paz")</f>
+        <v>Paz</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11303,11 +11286,11 @@
         <v>726</v>
       </c>
       <c r="C382" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="D382" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B382, ""en"", ""pt"")"),"pagamento")</f>
-        <v>pagamento</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B384, ""en"", ""pt"")"),"caneta")</f>
+        <v>caneta</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11318,11 +11301,11 @@
         <v>728</v>
       </c>
       <c r="C383" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="D383" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B383, ""en"", ""pt"")"),"Paz")</f>
-        <v>Paz</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B385, ""en"", ""pt"")"),"lápis")</f>
+        <v>lápis</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11333,11 +11316,11 @@
         <v>730</v>
       </c>
       <c r="C384" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="D384" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B384, ""en"", ""pt"")"),"caneta")</f>
-        <v>caneta</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B386, ""en"", ""pt"")"),"pessoa")</f>
+        <v>pessoa</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11348,11 +11331,11 @@
         <v>732</v>
       </c>
       <c r="C385" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="D385" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B385, ""en"", ""pt"")"),"lápis")</f>
-        <v>lápis</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B387, ""en"", ""pt"")"),"telefone")</f>
+        <v>telefone</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11363,11 +11346,11 @@
         <v>734</v>
       </c>
       <c r="C386" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="D386" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B386, ""en"", ""pt"")"),"pessoa")</f>
-        <v>pessoa</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B388, ""en"", ""pt"")"),"fotografia")</f>
+        <v>fotografia</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11378,11 +11361,11 @@
         <v>736</v>
       </c>
       <c r="C387" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="D387" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B387, ""en"", ""pt"")"),"telefone")</f>
-        <v>telefone</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B389, ""en"", ""pt"")"),"peça")</f>
+        <v>peça</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11393,11 +11376,11 @@
         <v>738</v>
       </c>
       <c r="C388" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="D388" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B388, ""en"", ""pt"")"),"fotografia")</f>
-        <v>fotografia</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B390, ""en"", ""pt"")"),"porco")</f>
+        <v>porco</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11408,11 +11391,11 @@
         <v>740</v>
       </c>
       <c r="C389" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="D389" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B389, ""en"", ""pt"")"),"peça")</f>
-        <v>peça</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B391, ""en"", ""pt"")"),"Rosa")</f>
+        <v>Rosa</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11423,11 +11406,11 @@
         <v>742</v>
       </c>
       <c r="C390" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="D390" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B390, ""en"", ""pt"")"),"porco")</f>
-        <v>porco</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B392, ""en"", ""pt"")"),"avião")</f>
+        <v>avião</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11438,11 +11421,11 @@
         <v>744</v>
       </c>
       <c r="C391" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="D391" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B391, ""en"", ""pt"")"),"Rosa")</f>
-        <v>Rosa</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B393, ""en"", ""pt"")"),"plantar")</f>
+        <v>plantar</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11453,11 +11436,11 @@
         <v>746</v>
       </c>
       <c r="C392" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="D392" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B392, ""en"", ""pt"")"),"avião")</f>
-        <v>avião</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B394, ""en"", ""pt"")"),"plástico")</f>
+        <v>plástico</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11468,11 +11451,11 @@
         <v>748</v>
       </c>
       <c r="C393" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D393" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B393, ""en"", ""pt"")"),"plantar")</f>
-        <v>plantar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B395, ""en"", ""pt"")"),"prato")</f>
+        <v>prato</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11483,11 +11466,11 @@
         <v>750</v>
       </c>
       <c r="C394" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="D394" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B394, ""en"", ""pt"")"),"plástico")</f>
-        <v>plástico</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B396, ""en"", ""pt"")"),"Toque")</f>
+        <v>Toque</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11498,11 +11481,11 @@
         <v>752</v>
       </c>
       <c r="C395" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="D395" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B395, ""en"", ""pt"")"),"prato")</f>
-        <v>prato</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B397, ""en"", ""pt"")"),"jogador")</f>
+        <v>jogador</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11513,11 +11496,11 @@
         <v>754</v>
       </c>
       <c r="C396" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D396" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B396, ""en"", ""pt"")"),"Toque")</f>
-        <v>Toque</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B398, ""en"", ""pt"")"),"bolso")</f>
+        <v>bolso</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11528,11 +11511,11 @@
         <v>756</v>
       </c>
       <c r="C397" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="D397" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B397, ""en"", ""pt"")"),"jogador")</f>
-        <v>jogador</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B399, ""en"", ""pt"")"),"Poção")</f>
+        <v>Poção</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11543,11 +11526,11 @@
         <v>758</v>
       </c>
       <c r="C398" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="D398" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B398, ""en"", ""pt"")"),"bolso")</f>
-        <v>bolso</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B400, ""en"", ""pt"")"),"polícia")</f>
+        <v>polícia</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11558,11 +11541,11 @@
         <v>760</v>
       </c>
       <c r="C399" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="D399" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B399, ""en"", ""pt"")"),"Poção")</f>
-        <v>Poção</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B401, ""en"", ""pt"")"),"piscina")</f>
+        <v>piscina</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11573,11 +11556,11 @@
         <v>762</v>
       </c>
       <c r="C400" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="D400" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B400, ""en"", ""pt"")"),"polícia")</f>
-        <v>polícia</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B402, ""en"", ""pt"")"),"pobre")</f>
+        <v>pobre</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11588,11 +11571,11 @@
         <v>764</v>
       </c>
       <c r="C401" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D401" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B401, ""en"", ""pt"")"),"piscina")</f>
-        <v>piscina</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B403, ""en"", ""pt"")"),"carne de porco")</f>
+        <v>carne de porco</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11603,11 +11586,11 @@
         <v>766</v>
       </c>
       <c r="C402" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="D402" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B402, ""en"", ""pt"")"),"pobre")</f>
-        <v>pobre</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B404, ""en"", ""pt"")"),"libra")</f>
+        <v>libra</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11618,11 +11601,11 @@
         <v>768</v>
       </c>
       <c r="C403" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="D403" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B403, ""en"", ""pt"")"),"carne de porco")</f>
-        <v>carne de porco</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B405, ""en"", ""pt"")"),"orar")</f>
+        <v>orar</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11633,11 +11616,11 @@
         <v>770</v>
       </c>
       <c r="C404" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="D404" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B404, ""en"", ""pt"")"),"libra")</f>
-        <v>libra</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B406, ""en"", ""pt"")"),"Presidente")</f>
+        <v>Presidente</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11648,11 +11631,11 @@
         <v>772</v>
       </c>
       <c r="C405" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="D405" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B405, ""en"", ""pt"")"),"orar")</f>
-        <v>orar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B407, ""en"", ""pt"")"),"preço")</f>
+        <v>preço</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11663,11 +11646,11 @@
         <v>774</v>
       </c>
       <c r="C406" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="D406" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B406, ""en"", ""pt"")"),"Presidente")</f>
-        <v>Presidente</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B408, ""en"", ""pt"")"),"sacerdote")</f>
+        <v>sacerdote</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11678,11 +11661,11 @@
         <v>776</v>
       </c>
       <c r="C407" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D407" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B407, ""en"", ""pt"")"),"preço")</f>
-        <v>preço</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B409, ""en"", ""pt"")"),"prisão")</f>
+        <v>prisão</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11693,11 +11676,11 @@
         <v>778</v>
       </c>
       <c r="C408" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="D408" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B408, ""en"", ""pt"")"),"sacerdote")</f>
-        <v>sacerdote</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B410, ""en"", ""pt"")"),"programa")</f>
+        <v>programa</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11708,11 +11691,11 @@
         <v>780</v>
       </c>
       <c r="C409" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="D409" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B409, ""en"", ""pt"")"),"prisão")</f>
-        <v>prisão</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B411, ""en"", ""pt"")"),"puxar")</f>
+        <v>puxar</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11723,11 +11706,11 @@
         <v>782</v>
       </c>
       <c r="C410" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="D410" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B410, ""en"", ""pt"")"),"programa")</f>
-        <v>programa</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B412, ""en"", ""pt"")"),"empurrar")</f>
+        <v>empurrar</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11738,11 +11721,11 @@
         <v>784</v>
       </c>
       <c r="C411" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D411" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B411, ""en"", ""pt"")"),"puxar")</f>
-        <v>puxar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B413, ""en"", ""pt"")"),"rainha")</f>
+        <v>rainha</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11753,11 +11736,11 @@
         <v>786</v>
       </c>
       <c r="C412" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="D412" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B412, ""en"", ""pt"")"),"empurrar")</f>
-        <v>empurrar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B414, ""en"", ""pt"")"),"quieto")</f>
+        <v>quieto</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11768,41 +11751,41 @@
         <v>788</v>
       </c>
       <c r="C413" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="D413" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B413, ""en"", ""pt"")"),"rainha")</f>
-        <v>rainha</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B415, ""en"", ""pt"")"),"raça")</f>
+        <v>raça</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B414" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C414" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="D414" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B414, ""en"", ""pt"")"),"quieto")</f>
-        <v>quieto</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B416, ""en"", ""pt"")"),"raça")</f>
+        <v>raça</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B415" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C415" t="s">
-        <v>1553</v>
+        <v>790</v>
       </c>
       <c r="D415" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B415, ""en"", ""pt"")"),"raça")</f>
-        <v>raça</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B417, ""en"", ""pt"")"),"rádio")</f>
+        <v>rádio</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11813,11 +11796,11 @@
         <v>792</v>
       </c>
       <c r="C416" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="D416" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B416, ""en"", ""pt"")"),"raça")</f>
-        <v>raça</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B418, ""en"", ""pt"")"),"chuva")</f>
+        <v>chuva</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11828,11 +11811,11 @@
         <v>794</v>
       </c>
       <c r="C417" t="s">
-        <v>794</v>
+        <v>1549</v>
       </c>
       <c r="D417" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B417, ""en"", ""pt"")"),"rádio")</f>
-        <v>rádio</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B419, ""en"", ""pt"")"),"vermelho")</f>
+        <v>vermelho</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11843,11 +11826,11 @@
         <v>796</v>
       </c>
       <c r="C418" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D418" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B418, ""en"", ""pt"")"),"chuva")</f>
-        <v>chuva</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B420, ""en"", ""pt"")"),"religião")</f>
+        <v>religião</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11858,11 +11841,11 @@
         <v>798</v>
       </c>
       <c r="C419" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="D419" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B419, ""en"", ""pt"")"),"vermelho")</f>
-        <v>vermelho</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B421, ""en"", ""pt"")"),"repórter")</f>
+        <v>repórter</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11873,11 +11856,11 @@
         <v>800</v>
       </c>
       <c r="C420" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="D420" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B420, ""en"", ""pt"")"),"religião")</f>
-        <v>religião</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B422, ""en"", ""pt"")"),"restaurante")</f>
+        <v>restaurante</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11888,11 +11871,11 @@
         <v>802</v>
       </c>
       <c r="C421" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="D421" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B421, ""en"", ""pt"")"),"repórter")</f>
-        <v>repórter</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B423, ""en"", ""pt"")"),"arroz")</f>
+        <v>arroz</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11903,11 +11886,11 @@
         <v>804</v>
       </c>
       <c r="C422" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="D422" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B422, ""en"", ""pt"")"),"restaurante")</f>
-        <v>restaurante</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B424, ""en"", ""pt"")"),"rico")</f>
+        <v>rico</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11918,11 +11901,11 @@
         <v>806</v>
       </c>
       <c r="C423" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="D423" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B423, ""en"", ""pt"")"),"arroz")</f>
-        <v>arroz</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B425, ""en"", ""pt"")"),"direito")</f>
+        <v>direito</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11933,11 +11916,11 @@
         <v>808</v>
       </c>
       <c r="C424" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="D424" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B424, ""en"", ""pt"")"),"rico")</f>
-        <v>rico</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B426, ""en"", ""pt"")"),"anel")</f>
+        <v>anel</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11948,26 +11931,25 @@
         <v>810</v>
       </c>
       <c r="C425" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="D425" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B425, ""en"", ""pt"")"),"direito")</f>
-        <v>direito</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B427, ""en"", ""pt"")"),"rio")</f>
+        <v>rio</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="A426" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="C426" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D426" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B426, ""en"", ""pt"")"),"anel")</f>
-        <v>anel</v>
+      <c r="C426" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>1755</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11978,11 +11960,11 @@
         <v>814</v>
       </c>
       <c r="C427" t="s">
-        <v>1563</v>
+        <v>1239</v>
       </c>
       <c r="D427" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B427, ""en"", ""pt"")"),"rio")</f>
-        <v>rio</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B429, ""en"", ""pt"")"),"cobertura")</f>
+        <v>cobertura</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11993,11 +11975,11 @@
         <v>816</v>
       </c>
       <c r="C428" t="s">
-        <v>1564</v>
+        <v>1196</v>
       </c>
       <c r="D428" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B428, ""en"", ""pt"")"),"estrada")</f>
-        <v>estrada</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B430, ""en"", ""pt"")"),"quarto")</f>
+        <v>quarto</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12008,11 +11990,11 @@
         <v>818</v>
       </c>
       <c r="C429" t="s">
-        <v>1245</v>
+        <v>1558</v>
       </c>
       <c r="D429" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B429, ""en"", ""pt"")"),"cobertura")</f>
-        <v>cobertura</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B431, ""en"", ""pt"")"),"raiz")</f>
+        <v>raiz</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12023,11 +12005,11 @@
         <v>820</v>
       </c>
       <c r="C430" t="s">
-        <v>1202</v>
+        <v>1559</v>
       </c>
       <c r="D430" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B430, ""en"", ""pt"")"),"quarto")</f>
-        <v>quarto</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B432, ""en"", ""pt"")"),"corre")</f>
+        <v>corre</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12038,11 +12020,11 @@
         <v>822</v>
       </c>
       <c r="C431" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="D431" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B431, ""en"", ""pt"")"),"raiz")</f>
-        <v>raiz</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B433, ""en"", ""pt"")"),"triste")</f>
+        <v>triste</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12053,11 +12035,11 @@
         <v>824</v>
       </c>
       <c r="C432" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="D432" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B432, ""en"", ""pt"")"),"corre")</f>
-        <v>corre</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B434, ""en"", ""pt"")"),"sal")</f>
+        <v>sal</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12068,11 +12050,11 @@
         <v>826</v>
       </c>
       <c r="C433" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="D433" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B433, ""en"", ""pt"")"),"triste")</f>
-        <v>triste</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B435, ""en"", ""pt"")"),"areia")</f>
+        <v>areia</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12083,11 +12065,11 @@
         <v>828</v>
       </c>
       <c r="C434" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="D434" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B434, ""en"", ""pt"")"),"sal")</f>
-        <v>sal</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B436, ""en"", ""pt"")"),"sábado")</f>
+        <v>sábado</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12098,11 +12080,11 @@
         <v>830</v>
       </c>
       <c r="C435" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="D435" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B435, ""en"", ""pt"")"),"areia")</f>
-        <v>areia</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B437, ""en"", ""pt"")"),"dizer")</f>
+        <v>dizer</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12113,11 +12095,11 @@
         <v>832</v>
       </c>
       <c r="C436" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="D436" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B436, ""en"", ""pt"")"),"sábado")</f>
-        <v>sábado</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B438, ""en"", ""pt"")"),"escola")</f>
+        <v>escola</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12128,11 +12110,11 @@
         <v>834</v>
       </c>
       <c r="C437" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="D437" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B437, ""en"", ""pt"")"),"dizer")</f>
-        <v>dizer</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B439, ""en"", ""pt"")"),"Ciência")</f>
+        <v>Ciência</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12143,11 +12125,11 @@
         <v>836</v>
       </c>
       <c r="C438" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="D438" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B438, ""en"", ""pt"")"),"escola")</f>
-        <v>escola</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B440, ""en"", ""pt"")"),"tela")</f>
+        <v>tela</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12158,11 +12140,11 @@
         <v>838</v>
       </c>
       <c r="C439" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="D439" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B439, ""en"", ""pt"")"),"Ciência")</f>
-        <v>Ciência</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B441, ""en"", ""pt"")"),"mar")</f>
+        <v>mar</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12173,11 +12155,11 @@
         <v>840</v>
       </c>
       <c r="C440" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="D440" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B440, ""en"", ""pt"")"),"tela")</f>
-        <v>tela</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B442, ""en"", ""pt"")"),"temporada")</f>
+        <v>temporada</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12188,41 +12170,41 @@
         <v>842</v>
       </c>
       <c r="C441" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="D441" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B441, ""en"", ""pt"")"),"mar")</f>
-        <v>mar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B443, ""en"", ""pt"")"),"segundo")</f>
+        <v>segundo</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B442" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C442" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="D442" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B442, ""en"", ""pt"")"),"temporada")</f>
-        <v>temporada</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B444, ""en"", ""pt"")"),"segundo")</f>
+        <v>segundo</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B443" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C443" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="D443" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B443, ""en"", ""pt"")"),"segundo")</f>
-        <v>segundo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B445, ""en"", ""pt"")"),"secretário")</f>
+        <v>secretário</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12233,11 +12215,11 @@
         <v>846</v>
       </c>
       <c r="C444" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="D444" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B444, ""en"", ""pt"")"),"segundo")</f>
-        <v>segundo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B446, ""en"", ""pt"")"),"Vejo")</f>
+        <v>Vejo</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12248,11 +12230,11 @@
         <v>848</v>
       </c>
       <c r="C445" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="D445" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B445, ""en"", ""pt"")"),"secretário")</f>
-        <v>secretário</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B447, ""en"", ""pt"")"),"semente")</f>
+        <v>semente</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12263,56 +12245,56 @@
         <v>850</v>
       </c>
       <c r="C446" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="D446" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B446, ""en"", ""pt"")"),"Vejo")</f>
-        <v>Vejo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B448, ""en"", ""pt"")"),"vender")</f>
+        <v>vender</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+      <c r="A447" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B447" t="s">
         <v>851</v>
       </c>
-      <c r="B447" t="s">
-        <v>852</v>
-      </c>
       <c r="C447" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="D447" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B447, ""en"", ""pt"")"),"semente")</f>
-        <v>semente</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B449, ""en"", ""pt"")"),"setembro")</f>
+        <v>setembro</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>852</v>
+      </c>
+      <c r="B448" t="s">
         <v>853</v>
       </c>
-      <c r="B448" t="s">
+      <c r="C448" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D448" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B450, ""en"", ""pt"")"),"Sete")</f>
+        <v>Sete</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
         <v>854</v>
-      </c>
-      <c r="C448" t="s">
-        <v>1581</v>
-      </c>
-      <c r="D448" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B448, ""en"", ""pt"")"),"vender")</f>
-        <v>vender</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
-        <v>1749</v>
       </c>
       <c r="B449" t="s">
         <v>855</v>
       </c>
       <c r="C449" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="D449" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B449, ""en"", ""pt"")"),"setembro")</f>
-        <v>setembro</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B451, ""en"", ""pt"")"),"dezessete")</f>
+        <v>dezessete</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12323,11 +12305,11 @@
         <v>857</v>
       </c>
       <c r="C450" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="D450" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B450, ""en"", ""pt"")"),"Sete")</f>
-        <v>Sete</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B452, ""en"", ""pt"")"),"setenta")</f>
+        <v>setenta</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12338,41 +12320,41 @@
         <v>859</v>
       </c>
       <c r="C451" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="D451" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B451, ""en"", ""pt"")"),"dezessete")</f>
-        <v>dezessete</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B453, ""en"", ""pt"")"),"sexo")</f>
+        <v>sexo</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B452" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C452" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="D452" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B452, ""en"", ""pt"")"),"setenta")</f>
-        <v>setenta</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B454, ""en"", ""pt"")"),"sexo")</f>
+        <v>sexo</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B453" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C453" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="D453" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B453, ""en"", ""pt"")"),"sexo")</f>
-        <v>sexo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B455, ""en"", ""pt"")"),"mexe")</f>
+        <v>mexe</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12383,11 +12365,11 @@
         <v>863</v>
       </c>
       <c r="C454" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="D454" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B454, ""en"", ""pt"")"),"sexo")</f>
-        <v>sexo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B456, ""en"", ""pt"")"),"raso")</f>
+        <v>raso</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12398,11 +12380,11 @@
         <v>865</v>
       </c>
       <c r="C455" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="D455" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B455, ""en"", ""pt"")"),"mexe")</f>
-        <v>mexe</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B457, ""en"", ""pt"")"),"ela")</f>
+        <v>ela</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12413,11 +12395,11 @@
         <v>867</v>
       </c>
       <c r="C456" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="D456" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B456, ""en"", ""pt"")"),"raso")</f>
-        <v>raso</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B458, ""en"", ""pt"")"),"navio")</f>
+        <v>navio</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12428,11 +12410,11 @@
         <v>869</v>
       </c>
       <c r="C457" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="D457" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B457, ""en"", ""pt"")"),"ela")</f>
-        <v>ela</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B459, ""en"", ""pt"")"),"camisa")</f>
+        <v>camisa</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12443,11 +12425,11 @@
         <v>871</v>
       </c>
       <c r="C458" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="D458" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B458, ""en"", ""pt"")"),"navio")</f>
-        <v>navio</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B460, ""en"", ""pt"")"),"sapatos")</f>
+        <v>sapatos</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12458,11 +12440,11 @@
         <v>873</v>
       </c>
       <c r="C459" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="D459" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B459, ""en"", ""pt"")"),"camisa")</f>
-        <v>camisa</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B461, ""en"", ""pt"")"),"shoot")</f>
+        <v>shoot</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12473,56 +12455,56 @@
         <v>875</v>
       </c>
       <c r="C460" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="D460" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B460, ""en"", ""pt"")"),"sapatos")</f>
-        <v>sapatos</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B463, ""en"", ""pt"")"),"curto")</f>
+        <v>curto</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B461" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C461" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="D461" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B461, ""en"", ""pt"")"),"shoot")</f>
-        <v>shoot</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B464, ""en"", ""pt"")"),"curto")</f>
+        <v>curto</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B462" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C462" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="D462" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B462, ""en"", ""pt"")"),"fazer compras")</f>
-        <v>fazer compras</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B465, ""en"", ""pt"")"),"ombro")</f>
+        <v>ombro</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B463" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C463" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="D463" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B463, ""en"", ""pt"")"),"curto")</f>
-        <v>curto</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B466, ""en"", ""pt"")"),"doente")</f>
+        <v>doente</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12533,11 +12515,11 @@
         <v>881</v>
       </c>
       <c r="C464" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="D464" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B464, ""en"", ""pt"")"),"curto")</f>
-        <v>curto</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B467, ""en"", ""pt"")"),"lado")</f>
+        <v>lado</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12548,56 +12530,56 @@
         <v>883</v>
       </c>
       <c r="C465" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="D465" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B465, ""en"", ""pt"")"),"ombro")</f>
-        <v>ombro</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B468, ""en"", ""pt"")"),"placa")</f>
+        <v>placa</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B466" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C466" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="D466" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B466, ""en"", ""pt"")"),"doente")</f>
-        <v>doente</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B469, ""en"", ""pt"")"),"placa")</f>
+        <v>placa</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B467" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C467" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="D467" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B467, ""en"", ""pt"")"),"lado")</f>
-        <v>lado</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B470, ""en"", ""pt"")"),"prata")</f>
+        <v>prata</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B468" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C468" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="D468" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B468, ""en"", ""pt"")"),"placa")</f>
-        <v>placa</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B471, ""en"", ""pt"")"),"cantar")</f>
+        <v>cantar</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12608,11 +12590,11 @@
         <v>889</v>
       </c>
       <c r="C469" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="D469" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B469, ""en"", ""pt"")"),"placa")</f>
-        <v>placa</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B472, ""en"", ""pt"")"),"irmã")</f>
+        <v>irmã</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12623,11 +12605,11 @@
         <v>891</v>
       </c>
       <c r="C470" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="D470" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B470, ""en"", ""pt"")"),"prata")</f>
-        <v>prata</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B473, ""en"", ""pt"")"),"sentar")</f>
+        <v>sentar</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12638,11 +12620,11 @@
         <v>893</v>
       </c>
       <c r="C471" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="D471" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B471, ""en"", ""pt"")"),"cantar")</f>
-        <v>cantar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B474, ""en"", ""pt"")"),"seis")</f>
+        <v>seis</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12653,11 +12635,11 @@
         <v>895</v>
       </c>
       <c r="C472" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="D472" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B472, ""en"", ""pt"")"),"irmã")</f>
-        <v>irmã</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B475, ""en"", ""pt"")"),"dezesseis")</f>
+        <v>dezesseis</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12668,11 +12650,11 @@
         <v>897</v>
       </c>
       <c r="C473" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="D473" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B473, ""en"", ""pt"")"),"sentar")</f>
-        <v>sentar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B476, ""en"", ""pt"")"),"sessenta")</f>
+        <v>sessenta</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12683,11 +12665,11 @@
         <v>899</v>
       </c>
       <c r="C474" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="D474" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B474, ""en"", ""pt"")"),"seis")</f>
-        <v>seis</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B477, ""en"", ""pt"")"),"pele")</f>
+        <v>pele</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12698,11 +12680,11 @@
         <v>901</v>
       </c>
       <c r="C475" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D475" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B475, ""en"", ""pt"")"),"dezesseis")</f>
-        <v>dezesseis</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B478, ""en"", ""pt"")"),"saia")</f>
+        <v>saia</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12713,11 +12695,11 @@
         <v>903</v>
       </c>
       <c r="C476" t="s">
-        <v>1606</v>
+        <v>1390</v>
       </c>
       <c r="D476" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B476, ""en"", ""pt"")"),"sessenta")</f>
-        <v>sessenta</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B479, ""en"", ""pt"")"),"céu")</f>
+        <v>céu</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12728,11 +12710,11 @@
         <v>905</v>
       </c>
       <c r="C477" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="D477" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B477, ""en"", ""pt"")"),"pele")</f>
-        <v>pele</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B480, ""en"", ""pt"")"),"dormir")</f>
+        <v>dormir</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12743,11 +12725,11 @@
         <v>907</v>
       </c>
       <c r="C478" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="D478" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B478, ""en"", ""pt"")"),"saia")</f>
-        <v>saia</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B481, ""en"", ""pt"")"),"lento")</f>
+        <v>lento</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12758,11 +12740,11 @@
         <v>909</v>
       </c>
       <c r="C479" t="s">
-        <v>1396</v>
+        <v>1441</v>
       </c>
       <c r="D479" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B479, ""en"", ""pt"")"),"céu")</f>
-        <v>céu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B482, ""en"", ""pt"")"),"pequeno")</f>
+        <v>pequeno</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12773,11 +12755,11 @@
         <v>911</v>
       </c>
       <c r="C480" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="D480" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B480, ""en"", ""pt"")"),"dormir")</f>
-        <v>dormir</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B483, ""en"", ""pt"")"),"cheiro")</f>
+        <v>cheiro</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12788,11 +12770,11 @@
         <v>913</v>
       </c>
       <c r="C481" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="D481" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B481, ""en"", ""pt"")"),"lento")</f>
-        <v>lento</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B484, ""en"", ""pt"")"),"sorrir")</f>
+        <v>sorrir</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12803,11 +12785,11 @@
         <v>915</v>
       </c>
       <c r="C482" t="s">
-        <v>1447</v>
+        <v>1605</v>
       </c>
       <c r="D482" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B482, ""en"", ""pt"")"),"pequeno")</f>
-        <v>pequeno</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B485, ""en"", ""pt"")"),"neve")</f>
+        <v>neve</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12818,11 +12800,11 @@
         <v>917</v>
       </c>
       <c r="C483" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="D483" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B483, ""en"", ""pt"")"),"cheiro")</f>
-        <v>cheiro</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B486, ""en"", ""pt"")"),"Sabonete")</f>
+        <v>Sabonete</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12833,11 +12815,11 @@
         <v>919</v>
       </c>
       <c r="C484" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="D484" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B484, ""en"", ""pt"")"),"sorrir")</f>
-        <v>sorrir</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B487, ""en"", ""pt"")"),"suave")</f>
+        <v>suave</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12848,11 +12830,11 @@
         <v>921</v>
       </c>
       <c r="C485" t="s">
-        <v>1613</v>
+        <v>1345</v>
       </c>
       <c r="D485" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B485, ""en"", ""pt"")"),"neve")</f>
-        <v>neve</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B488, ""en"", ""pt"")"),"solo")</f>
+        <v>solo</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12863,11 +12845,11 @@
         <v>923</v>
       </c>
       <c r="C486" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="D486" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B486, ""en"", ""pt"")"),"Sabonete")</f>
-        <v>Sabonete</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B489, ""en"", ""pt"")"),"soldado")</f>
+        <v>soldado</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12878,11 +12860,11 @@
         <v>925</v>
       </c>
       <c r="C487" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="D487" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B487, ""en"", ""pt"")"),"suave")</f>
-        <v>suave</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B490, ""en"", ""pt"")"),"filho")</f>
+        <v>filho</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12893,11 +12875,11 @@
         <v>927</v>
       </c>
       <c r="C488" t="s">
-        <v>1351</v>
+        <v>1610</v>
       </c>
       <c r="D488" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B488, ""en"", ""pt"")"),"solo")</f>
-        <v>solo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B491, ""en"", ""pt"")"),"canção")</f>
+        <v>canção</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12908,11 +12890,11 @@
         <v>929</v>
       </c>
       <c r="C489" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="D489" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B489, ""en"", ""pt"")"),"soldado")</f>
-        <v>soldado</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B492, ""en"", ""pt"")"),"som")</f>
+        <v>som</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12923,11 +12905,11 @@
         <v>931</v>
       </c>
       <c r="C490" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="D490" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B490, ""en"", ""pt"")"),"filho")</f>
-        <v>filho</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B493, ""en"", ""pt"")"),"sopa")</f>
+        <v>sopa</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12938,11 +12920,11 @@
         <v>933</v>
       </c>
       <c r="C491" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="D491" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B491, ""en"", ""pt"")"),"canção")</f>
-        <v>canção</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B494, ""en"", ""pt"")"),"sul")</f>
+        <v>sul</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12953,11 +12935,11 @@
         <v>935</v>
       </c>
       <c r="C492" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="D492" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B492, ""en"", ""pt"")"),"som")</f>
-        <v>som</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B495, ""en"", ""pt"")"),"espaço")</f>
+        <v>espaço</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12968,11 +12950,11 @@
         <v>937</v>
       </c>
       <c r="C493" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="D493" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B493, ""en"", ""pt"")"),"sopa")</f>
-        <v>sopa</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B496, ""en"", ""pt"")"),"falar")</f>
+        <v>falar</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12983,11 +12965,11 @@
         <v>939</v>
       </c>
       <c r="C494" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="D494" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B494, ""en"", ""pt"")"),"sul")</f>
-        <v>sul</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B497, ""en"", ""pt"")"),"colher")</f>
+        <v>colher</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12998,11 +12980,11 @@
         <v>941</v>
       </c>
       <c r="C495" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="D495" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B495, ""en"", ""pt"")"),"espaço")</f>
-        <v>espaço</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B498, ""en"", ""pt"")"),"esporte")</f>
+        <v>esporte</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13013,11 +12995,11 @@
         <v>943</v>
       </c>
       <c r="C496" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="D496" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B496, ""en"", ""pt"")"),"falar")</f>
-        <v>falar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B499, ""en"", ""pt"")"),"Primavera")</f>
+        <v>Primavera</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13028,11 +13010,11 @@
         <v>945</v>
       </c>
       <c r="C497" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="D497" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B497, ""en"", ""pt"")"),"colher")</f>
-        <v>colher</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B500, ""en"", ""pt"")"),"quadrado")</f>
+        <v>quadrado</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13043,11 +13025,11 @@
         <v>947</v>
       </c>
       <c r="C498" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="D498" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B498, ""en"", ""pt"")"),"esporte")</f>
-        <v>esporte</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B501, ""en"", ""pt"")"),"mancha")</f>
+        <v>mancha</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13058,11 +13040,11 @@
         <v>949</v>
       </c>
       <c r="C499" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="D499" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B499, ""en"", ""pt"")"),"Primavera")</f>
-        <v>Primavera</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B502, ""en"", ""pt"")"),"ficar de pé")</f>
+        <v>ficar de pé</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13073,11 +13055,11 @@
         <v>951</v>
       </c>
       <c r="C500" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="D500" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B500, ""en"", ""pt"")"),"quadrado")</f>
-        <v>quadrado</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B503, ""en"", ""pt"")"),"Estrela")</f>
+        <v>Estrela</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13088,11 +13070,11 @@
         <v>953</v>
       </c>
       <c r="C501" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="D501" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B501, ""en"", ""pt"")"),"mancha")</f>
-        <v>mancha</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B504, ""en"", ""pt"")"),"estação")</f>
+        <v>estação</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13103,11 +13085,11 @@
         <v>955</v>
       </c>
       <c r="C502" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="D502" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B502, ""en"", ""pt"")"),"ficar de pé")</f>
-        <v>ficar de pé</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B505, ""en"", ""pt"")"),"mexer")</f>
+        <v>mexer</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13118,11 +13100,11 @@
         <v>957</v>
       </c>
       <c r="C503" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="D503" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B503, ""en"", ""pt"")"),"Estrela")</f>
-        <v>Estrela</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B506, ""en"", ""pt"")"),"pedra")</f>
+        <v>pedra</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13133,11 +13115,11 @@
         <v>959</v>
       </c>
       <c r="C504" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="D504" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B504, ""en"", ""pt"")"),"estação")</f>
-        <v>estação</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B507, ""en"", ""pt"")"),"Pare")</f>
+        <v>Pare</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13148,11 +13130,11 @@
         <v>961</v>
       </c>
       <c r="C505" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="D505" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B505, ""en"", ""pt"")"),"mexer")</f>
-        <v>mexer</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B508, ""en"", ""pt"")"),"loja")</f>
+        <v>loja</v>
       </c>
     </row>
     <row r="506" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13163,11 +13145,11 @@
         <v>963</v>
       </c>
       <c r="C506" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="D506" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B506, ""en"", ""pt"")"),"pedra")</f>
-        <v>pedra</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B509, ""en"", ""pt"")"),"direto")</f>
+        <v>direto</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13178,11 +13160,11 @@
         <v>965</v>
       </c>
       <c r="C507" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="D507" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B507, ""en"", ""pt"")"),"Pare")</f>
-        <v>Pare</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B510, ""en"", ""pt"")"),"rua")</f>
+        <v>rua</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13193,11 +13175,11 @@
         <v>967</v>
       </c>
       <c r="C508" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="D508" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B508, ""en"", ""pt"")"),"loja")</f>
-        <v>loja</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B511, ""en"", ""pt"")"),"Forte")</f>
+        <v>Forte</v>
       </c>
     </row>
     <row r="509" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13208,11 +13190,11 @@
         <v>969</v>
       </c>
       <c r="C509" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="D509" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B509, ""en"", ""pt"")"),"direto")</f>
-        <v>direto</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B512, ""en"", ""pt"")"),"aluna")</f>
+        <v>aluna</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13223,11 +13205,11 @@
         <v>971</v>
       </c>
       <c r="C510" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="D510" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B510, ""en"", ""pt"")"),"rua")</f>
-        <v>rua</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B513, ""en"", ""pt"")"),"açúcar")</f>
+        <v>açúcar</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13238,11 +13220,11 @@
         <v>973</v>
       </c>
       <c r="C511" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="D511" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B511, ""en"", ""pt"")"),"Forte")</f>
-        <v>Forte</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B514, ""en"", ""pt"")"),"terno")</f>
+        <v>terno</v>
       </c>
     </row>
     <row r="512" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13253,11 +13235,11 @@
         <v>975</v>
       </c>
       <c r="C512" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="D512" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B512, ""en"", ""pt"")"),"aluna")</f>
-        <v>aluna</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B515, ""en"", ""pt"")"),"verão")</f>
+        <v>verão</v>
       </c>
     </row>
     <row r="513" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13268,11 +13250,11 @@
         <v>977</v>
       </c>
       <c r="C513" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="D513" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B513, ""en"", ""pt"")"),"açúcar")</f>
-        <v>açúcar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B516, ""en"", ""pt"")"),"Sol")</f>
+        <v>Sol</v>
       </c>
     </row>
     <row r="514" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13283,11 +13265,11 @@
         <v>979</v>
       </c>
       <c r="C514" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="D514" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B514, ""en"", ""pt"")"),"terno")</f>
-        <v>terno</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B517, ""en"", ""pt"")"),"Domigo")</f>
+        <v>Domigo</v>
       </c>
     </row>
     <row r="515" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13298,11 +13280,11 @@
         <v>981</v>
       </c>
       <c r="C515" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="D515" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B515, ""en"", ""pt"")"),"verão")</f>
-        <v>verão</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B518, ""en"", ""pt"")"),"suor")</f>
+        <v>suor</v>
       </c>
     </row>
     <row r="516" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13313,71 +13295,71 @@
         <v>983</v>
       </c>
       <c r="C516" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="D516" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B516, ""en"", ""pt"")"),"Sol")</f>
-        <v>Sol</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B519, ""en"", ""pt"")"),"nadar")</f>
+        <v>nadar</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
+      <c r="A517" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B517" t="s">
         <v>984</v>
       </c>
-      <c r="B517" t="s">
-        <v>985</v>
-      </c>
       <c r="C517" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="D517" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B517, ""en"", ""pt"")"),"Domigo")</f>
-        <v>Domigo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B520, ""en"", ""pt"")"),"camiseta")</f>
+        <v>camiseta</v>
       </c>
     </row>
     <row r="518" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
+        <v>985</v>
+      </c>
+      <c r="B518" t="s">
         <v>986</v>
       </c>
-      <c r="B518" t="s">
-        <v>987</v>
-      </c>
       <c r="C518" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="D518" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B518, ""en"", ""pt"")"),"suor")</f>
-        <v>suor</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B521, ""en"", ""pt"")"),"tabela")</f>
+        <v>tabela</v>
       </c>
     </row>
     <row r="519" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
+        <v>987</v>
+      </c>
+      <c r="B519" t="s">
         <v>988</v>
       </c>
-      <c r="B519" t="s">
+      <c r="C519" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D519" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B522, ""en"", ""pt"")"),"alta")</f>
+        <v>alta</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
         <v>989</v>
-      </c>
-      <c r="C519" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D519" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B519, ""en"", ""pt"")"),"nadar")</f>
-        <v>nadar</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A520" s="1" t="s">
-        <v>1750</v>
       </c>
       <c r="B520" t="s">
         <v>990</v>
       </c>
       <c r="C520" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="D520" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B520, ""en"", ""pt"")"),"camiseta")</f>
-        <v>camiseta</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B523, ""en"", ""pt"")"),"gosto")</f>
+        <v>gosto</v>
       </c>
     </row>
     <row r="521" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13388,11 +13370,11 @@
         <v>992</v>
       </c>
       <c r="C521" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="D521" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B521, ""en"", ""pt"")"),"tabela")</f>
-        <v>tabela</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B524, ""en"", ""pt"")"),"chá")</f>
+        <v>chá</v>
       </c>
     </row>
     <row r="522" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13403,11 +13385,11 @@
         <v>994</v>
       </c>
       <c r="C522" t="s">
-        <v>1399</v>
+        <v>1643</v>
       </c>
       <c r="D522" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B522, ""en"", ""pt"")"),"alta")</f>
-        <v>alta</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B525, ""en"", ""pt"")"),"Ensinar")</f>
+        <v>Ensinar</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13418,11 +13400,11 @@
         <v>996</v>
       </c>
       <c r="C523" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="D523" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B523, ""en"", ""pt"")"),"gosto")</f>
-        <v>gosto</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B526, ""en"", ""pt"")"),"professor")</f>
+        <v>professor</v>
       </c>
     </row>
     <row r="524" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13433,11 +13415,11 @@
         <v>998</v>
       </c>
       <c r="C524" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="D524" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B524, ""en"", ""pt"")"),"chá")</f>
-        <v>chá</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B527, ""en"", ""pt"")"),"equipe")</f>
+        <v>equipe</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13448,11 +13430,11 @@
         <v>1000</v>
       </c>
       <c r="C525" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="D525" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B525, ""en"", ""pt"")"),"Ensinar")</f>
-        <v>Ensinar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B528, ""en"", ""pt"")"),"lágrima")</f>
+        <v>lágrima</v>
       </c>
     </row>
     <row r="526" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13463,11 +13445,11 @@
         <v>1002</v>
       </c>
       <c r="C526" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="D526" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B526, ""en"", ""pt"")"),"professor")</f>
-        <v>professor</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B529, ""en"", ""pt"")"),"tecnologia")</f>
+        <v>tecnologia</v>
       </c>
     </row>
     <row r="527" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13478,11 +13460,11 @@
         <v>1004</v>
       </c>
       <c r="C527" t="s">
-        <v>1653</v>
+        <v>1519</v>
       </c>
       <c r="D527" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B527, ""en"", ""pt"")"),"equipe")</f>
-        <v>equipe</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B530, ""en"", ""pt"")"),"Telefone")</f>
+        <v>Telefone</v>
       </c>
     </row>
     <row r="528" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13493,11 +13475,11 @@
         <v>1006</v>
       </c>
       <c r="C528" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="D528" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B528, ""en"", ""pt"")"),"lágrima")</f>
-        <v>lágrima</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B531, ""en"", ""pt"")"),"televisão")</f>
+        <v>televisão</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13508,11 +13490,11 @@
         <v>1008</v>
       </c>
       <c r="C529" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="D529" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B529, ""en"", ""pt"")"),"tecnologia")</f>
-        <v>tecnologia</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B532, ""en"", ""pt"")"),"temperatura")</f>
+        <v>temperatura</v>
       </c>
     </row>
     <row r="530" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13523,11 +13505,11 @@
         <v>1010</v>
       </c>
       <c r="C530" t="s">
-        <v>1525</v>
+        <v>1650</v>
       </c>
       <c r="D530" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B530, ""en"", ""pt"")"),"Telefone")</f>
-        <v>Telefone</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B533, ""en"", ""pt"")"),"dez")</f>
+        <v>dez</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13538,11 +13520,11 @@
         <v>1012</v>
       </c>
       <c r="C531" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="D531" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B531, ""en"", ""pt"")"),"televisão")</f>
-        <v>televisão</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B534, ""en"", ""pt"")"),"teatro")</f>
+        <v>teatro</v>
       </c>
     </row>
     <row r="532" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13553,11 +13535,11 @@
         <v>1014</v>
       </c>
       <c r="C532" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="D532" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B532, ""en"", ""pt"")"),"temperatura")</f>
-        <v>temperatura</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B535, ""en"", ""pt"")"),"eles")</f>
+        <v>eles</v>
       </c>
     </row>
     <row r="533" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13568,11 +13550,11 @@
         <v>1016</v>
       </c>
       <c r="C533" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="D533" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B533, ""en"", ""pt"")"),"dez")</f>
-        <v>dez</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B536, ""en"", ""pt"")"),"Grosso")</f>
+        <v>Grosso</v>
       </c>
     </row>
     <row r="534" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13583,11 +13565,11 @@
         <v>1018</v>
       </c>
       <c r="C534" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="D534" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B534, ""en"", ""pt"")"),"teatro")</f>
-        <v>teatro</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B537, ""en"", ""pt"")"),"fino")</f>
+        <v>fino</v>
       </c>
     </row>
     <row r="535" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13598,11 +13580,11 @@
         <v>1020</v>
       </c>
       <c r="C535" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="D535" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B535, ""en"", ""pt"")"),"eles")</f>
-        <v>eles</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B538, ""en"", ""pt"")"),"pensar")</f>
+        <v>pensar</v>
       </c>
     </row>
     <row r="536" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13613,11 +13595,11 @@
         <v>1022</v>
       </c>
       <c r="C536" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="D536" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B536, ""en"", ""pt"")"),"Grosso")</f>
-        <v>Grosso</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B539, ""en"", ""pt"")"),"terceiro")</f>
+        <v>terceiro</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13628,11 +13610,11 @@
         <v>1024</v>
       </c>
       <c r="C537" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="D537" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B537, ""en"", ""pt"")"),"fino")</f>
-        <v>fino</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B540, ""en"", ""pt"")"),"treze")</f>
+        <v>treze</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13643,11 +13625,11 @@
         <v>1026</v>
       </c>
       <c r="C538" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="D538" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B538, ""en"", ""pt"")"),"pensar")</f>
-        <v>pensar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B541, ""en"", ""pt"")"),"trinta")</f>
+        <v>trinta</v>
       </c>
     </row>
     <row r="539" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13658,11 +13640,11 @@
         <v>1028</v>
       </c>
       <c r="C539" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="D539" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B539, ""en"", ""pt"")"),"terceiro")</f>
-        <v>terceiro</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B542, ""en"", ""pt"")"),"mil")</f>
+        <v>mil</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13673,11 +13655,11 @@
         <v>1030</v>
       </c>
       <c r="C540" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="D540" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B540, ""en"", ""pt"")"),"treze")</f>
-        <v>treze</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B543, ""en"", ""pt"")"),"três")</f>
+        <v>três</v>
       </c>
     </row>
     <row r="541" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13688,11 +13670,11 @@
         <v>1032</v>
       </c>
       <c r="C541" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="D541" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B541, ""en"", ""pt"")"),"trinta")</f>
-        <v>trinta</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B544, ""en"", ""pt"")"),"lançar")</f>
+        <v>lançar</v>
       </c>
     </row>
     <row r="542" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13703,11 +13685,11 @@
         <v>1034</v>
       </c>
       <c r="C542" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="D542" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B542, ""en"", ""pt"")"),"mil")</f>
-        <v>mil</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B545, ""en"", ""pt"")"),"quinta-feira")</f>
+        <v>quinta-feira</v>
       </c>
     </row>
     <row r="543" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13718,11 +13700,11 @@
         <v>1036</v>
       </c>
       <c r="C543" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="D543" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B543, ""en"", ""pt"")"),"três")</f>
-        <v>três</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B546, ""en"", ""pt"")"),"bilhete")</f>
+        <v>bilhete</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13733,11 +13715,11 @@
         <v>1038</v>
       </c>
       <c r="C544" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="D544" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B544, ""en"", ""pt"")"),"lançar")</f>
-        <v>lançar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B547, ""en"", ""pt"")"),"justa")</f>
+        <v>justa</v>
       </c>
     </row>
     <row r="545" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13748,11 +13730,11 @@
         <v>1040</v>
       </c>
       <c r="C545" t="s">
-        <v>1670</v>
+        <v>1398</v>
       </c>
       <c r="D545" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B545, ""en"", ""pt"")"),"quinta-feira")</f>
-        <v>quinta-feira</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B548, ""en"", ""pt"")"),"Tempo")</f>
+        <v>Tempo</v>
       </c>
     </row>
     <row r="546" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13763,11 +13745,11 @@
         <v>1042</v>
       </c>
       <c r="C546" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="D546" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B546, ""en"", ""pt"")"),"bilhete")</f>
-        <v>bilhete</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B549, ""en"", ""pt"")"),"pneu")</f>
+        <v>pneu</v>
       </c>
     </row>
     <row r="547" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13778,11 +13760,11 @@
         <v>1044</v>
       </c>
       <c r="C547" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="D547" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B547, ""en"", ""pt"")"),"justa")</f>
-        <v>justa</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B550, ""en"", ""pt"")"),"dedo do pé")</f>
+        <v>dedo do pé</v>
       </c>
     </row>
     <row r="548" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13793,11 +13775,11 @@
         <v>1046</v>
       </c>
       <c r="C548" t="s">
-        <v>1404</v>
+        <v>1667</v>
       </c>
       <c r="D548" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B548, ""en"", ""pt"")"),"Tempo")</f>
-        <v>Tempo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B551, ""en"", ""pt"")"),"língua")</f>
+        <v>língua</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13808,11 +13790,11 @@
         <v>1048</v>
       </c>
       <c r="C549" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="D549" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B549, ""en"", ""pt"")"),"pneu")</f>
-        <v>pneu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B552, ""en"", ""pt"")"),"ferramenta")</f>
+        <v>ferramenta</v>
       </c>
     </row>
     <row r="550" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13823,11 +13805,11 @@
         <v>1050</v>
       </c>
       <c r="C550" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="D550" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B550, ""en"", ""pt"")"),"dedo do pé")</f>
-        <v>dedo do pé</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B553, ""en"", ""pt"")"),"dente")</f>
+        <v>dente</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13838,11 +13820,11 @@
         <v>1052</v>
       </c>
       <c r="C551" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="D551" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B551, ""en"", ""pt"")"),"língua")</f>
-        <v>língua</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B554, ""en"", ""pt"")"),"topo")</f>
+        <v>topo</v>
       </c>
     </row>
     <row r="552" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13853,11 +13835,11 @@
         <v>1054</v>
       </c>
       <c r="C552" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="D552" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B552, ""en"", ""pt"")"),"ferramenta")</f>
-        <v>ferramenta</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B555, ""en"", ""pt"")"),"toque")</f>
+        <v>toque</v>
       </c>
     </row>
     <row r="553" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13868,11 +13850,11 @@
         <v>1056</v>
       </c>
       <c r="C553" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="D553" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B553, ""en"", ""pt"")"),"dente")</f>
-        <v>dente</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B556, ""en"", ""pt"")"),"Cidade")</f>
+        <v>Cidade</v>
       </c>
     </row>
     <row r="554" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13883,56 +13865,56 @@
         <v>1058</v>
       </c>
       <c r="C554" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="D554" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B554, ""en"", ""pt"")"),"topo")</f>
-        <v>topo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B557, ""en"", ""pt"")"),"trem")</f>
+        <v>trem</v>
       </c>
     </row>
     <row r="555" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B555" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C555" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="D555" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B555, ""en"", ""pt"")"),"toque")</f>
-        <v>toque</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B558, ""en"", ""pt"")"),"trem")</f>
+        <v>trem</v>
       </c>
     </row>
     <row r="556" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B556" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C556" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="D556" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B556, ""en"", ""pt"")"),"Cidade")</f>
-        <v>Cidade</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B559, ""en"", ""pt"")"),"transporte")</f>
+        <v>transporte</v>
       </c>
     </row>
     <row r="557" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B557" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C557" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="D557" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B557, ""en"", ""pt"")"),"trem")</f>
-        <v>trem</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B560, ""en"", ""pt"")"),"árvore")</f>
+        <v>árvore</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13943,116 +13925,116 @@
         <v>1064</v>
       </c>
       <c r="C558" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="D558" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B558, ""en"", ""pt"")"),"trem")</f>
-        <v>trem</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B561, ""en"", ""pt"")"),"caminhão")</f>
+        <v>caminhão</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
+      <c r="A559" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B559" t="s">
         <v>1065</v>
       </c>
-      <c r="B559" t="s">
-        <v>1066</v>
-      </c>
       <c r="C559" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="D559" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B559, ""en"", ""pt"")"),"transporte")</f>
-        <v>transporte</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B562, ""en"", ""pt"")"),"terça")</f>
+        <v>terça</v>
       </c>
     </row>
     <row r="560" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B560" t="s">
         <v>1067</v>
       </c>
-      <c r="B560" t="s">
-        <v>1068</v>
-      </c>
       <c r="C560" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="D560" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B560, ""en"", ""pt"")"),"árvore")</f>
-        <v>árvore</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B563, ""en"", ""pt"")"),"virar")</f>
+        <v>virar</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B561" t="s">
         <v>1069</v>
       </c>
-      <c r="B561" t="s">
+      <c r="C561" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D561" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B564, ""en"", ""pt"")"),"doze")</f>
+        <v>doze</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
         <v>1070</v>
-      </c>
-      <c r="C561" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D561" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B561, ""en"", ""pt"")"),"caminhão")</f>
-        <v>caminhão</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A562" s="1" t="s">
-        <v>1751</v>
       </c>
       <c r="B562" t="s">
         <v>1071</v>
       </c>
       <c r="C562" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="D562" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B562, ""en"", ""pt"")"),"terça")</f>
-        <v>terça</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B565, ""en"", ""pt"")"),"vinte")</f>
+        <v>vinte</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B563" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C563" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="D563" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B563, ""en"", ""pt"")"),"virar")</f>
-        <v>virar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B566, ""en"", ""pt"")"),"vinte")</f>
+        <v>vinte</v>
       </c>
     </row>
     <row r="564" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B564" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C564" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="D564" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B564, ""en"", ""pt"")"),"doze")</f>
-        <v>doze</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B567, ""en"", ""pt"")"),"dois")</f>
+        <v>dois</v>
       </c>
     </row>
     <row r="565" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B565" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C565" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="D565" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B565, ""en"", ""pt"")"),"vinte")</f>
-        <v>vinte</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B568, ""en"", ""pt"")"),"feio")</f>
+        <v>feio</v>
       </c>
     </row>
     <row r="566" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14063,11 +14045,11 @@
         <v>1077</v>
       </c>
       <c r="C566" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="D566" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B566, ""en"", ""pt"")"),"vinte")</f>
-        <v>vinte</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B569, ""en"", ""pt"")"),"universidade")</f>
+        <v>universidade</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14078,56 +14060,56 @@
         <v>1079</v>
       </c>
       <c r="C567" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="D567" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B567, ""en"", ""pt"")"),"dois")</f>
-        <v>dois</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B570, ""en"", ""pt"")"),"acima")</f>
+        <v>acima</v>
       </c>
     </row>
     <row r="568" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B568" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C568" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="D568" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B568, ""en"", ""pt"")"),"feio")</f>
-        <v>feio</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B571, ""en"", ""pt"")"),"acima")</f>
+        <v>acima</v>
       </c>
     </row>
     <row r="569" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B569" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C569" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="D569" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B569, ""en"", ""pt"")"),"universidade")</f>
-        <v>universidade</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B572, ""en"", ""pt"")"),"vale")</f>
+        <v>vale</v>
       </c>
     </row>
     <row r="570" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B570" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C570" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="D570" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B570, ""en"", ""pt"")"),"acima")</f>
-        <v>acima</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B573, ""en"", ""pt"")"),"verbo")</f>
+        <v>verbo</v>
       </c>
     </row>
     <row r="571" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14138,11 +14120,11 @@
         <v>1085</v>
       </c>
       <c r="C571" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="D571" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B571, ""en"", ""pt"")"),"acima")</f>
-        <v>acima</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B574, ""en"", ""pt"")"),"vítima")</f>
+        <v>vítima</v>
       </c>
     </row>
     <row r="572" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14153,11 +14135,11 @@
         <v>1087</v>
       </c>
       <c r="C572" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="D572" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B572, ""en"", ""pt"")"),"vale")</f>
-        <v>vale</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B575, ""en"", ""pt"")"),"voz")</f>
+        <v>voz</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14168,11 +14150,11 @@
         <v>1089</v>
       </c>
       <c r="C573" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="D573" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B573, ""en"", ""pt"")"),"verbo")</f>
-        <v>verbo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B576, ""en"", ""pt"")"),"vogal")</f>
+        <v>vogal</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14183,11 +14165,11 @@
         <v>1091</v>
       </c>
       <c r="C574" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="D574" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B574, ""en"", ""pt"")"),"vítima")</f>
-        <v>vítima</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B577, ""en"", ""pt"")"),"garçom")</f>
+        <v>garçom</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14198,11 +14180,11 @@
         <v>1093</v>
       </c>
       <c r="C575" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="D575" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B575, ""en"", ""pt"")"),"voz")</f>
-        <v>voz</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B578, ""en"", ""pt"")"),"despertar")</f>
+        <v>despertar</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14213,11 +14195,11 @@
         <v>1095</v>
       </c>
       <c r="C576" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="D576" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B576, ""en"", ""pt"")"),"vogal")</f>
-        <v>vogal</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B579, ""en"", ""pt"")"),"andar")</f>
+        <v>andar</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14228,11 +14210,11 @@
         <v>1097</v>
       </c>
       <c r="C577" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="D577" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B577, ""en"", ""pt"")"),"garçom")</f>
-        <v>garçom</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B580, ""en"", ""pt"")"),"parede")</f>
+        <v>parede</v>
       </c>
     </row>
     <row r="578" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14243,11 +14225,11 @@
         <v>1099</v>
       </c>
       <c r="C578" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="D578" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B578, ""en"", ""pt"")"),"despertar")</f>
-        <v>despertar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B581, ""en"", ""pt"")"),"guerra")</f>
+        <v>guerra</v>
       </c>
     </row>
     <row r="579" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14258,11 +14240,11 @@
         <v>1101</v>
       </c>
       <c r="C579" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="D579" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B579, ""en"", ""pt"")"),"andar")</f>
-        <v>andar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B582, ""en"", ""pt"")"),"caloroso")</f>
+        <v>caloroso</v>
       </c>
     </row>
     <row r="580" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14273,11 +14255,11 @@
         <v>1103</v>
       </c>
       <c r="C580" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="D580" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B580, ""en"", ""pt"")"),"parede")</f>
-        <v>parede</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B583, ""en"", ""pt"")"),"lavar")</f>
+        <v>lavar</v>
       </c>
     </row>
     <row r="581" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14288,11 +14270,11 @@
         <v>1105</v>
       </c>
       <c r="C581" t="s">
-        <v>1702</v>
+        <v>1252</v>
       </c>
       <c r="D581" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B581, ""en"", ""pt"")"),"guerra")</f>
-        <v>guerra</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B584, ""en"", ""pt"")"),"ver")</f>
+        <v>ver</v>
       </c>
     </row>
     <row r="582" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14303,11 +14285,11 @@
         <v>1107</v>
       </c>
       <c r="C582" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="D582" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B582, ""en"", ""pt"")"),"caloroso")</f>
-        <v>caloroso</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B585, ""en"", ""pt"")"),"água")</f>
+        <v>água</v>
       </c>
     </row>
     <row r="583" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14318,11 +14300,11 @@
         <v>1109</v>
       </c>
       <c r="C583" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="D583" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B583, ""en"", ""pt"")"),"lavar")</f>
-        <v>lavar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B586, ""en"", ""pt"")"),"onda")</f>
+        <v>onda</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14333,11 +14315,11 @@
         <v>1111</v>
       </c>
       <c r="C584" t="s">
-        <v>1258</v>
+        <v>1699</v>
       </c>
       <c r="D584" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B584, ""en"", ""pt"")"),"ver")</f>
-        <v>ver</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B587, ""en"", ""pt"")"),"nós")</f>
+        <v>nós</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14348,11 +14330,11 @@
         <v>1113</v>
       </c>
       <c r="C585" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="D585" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B585, ""en"", ""pt"")"),"água")</f>
-        <v>água</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B588, ""en"", ""pt"")"),"fraco")</f>
+        <v>fraco</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14363,11 +14345,11 @@
         <v>1115</v>
       </c>
       <c r="C586" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="D586" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B586, ""en"", ""pt"")"),"onda")</f>
-        <v>onda</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B589, ""en"", ""pt"")"),"vestir")</f>
+        <v>vestir</v>
       </c>
     </row>
     <row r="587" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14378,71 +14360,71 @@
         <v>1117</v>
       </c>
       <c r="C587" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="D587" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B587, ""en"", ""pt"")"),"nós")</f>
-        <v>nós</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B590, ""en"", ""pt"")"),"Casamento")</f>
+        <v>Casamento</v>
       </c>
     </row>
     <row r="588" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
+      <c r="A588" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B588" t="s">
         <v>1118</v>
       </c>
-      <c r="B588" t="s">
-        <v>1119</v>
-      </c>
       <c r="C588" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="D588" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B588, ""en"", ""pt"")"),"fraco")</f>
-        <v>fraco</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B591, ""en"", ""pt"")"),"quarta-feira")</f>
+        <v>quarta-feira</v>
       </c>
     </row>
     <row r="589" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B589" t="s">
         <v>1120</v>
       </c>
-      <c r="B589" t="s">
-        <v>1121</v>
-      </c>
       <c r="C589" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="D589" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B589, ""en"", ""pt"")"),"vestir")</f>
-        <v>vestir</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B592, ""en"", ""pt"")"),"semana")</f>
+        <v>semana</v>
       </c>
     </row>
     <row r="590" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B590" t="s">
         <v>1122</v>
       </c>
-      <c r="B590" t="s">
+      <c r="C590" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D590" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B593, ""en"", ""pt"")"),"peso")</f>
+        <v>peso</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
         <v>1123</v>
-      </c>
-      <c r="C590" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D590" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B590, ""en"", ""pt"")"),"Casamento")</f>
-        <v>Casamento</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A591" s="1" t="s">
-        <v>1752</v>
       </c>
       <c r="B591" t="s">
         <v>1124</v>
       </c>
       <c r="C591" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="D591" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B591, ""en"", ""pt"")"),"quarta-feira")</f>
-        <v>quarta-feira</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B594, ""en"", ""pt"")"),"oeste")</f>
+        <v>oeste</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14453,11 +14435,11 @@
         <v>1126</v>
       </c>
       <c r="C592" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="D592" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B592, ""en"", ""pt"")"),"semana")</f>
-        <v>semana</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B595, ""en"", ""pt"")"),"molhado")</f>
+        <v>molhado</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14468,11 +14450,11 @@
         <v>1128</v>
       </c>
       <c r="C593" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="D593" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B593, ""en"", ""pt"")"),"peso")</f>
-        <v>peso</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B596, ""en"", ""pt"")"),"branco")</f>
+        <v>branco</v>
       </c>
     </row>
     <row r="594" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14483,11 +14465,11 @@
         <v>1130</v>
       </c>
       <c r="C594" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="D594" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B594, ""en"", ""pt"")"),"oeste")</f>
-        <v>oeste</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B597, ""en"", ""pt"")"),"Largo")</f>
+        <v>Largo</v>
       </c>
     </row>
     <row r="595" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14498,11 +14480,11 @@
         <v>1132</v>
       </c>
       <c r="C595" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="D595" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B595, ""en"", ""pt"")"),"molhado")</f>
-        <v>molhado</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B598, ""en"", ""pt"")"),"esposa")</f>
+        <v>esposa</v>
       </c>
     </row>
     <row r="596" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14513,11 +14495,11 @@
         <v>1134</v>
       </c>
       <c r="C596" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="D596" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B596, ""en"", ""pt"")"),"branco")</f>
-        <v>branco</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B599, ""en"", ""pt"")"),"ganhar")</f>
+        <v>ganhar</v>
       </c>
     </row>
     <row r="597" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14528,11 +14510,11 @@
         <v>1136</v>
       </c>
       <c r="C597" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="D597" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B597, ""en"", ""pt"")"),"Largo")</f>
-        <v>Largo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B600, ""en"", ""pt"")"),"vento")</f>
+        <v>vento</v>
       </c>
     </row>
     <row r="598" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14543,11 +14525,11 @@
         <v>1138</v>
       </c>
       <c r="C598" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="D598" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B598, ""en"", ""pt"")"),"esposa")</f>
-        <v>esposa</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B601, ""en"", ""pt"")"),"janela")</f>
+        <v>janela</v>
       </c>
     </row>
     <row r="599" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14558,11 +14540,11 @@
         <v>1140</v>
       </c>
       <c r="C599" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="D599" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B599, ""en"", ""pt"")"),"ganhar")</f>
-        <v>ganhar</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B602, ""en"", ""pt"")"),"vinho")</f>
+        <v>vinho</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14573,11 +14555,11 @@
         <v>1142</v>
       </c>
       <c r="C600" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="D600" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B600, ""en"", ""pt"")"),"vento")</f>
-        <v>vento</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B603, ""en"", ""pt"")"),"asa")</f>
+        <v>asa</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14588,11 +14570,11 @@
         <v>1144</v>
       </c>
       <c r="C601" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="D601" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B601, ""en"", ""pt"")"),"janela")</f>
-        <v>janela</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B604, ""en"", ""pt"")"),"inverno")</f>
+        <v>inverno</v>
       </c>
     </row>
     <row r="602" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14603,11 +14585,11 @@
         <v>1146</v>
       </c>
       <c r="C602" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="D602" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B602, ""en"", ""pt"")"),"vinho")</f>
-        <v>vinho</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B605, ""en"", ""pt"")"),"mulher")</f>
+        <v>mulher</v>
       </c>
     </row>
     <row r="603" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14618,11 +14600,11 @@
         <v>1148</v>
       </c>
       <c r="C603" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="D603" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B603, ""en"", ""pt"")"),"asa")</f>
-        <v>asa</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B606, ""en"", ""pt"")"),"madeira")</f>
+        <v>madeira</v>
       </c>
     </row>
     <row r="604" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14633,11 +14615,11 @@
         <v>1150</v>
       </c>
       <c r="C604" t="s">
-        <v>1724</v>
+        <v>1413</v>
       </c>
       <c r="D604" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B604, ""en"", ""pt"")"),"inverno")</f>
-        <v>inverno</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B607, ""en"", ""pt"")"),"trabalhos")</f>
+        <v>trabalhos</v>
       </c>
     </row>
     <row r="605" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14648,11 +14630,11 @@
         <v>1152</v>
       </c>
       <c r="C605" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="D605" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B605, ""en"", ""pt"")"),"mulher")</f>
-        <v>mulher</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B608, ""en"", ""pt"")"),"mundo")</f>
+        <v>mundo</v>
       </c>
     </row>
     <row r="606" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14663,11 +14645,11 @@
         <v>1154</v>
       </c>
       <c r="C606" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="D606" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B606, ""en"", ""pt"")"),"madeira")</f>
-        <v>madeira</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B609, ""en"", ""pt"")"),"escrever")</f>
+        <v>escrever</v>
       </c>
     </row>
     <row r="607" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14678,11 +14660,11 @@
         <v>1156</v>
       </c>
       <c r="C607" t="s">
-        <v>1419</v>
+        <v>1721</v>
       </c>
       <c r="D607" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B607, ""en"", ""pt"")"),"trabalhos")</f>
-        <v>trabalhos</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B610, ""en"", ""pt"")"),"Jardim")</f>
+        <v>Jardim</v>
       </c>
     </row>
     <row r="608" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14693,11 +14675,11 @@
         <v>1158</v>
       </c>
       <c r="C608" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="D608" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B608, ""en"", ""pt"")"),"mundo")</f>
-        <v>mundo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B611, ""en"", ""pt"")"),"ano")</f>
+        <v>ano</v>
       </c>
     </row>
     <row r="609" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14708,11 +14690,11 @@
         <v>1160</v>
       </c>
       <c r="C609" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="D609" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B609, ""en"", ""pt"")"),"escrever")</f>
-        <v>escrever</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B612, ""en"", ""pt"")"),"amarelo")</f>
+        <v>amarelo</v>
       </c>
     </row>
     <row r="610" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14723,11 +14705,11 @@
         <v>1162</v>
       </c>
       <c r="C610" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D610" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B610, ""en"", ""pt"")"),"Jardim")</f>
-        <v>Jardim</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B613, ""en"", ""pt"")"),"sim")</f>
+        <v>sim</v>
       </c>
     </row>
     <row r="611" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14738,11 +14720,11 @@
         <v>1164</v>
       </c>
       <c r="C611" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="D611" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B611, ""en"", ""pt"")"),"ano")</f>
-        <v>ano</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B614, ""en"", ""pt"")"),"vocês")</f>
+        <v>vocês</v>
       </c>
     </row>
     <row r="612" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14753,11 +14735,11 @@
         <v>1166</v>
       </c>
       <c r="C612" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="D612" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B612, ""en"", ""pt"")"),"amarelo")</f>
-        <v>amarelo</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B615, ""en"", ""pt"")"),"jovem")</f>
+        <v>jovem</v>
       </c>
     </row>
     <row r="613" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14768,54 +14750,9 @@
         <v>1168</v>
       </c>
       <c r="C613" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="D613" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B613, ""en"", ""pt"")"),"sim")</f>
-        <v>sim</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C614" t="s">
-        <v>1733</v>
-      </c>
-      <c r="D614" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B614, ""en"", ""pt"")"),"vocês")</f>
-        <v>vocês</v>
-      </c>
-    </row>
-    <row r="615" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B615" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C615" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D615" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B615, ""en"", ""pt"")"),"jovem")</f>
-        <v>jovem</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B616" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D616" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B616, ""en"", ""pt"")"),"zero")</f>
         <v>zero</v>
       </c>

--- a/625_words/data_set_flashcards.xlsx
+++ b/625_words/data_set_flashcards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NAPO\Desktop\languages_anki\625_words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD9EC9B-47A9-4A8C-9E37-55DB99514E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83FF6F-C626-4152-8453-51B5B2A516CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="144" windowWidth="7680" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="2211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="2207">
   <si>
     <t>&lt;img src="actor.jpg"&gt;</t>
   </si>
@@ -2872,12 +2872,6 @@
     <t>star</t>
   </si>
   <si>
-    <t>&lt;img src="stir.jpg"&gt;</t>
-  </si>
-  <si>
-    <t>stir</t>
-  </si>
-  <si>
     <t>&lt;img src="stone.jpg"&gt;</t>
   </si>
   <si>
@@ -4864,9 +4858,6 @@
     <t>estrella</t>
   </si>
   <si>
-    <t>remover</t>
-  </si>
-  <si>
     <t>Roca</t>
   </si>
   <si>
@@ -6320,9 +6311,6 @@
   </si>
   <si>
     <t>Estrela</t>
-  </si>
-  <si>
-    <t>mexer</t>
   </si>
   <si>
     <t>pedra</t>
@@ -6914,10 +6902,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D608"/>
+  <dimension ref="A1:D607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" workbookViewId="0">
-      <selection activeCell="E569" sqref="E569"/>
+    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
+      <selection activeCell="A499" sqref="A499:XFD499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6936,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -6947,10 +6935,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -6961,10 +6949,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -6975,10 +6963,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -6989,10 +6977,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D5" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7003,10 +6991,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D6" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7017,10 +7005,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D7" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7045,10 +7033,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="D9" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7059,24 +7047,24 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D10" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D11" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7087,10 +7075,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D12" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7101,10 +7089,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="D13" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7115,10 +7103,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="D14" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7129,10 +7117,10 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D15" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7143,24 +7131,24 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D16" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D17" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7171,10 +7159,10 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D18" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7185,10 +7173,10 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D19" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7199,10 +7187,10 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D20" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7213,10 +7201,10 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="D21" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7227,10 +7215,10 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D22" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7241,10 +7229,10 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D23" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7255,10 +7243,10 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D24" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7269,7 +7257,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
@@ -7283,10 +7271,10 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D26" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7297,10 +7285,10 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D27" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7314,7 +7302,7 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7325,10 +7313,10 @@
         <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D29" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7339,10 +7327,10 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D30" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7353,10 +7341,10 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D31" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7367,10 +7355,10 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D32" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7381,10 +7369,10 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D33" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7395,10 +7383,10 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D34" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7409,10 +7397,10 @@
         <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D35" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7423,10 +7411,10 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D36" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7437,10 +7425,10 @@
         <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D37" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7451,10 +7439,10 @@
         <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D38" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7465,10 +7453,10 @@
         <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D39" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7479,10 +7467,10 @@
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D40" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7493,10 +7481,10 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D41" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7507,10 +7495,10 @@
         <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D42" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7521,10 +7509,10 @@
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D43" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7535,10 +7523,10 @@
         <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D44" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7549,10 +7537,10 @@
         <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D45" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7563,10 +7551,10 @@
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D46" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7577,10 +7565,10 @@
         <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D47" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7591,10 +7579,10 @@
         <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D48" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7605,10 +7593,10 @@
         <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D49" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7619,10 +7607,10 @@
         <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D50" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7633,10 +7621,10 @@
         <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D51" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7647,10 +7635,10 @@
         <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D52" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7661,10 +7649,10 @@
         <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D53" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7675,10 +7663,10 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D54" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7689,10 +7677,10 @@
         <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D55" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7703,10 +7691,10 @@
         <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D56" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7717,10 +7705,10 @@
         <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D57" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7731,10 +7719,10 @@
         <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D58" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7745,10 +7733,10 @@
         <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D59" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7759,10 +7747,10 @@
         <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D60" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7773,10 +7761,10 @@
         <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D61" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7787,10 +7775,10 @@
         <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D62" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7801,10 +7789,10 @@
         <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D63" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7815,10 +7803,10 @@
         <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D64" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7829,10 +7817,10 @@
         <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D65" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7843,10 +7831,10 @@
         <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D66" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7857,10 +7845,10 @@
         <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D67" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7871,10 +7859,10 @@
         <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D68" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7885,10 +7873,10 @@
         <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D69" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7899,10 +7887,10 @@
         <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D70" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7913,10 +7901,10 @@
         <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D71" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7927,10 +7915,10 @@
         <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D72" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7941,10 +7929,10 @@
         <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D73" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7955,10 +7943,10 @@
         <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D74" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7969,7 +7957,7 @@
         <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D75" t="s">
         <v>145</v>
@@ -7983,10 +7971,10 @@
         <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D76" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -7997,10 +7985,10 @@
         <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D77" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8011,10 +7999,10 @@
         <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D78" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8025,10 +8013,10 @@
         <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D79" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8039,10 +8027,10 @@
         <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D80" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8053,10 +8041,10 @@
         <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D81" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8067,10 +8055,10 @@
         <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D82" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8081,10 +8069,10 @@
         <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="D83" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8095,10 +8083,10 @@
         <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D84" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8109,10 +8097,10 @@
         <v>165</v>
       </c>
       <c r="C85" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D85" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8123,10 +8111,10 @@
         <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D86" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8137,10 +8125,10 @@
         <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D87" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8151,10 +8139,10 @@
         <v>171</v>
       </c>
       <c r="C88" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D88" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8165,10 +8153,10 @@
         <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D89" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8179,10 +8167,10 @@
         <v>175</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8193,10 +8181,10 @@
         <v>175</v>
       </c>
       <c r="C91" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8207,10 +8195,10 @@
         <v>177</v>
       </c>
       <c r="C92" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D92" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8221,10 +8209,10 @@
         <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D93" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8235,10 +8223,10 @@
         <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D94" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8252,7 +8240,7 @@
         <v>183</v>
       </c>
       <c r="D95" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8263,10 +8251,10 @@
         <v>185</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D96" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8277,10 +8265,10 @@
         <v>187</v>
       </c>
       <c r="C97" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D97" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8291,10 +8279,10 @@
         <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D98" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8308,7 +8296,7 @@
         <v>191</v>
       </c>
       <c r="D99" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8319,10 +8307,10 @@
         <v>193</v>
       </c>
       <c r="C100" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D100" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8333,10 +8321,10 @@
         <v>195</v>
       </c>
       <c r="C101" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D101" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8347,10 +8335,10 @@
         <v>197</v>
       </c>
       <c r="C102" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D102" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8361,10 +8349,10 @@
         <v>199</v>
       </c>
       <c r="C103" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D103" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8375,10 +8363,10 @@
         <v>201</v>
       </c>
       <c r="C104" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D104" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8389,10 +8377,10 @@
         <v>203</v>
       </c>
       <c r="C105" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D105" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8403,10 +8391,10 @@
         <v>205</v>
       </c>
       <c r="C106" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D106" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8417,10 +8405,10 @@
         <v>207</v>
       </c>
       <c r="C107" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D107" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8431,10 +8419,10 @@
         <v>209</v>
       </c>
       <c r="C108" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D108" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8445,10 +8433,10 @@
         <v>211</v>
       </c>
       <c r="C109" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D109" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8459,10 +8447,10 @@
         <v>213</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="D110" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8473,10 +8461,10 @@
         <v>215</v>
       </c>
       <c r="C111" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D111" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8487,10 +8475,10 @@
         <v>217</v>
       </c>
       <c r="C112" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D112" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8501,10 +8489,10 @@
         <v>219</v>
       </c>
       <c r="C113" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D113" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8515,10 +8503,10 @@
         <v>221</v>
       </c>
       <c r="C114" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D114" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8529,10 +8517,10 @@
         <v>223</v>
       </c>
       <c r="C115" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D115" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8543,10 +8531,10 @@
         <v>225</v>
       </c>
       <c r="C116" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D116" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8557,10 +8545,10 @@
         <v>227</v>
       </c>
       <c r="C117" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D117" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8571,10 +8559,10 @@
         <v>229</v>
       </c>
       <c r="C118" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D118" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8585,10 +8573,10 @@
         <v>231</v>
       </c>
       <c r="C119" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D119" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8599,10 +8587,10 @@
         <v>233</v>
       </c>
       <c r="C120" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D120" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8613,10 +8601,10 @@
         <v>235</v>
       </c>
       <c r="C121" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D121" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8627,10 +8615,10 @@
         <v>237</v>
       </c>
       <c r="C122" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D122" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8641,10 +8629,10 @@
         <v>239</v>
       </c>
       <c r="C123" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D123" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8655,24 +8643,24 @@
         <v>241</v>
       </c>
       <c r="C124" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D124" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="B125" t="s">
         <v>242</v>
       </c>
       <c r="C125" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D125" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8683,10 +8671,10 @@
         <v>244</v>
       </c>
       <c r="C126" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D126" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8697,10 +8685,10 @@
         <v>246</v>
       </c>
       <c r="C127" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D127" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8711,10 +8699,10 @@
         <v>248</v>
       </c>
       <c r="C128" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D128" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8725,10 +8713,10 @@
         <v>250</v>
       </c>
       <c r="C129" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D129" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8739,10 +8727,10 @@
         <v>252</v>
       </c>
       <c r="C130" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D130" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8753,10 +8741,10 @@
         <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D131" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8767,10 +8755,10 @@
         <v>256</v>
       </c>
       <c r="C132" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D132" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8781,10 +8769,10 @@
         <v>258</v>
       </c>
       <c r="C133" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D133" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8798,7 +8786,7 @@
         <v>260</v>
       </c>
       <c r="D134" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8809,10 +8797,10 @@
         <v>262</v>
       </c>
       <c r="C135" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D135" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8823,10 +8811,10 @@
         <v>264</v>
       </c>
       <c r="C136" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D136" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8837,10 +8825,10 @@
         <v>266</v>
       </c>
       <c r="C137" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D137" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8851,10 +8839,10 @@
         <v>268</v>
       </c>
       <c r="C138" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D138" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8865,10 +8853,10 @@
         <v>270</v>
       </c>
       <c r="C139" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D139" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8879,10 +8867,10 @@
         <v>272</v>
       </c>
       <c r="C140" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D140" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8893,10 +8881,10 @@
         <v>274</v>
       </c>
       <c r="C141" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D141" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8907,10 +8895,10 @@
         <v>276</v>
       </c>
       <c r="C142" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D142" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8921,10 +8909,10 @@
         <v>278</v>
       </c>
       <c r="C143" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D143" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8935,10 +8923,10 @@
         <v>280</v>
       </c>
       <c r="C144" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D144" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8949,10 +8937,10 @@
         <v>282</v>
       </c>
       <c r="C145" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D145" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8963,10 +8951,10 @@
         <v>284</v>
       </c>
       <c r="C146" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D146" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8977,10 +8965,10 @@
         <v>286</v>
       </c>
       <c r="C147" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D147" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -8991,10 +8979,10 @@
         <v>288</v>
       </c>
       <c r="C148" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D148" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9005,10 +8993,10 @@
         <v>290</v>
       </c>
       <c r="C149" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="D149" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9019,10 +9007,10 @@
         <v>291</v>
       </c>
       <c r="C150" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D150" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9033,10 +9021,10 @@
         <v>293</v>
       </c>
       <c r="C151" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D151" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9047,10 +9035,10 @@
         <v>295</v>
       </c>
       <c r="C152" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D152" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9061,10 +9049,10 @@
         <v>297</v>
       </c>
       <c r="C153" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D153" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9075,10 +9063,10 @@
         <v>299</v>
       </c>
       <c r="C154" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D154" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9089,10 +9077,10 @@
         <v>301</v>
       </c>
       <c r="C155" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="D155" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9103,10 +9091,10 @@
         <v>303</v>
       </c>
       <c r="C156" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="D156" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9117,10 +9105,10 @@
         <v>305</v>
       </c>
       <c r="C157" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D157" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9131,10 +9119,10 @@
         <v>307</v>
       </c>
       <c r="C158" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D158" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9145,10 +9133,10 @@
         <v>309</v>
       </c>
       <c r="C159" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="D159" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9159,10 +9147,10 @@
         <v>311</v>
       </c>
       <c r="C160" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D160" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9173,10 +9161,10 @@
         <v>313</v>
       </c>
       <c r="C161" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D161" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9187,10 +9175,10 @@
         <v>315</v>
       </c>
       <c r="C162" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D162" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9201,10 +9189,10 @@
         <v>317</v>
       </c>
       <c r="C163" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D163" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9215,10 +9203,10 @@
         <v>319</v>
       </c>
       <c r="C164" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D164" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9229,10 +9217,10 @@
         <v>321</v>
       </c>
       <c r="C165" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D165" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9243,10 +9231,10 @@
         <v>323</v>
       </c>
       <c r="C166" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D166" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9257,10 +9245,10 @@
         <v>325</v>
       </c>
       <c r="C167" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D167" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9271,10 +9259,10 @@
         <v>327</v>
       </c>
       <c r="C168" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D168" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9285,10 +9273,10 @@
         <v>329</v>
       </c>
       <c r="C169" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D169" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9299,10 +9287,10 @@
         <v>329</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="D170" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9313,10 +9301,10 @@
         <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="D171" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9327,10 +9315,10 @@
         <v>333</v>
       </c>
       <c r="C172" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D172" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9341,10 +9329,10 @@
         <v>335</v>
       </c>
       <c r="C173" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D173" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9369,10 +9357,10 @@
         <v>337</v>
       </c>
       <c r="C175" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D175" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9383,10 +9371,10 @@
         <v>339</v>
       </c>
       <c r="C176" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D176" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9397,10 +9385,10 @@
         <v>341</v>
       </c>
       <c r="C177" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D177" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9411,10 +9399,10 @@
         <v>343</v>
       </c>
       <c r="C178" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D178" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9425,10 +9413,10 @@
         <v>345</v>
       </c>
       <c r="C179" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D179" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9439,10 +9427,10 @@
         <v>347</v>
       </c>
       <c r="C180" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D180" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9453,10 +9441,10 @@
         <v>349</v>
       </c>
       <c r="C181" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D181" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9467,10 +9455,10 @@
         <v>351</v>
       </c>
       <c r="C182" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D182" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9481,10 +9469,10 @@
         <v>353</v>
       </c>
       <c r="C183" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D183" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9495,10 +9483,10 @@
         <v>355</v>
       </c>
       <c r="C184" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D184" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9509,10 +9497,10 @@
         <v>357</v>
       </c>
       <c r="C185" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D185" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9523,10 +9511,10 @@
         <v>359</v>
       </c>
       <c r="C186" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D186" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9537,10 +9525,10 @@
         <v>361</v>
       </c>
       <c r="C187" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D187" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9551,10 +9539,10 @@
         <v>363</v>
       </c>
       <c r="C188" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D188" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9565,10 +9553,10 @@
         <v>365</v>
       </c>
       <c r="C189" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D189" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9579,10 +9567,10 @@
         <v>367</v>
       </c>
       <c r="C190" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D190" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9593,10 +9581,10 @@
         <v>369</v>
       </c>
       <c r="C191" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D191" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9607,10 +9595,10 @@
         <v>371</v>
       </c>
       <c r="C192" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="D192" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9621,10 +9609,10 @@
         <v>373</v>
       </c>
       <c r="C193" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D193" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9635,10 +9623,10 @@
         <v>375</v>
       </c>
       <c r="C194" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D194" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9649,10 +9637,10 @@
         <v>377</v>
       </c>
       <c r="C195" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D195" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9663,10 +9651,10 @@
         <v>379</v>
       </c>
       <c r="C196" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="D196" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9677,10 +9665,10 @@
         <v>381</v>
       </c>
       <c r="C197" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D197" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9691,10 +9679,10 @@
         <v>381</v>
       </c>
       <c r="C198" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D198" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9705,10 +9693,10 @@
         <v>383</v>
       </c>
       <c r="C199" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D199" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9719,10 +9707,10 @@
         <v>385</v>
       </c>
       <c r="C200" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D200" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9733,10 +9721,10 @@
         <v>387</v>
       </c>
       <c r="C201" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="D201" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9747,10 +9735,10 @@
         <v>389</v>
       </c>
       <c r="C202" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="D202" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9761,10 +9749,10 @@
         <v>391</v>
       </c>
       <c r="C203" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="D203" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9775,24 +9763,24 @@
         <v>393</v>
       </c>
       <c r="C204" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="D204" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="B205" t="s">
         <v>394</v>
       </c>
       <c r="C205" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="D205" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9803,10 +9791,10 @@
         <v>396</v>
       </c>
       <c r="C206" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="D206" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9817,10 +9805,10 @@
         <v>398</v>
       </c>
       <c r="C207" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D207" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9831,10 +9819,10 @@
         <v>400</v>
       </c>
       <c r="C208" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D208" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9845,10 +9833,10 @@
         <v>402</v>
       </c>
       <c r="C209" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D209" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9859,10 +9847,10 @@
         <v>404</v>
       </c>
       <c r="C210" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="D210" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9873,10 +9861,10 @@
         <v>406</v>
       </c>
       <c r="C211" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D211" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9887,10 +9875,10 @@
         <v>408</v>
       </c>
       <c r="C212" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="D212" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9901,10 +9889,10 @@
         <v>410</v>
       </c>
       <c r="C213" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D213" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9915,24 +9903,24 @@
         <v>412</v>
       </c>
       <c r="C214" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="D214" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="B215" t="s">
         <v>413</v>
       </c>
       <c r="C215" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="D215" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9943,10 +9931,10 @@
         <v>415</v>
       </c>
       <c r="C216" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D216" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9957,10 +9945,10 @@
         <v>417</v>
       </c>
       <c r="C217" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="D217" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9971,10 +9959,10 @@
         <v>419</v>
       </c>
       <c r="C218" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="D218" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9985,10 +9973,10 @@
         <v>421</v>
       </c>
       <c r="C219" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="D219" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -9999,10 +9987,10 @@
         <v>423</v>
       </c>
       <c r="C220" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D220" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10013,10 +10001,10 @@
         <v>425</v>
       </c>
       <c r="C221" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D221" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10027,10 +10015,10 @@
         <v>427</v>
       </c>
       <c r="C222" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="D222" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10041,10 +10029,10 @@
         <v>429</v>
       </c>
       <c r="C223" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="D223" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10055,10 +10043,10 @@
         <v>431</v>
       </c>
       <c r="C224" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="D224" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10069,10 +10057,10 @@
         <v>433</v>
       </c>
       <c r="C225" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="D225" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10083,10 +10071,10 @@
         <v>435</v>
       </c>
       <c r="C226" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D226" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10097,10 +10085,10 @@
         <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D227" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10111,10 +10099,10 @@
         <v>439</v>
       </c>
       <c r="C228" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="D228" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10125,10 +10113,10 @@
         <v>441</v>
       </c>
       <c r="C229" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="D229" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10139,10 +10127,10 @@
         <v>443</v>
       </c>
       <c r="C230" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D230" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10153,10 +10141,10 @@
         <v>445</v>
       </c>
       <c r="C231" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="D231" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10167,10 +10155,10 @@
         <v>447</v>
       </c>
       <c r="C232" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="D232" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10181,10 +10169,10 @@
         <v>449</v>
       </c>
       <c r="C233" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="D233" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10195,10 +10183,10 @@
         <v>451</v>
       </c>
       <c r="C234" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D234" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10209,10 +10197,10 @@
         <v>453</v>
       </c>
       <c r="C235" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D235" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10223,10 +10211,10 @@
         <v>455</v>
       </c>
       <c r="C236" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D236" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10237,10 +10225,10 @@
         <v>457</v>
       </c>
       <c r="C237" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D237" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10251,10 +10239,10 @@
         <v>459</v>
       </c>
       <c r="C238" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D238" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10265,10 +10253,10 @@
         <v>461</v>
       </c>
       <c r="C239" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="D239" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10279,10 +10267,10 @@
         <v>463</v>
       </c>
       <c r="C240" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="D240" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10293,10 +10281,10 @@
         <v>465</v>
       </c>
       <c r="C241" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="D241" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10307,10 +10295,10 @@
         <v>467</v>
       </c>
       <c r="C242" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D242" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10321,10 +10309,10 @@
         <v>469</v>
       </c>
       <c r="C243" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D243" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10335,10 +10323,10 @@
         <v>471</v>
       </c>
       <c r="C244" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D244" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10349,10 +10337,10 @@
         <v>473</v>
       </c>
       <c r="C245" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="D245" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10377,10 +10365,10 @@
         <v>477</v>
       </c>
       <c r="C247" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="D247" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10405,10 +10393,10 @@
         <v>481</v>
       </c>
       <c r="C249" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="D249" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10419,10 +10407,10 @@
         <v>483</v>
       </c>
       <c r="C250" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D250" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10433,10 +10421,10 @@
         <v>485</v>
       </c>
       <c r="C251" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="D251" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10447,10 +10435,10 @@
         <v>487</v>
       </c>
       <c r="C252" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D252" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10461,24 +10449,24 @@
         <v>489</v>
       </c>
       <c r="C253" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="D253" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="B254" t="s">
         <v>490</v>
       </c>
       <c r="C254" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D254" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10489,10 +10477,10 @@
         <v>492</v>
       </c>
       <c r="C255" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="D255" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10503,10 +10491,10 @@
         <v>494</v>
       </c>
       <c r="C256" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D256" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10517,10 +10505,10 @@
         <v>496</v>
       </c>
       <c r="C257" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="D257" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10531,10 +10519,10 @@
         <v>498</v>
       </c>
       <c r="C258" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D258" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10545,10 +10533,10 @@
         <v>500</v>
       </c>
       <c r="C259" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D259" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10559,10 +10547,10 @@
         <v>502</v>
       </c>
       <c r="C260" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D260" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10573,10 +10561,10 @@
         <v>504</v>
       </c>
       <c r="C261" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D261" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10587,24 +10575,24 @@
         <v>506</v>
       </c>
       <c r="C262" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="D262" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="B263" t="s">
         <v>507</v>
       </c>
       <c r="C263" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D263" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10615,10 +10603,10 @@
         <v>509</v>
       </c>
       <c r="C264" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D264" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10629,24 +10617,24 @@
         <v>511</v>
       </c>
       <c r="C265" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D265" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="B266" t="s">
         <v>512</v>
       </c>
       <c r="C266" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="D266" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10657,24 +10645,24 @@
         <v>514</v>
       </c>
       <c r="C267" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="D267" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="B268" t="s">
         <v>515</v>
       </c>
       <c r="C268" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D268" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10685,10 +10673,10 @@
         <v>517</v>
       </c>
       <c r="C269" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D269" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10699,10 +10687,10 @@
         <v>519</v>
       </c>
       <c r="C270" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="D270" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10713,10 +10701,10 @@
         <v>521</v>
       </c>
       <c r="C271" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="D271" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10727,10 +10715,10 @@
         <v>523</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="D272" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10741,10 +10729,10 @@
         <v>525</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="D273" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10755,10 +10743,10 @@
         <v>527</v>
       </c>
       <c r="C274" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="D274" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10769,10 +10757,10 @@
         <v>529</v>
       </c>
       <c r="C275" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D275" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10783,10 +10771,10 @@
         <v>531</v>
       </c>
       <c r="C276" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="D276" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10797,10 +10785,10 @@
         <v>533</v>
       </c>
       <c r="C277" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D277" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10811,10 +10799,10 @@
         <v>535</v>
       </c>
       <c r="C278" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="D278" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10825,10 +10813,10 @@
         <v>537</v>
       </c>
       <c r="C279" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="D279" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10839,10 +10827,10 @@
         <v>539</v>
       </c>
       <c r="C280" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="D280" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10853,10 +10841,10 @@
         <v>541</v>
       </c>
       <c r="C281" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D281" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10867,10 +10855,10 @@
         <v>543</v>
       </c>
       <c r="C282" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D282" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10881,10 +10869,10 @@
         <v>545</v>
       </c>
       <c r="C283" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="D283" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10895,10 +10883,10 @@
         <v>547</v>
       </c>
       <c r="C284" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D284" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10909,10 +10897,10 @@
         <v>549</v>
       </c>
       <c r="C285" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D285" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10923,10 +10911,10 @@
         <v>551</v>
       </c>
       <c r="C286" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="D286" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10937,10 +10925,10 @@
         <v>553</v>
       </c>
       <c r="C287" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D287" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10951,24 +10939,24 @@
         <v>555</v>
       </c>
       <c r="C288" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D288" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="D289" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -10979,7 +10967,7 @@
         <v>557</v>
       </c>
       <c r="C290" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D290" t="s">
         <v>557</v>
@@ -10993,10 +10981,10 @@
         <v>559</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11007,10 +10995,10 @@
         <v>559</v>
       </c>
       <c r="C292" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11021,10 +11009,10 @@
         <v>559</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="D293" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11035,10 +11023,10 @@
         <v>561</v>
       </c>
       <c r="C294" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D294" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11049,10 +11037,10 @@
         <v>563</v>
       </c>
       <c r="C295" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D295" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11063,10 +11051,10 @@
         <v>565</v>
       </c>
       <c r="C296" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="D296" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11077,10 +11065,10 @@
         <v>567</v>
       </c>
       <c r="C297" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="D297" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11091,10 +11079,10 @@
         <v>569</v>
       </c>
       <c r="C298" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="D298" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11105,10 +11093,10 @@
         <v>571</v>
       </c>
       <c r="C299" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="D299" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11119,10 +11107,10 @@
         <v>573</v>
       </c>
       <c r="C300" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="D300" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11133,10 +11121,10 @@
         <v>575</v>
       </c>
       <c r="C301" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="D301" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11147,10 +11135,10 @@
         <v>577</v>
       </c>
       <c r="C302" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D302" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11161,10 +11149,10 @@
         <v>579</v>
       </c>
       <c r="C303" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="D303" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11175,10 +11163,10 @@
         <v>581</v>
       </c>
       <c r="C304" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D304" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11189,10 +11177,10 @@
         <v>583</v>
       </c>
       <c r="C305" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D305" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11203,10 +11191,10 @@
         <v>585</v>
       </c>
       <c r="C306" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="D306" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11217,10 +11205,10 @@
         <v>587</v>
       </c>
       <c r="C307" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D307" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11231,10 +11219,10 @@
         <v>589</v>
       </c>
       <c r="C308" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="D308" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11245,24 +11233,24 @@
         <v>591</v>
       </c>
       <c r="C309" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D309" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="B310" t="s">
         <v>592</v>
       </c>
       <c r="C310" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D310" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11273,10 +11261,10 @@
         <v>594</v>
       </c>
       <c r="C311" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="D311" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11287,10 +11275,10 @@
         <v>596</v>
       </c>
       <c r="C312" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D312" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11301,10 +11289,10 @@
         <v>598</v>
       </c>
       <c r="C313" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D313" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11323,16 +11311,16 @@
     </row>
     <row r="315" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="B315" t="s">
         <v>601</v>
       </c>
       <c r="C315" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D315" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11343,10 +11331,10 @@
         <v>603</v>
       </c>
       <c r="C316" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D316" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11357,10 +11345,10 @@
         <v>605</v>
       </c>
       <c r="C317" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D317" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11371,10 +11359,10 @@
         <v>607</v>
       </c>
       <c r="C318" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D318" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11399,10 +11387,10 @@
         <v>611</v>
       </c>
       <c r="C320" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D320" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11413,10 +11401,10 @@
         <v>613</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="D321" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11427,10 +11415,10 @@
         <v>615</v>
       </c>
       <c r="C322" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D322" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11441,10 +11429,10 @@
         <v>617</v>
       </c>
       <c r="C323" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D323" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11455,24 +11443,24 @@
         <v>619</v>
       </c>
       <c r="C324" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D324" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="B325" t="s">
         <v>620</v>
       </c>
       <c r="C325" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D325" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11483,10 +11471,10 @@
         <v>622</v>
       </c>
       <c r="C326" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D326" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11497,10 +11485,10 @@
         <v>624</v>
       </c>
       <c r="C327" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D327" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11511,10 +11499,10 @@
         <v>626</v>
       </c>
       <c r="C328" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D328" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11525,10 +11513,10 @@
         <v>628</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="D329" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11539,10 +11527,10 @@
         <v>630</v>
       </c>
       <c r="C330" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D330" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11553,10 +11541,10 @@
         <v>632</v>
       </c>
       <c r="C331" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D331" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11567,10 +11555,10 @@
         <v>634</v>
       </c>
       <c r="C332" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D332" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11581,10 +11569,10 @@
         <v>636</v>
       </c>
       <c r="C333" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D333" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11595,10 +11583,10 @@
         <v>638</v>
       </c>
       <c r="C334" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="D334" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11609,10 +11597,10 @@
         <v>640</v>
       </c>
       <c r="C335" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="D335" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11623,10 +11611,10 @@
         <v>642</v>
       </c>
       <c r="C336" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="D336" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11637,10 +11625,10 @@
         <v>644</v>
       </c>
       <c r="C337" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D337" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11651,10 +11639,10 @@
         <v>646</v>
       </c>
       <c r="C338" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="D338" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11665,10 +11653,10 @@
         <v>648</v>
       </c>
       <c r="C339" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="D339" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11679,10 +11667,10 @@
         <v>650</v>
       </c>
       <c r="C340" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="D340" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11693,10 +11681,10 @@
         <v>652</v>
       </c>
       <c r="C341" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="D341" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11710,7 +11698,7 @@
         <v>792</v>
       </c>
       <c r="D342" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11721,10 +11709,10 @@
         <v>656</v>
       </c>
       <c r="C343" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D343" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11735,10 +11723,10 @@
         <v>658</v>
       </c>
       <c r="C344" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="D344" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11749,10 +11737,10 @@
         <v>660</v>
       </c>
       <c r="C345" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D345" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11763,10 +11751,10 @@
         <v>662</v>
       </c>
       <c r="C346" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D346" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11777,10 +11765,10 @@
         <v>664</v>
       </c>
       <c r="C347" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="D347" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11791,10 +11779,10 @@
         <v>666</v>
       </c>
       <c r="C348" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="D348" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11805,10 +11793,10 @@
         <v>668</v>
       </c>
       <c r="C349" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="D349" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11819,10 +11807,10 @@
         <v>670</v>
       </c>
       <c r="C350" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="D350" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11833,10 +11821,10 @@
         <v>672</v>
       </c>
       <c r="C351" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="D351" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11847,10 +11835,10 @@
         <v>674</v>
       </c>
       <c r="C352" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="D352" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11861,24 +11849,24 @@
         <v>676</v>
       </c>
       <c r="C353" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="D353" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="B354" t="s">
         <v>677</v>
       </c>
       <c r="C354" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="D354" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11903,10 +11891,10 @@
         <v>681</v>
       </c>
       <c r="C356" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="D356" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11917,24 +11905,24 @@
         <v>683</v>
       </c>
       <c r="C357" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="D357" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="B358" t="s">
         <v>684</v>
       </c>
       <c r="C358" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="D358" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11945,10 +11933,10 @@
         <v>686</v>
       </c>
       <c r="C359" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="D359" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11959,10 +11947,10 @@
         <v>688</v>
       </c>
       <c r="C360" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="D360" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11973,10 +11961,10 @@
         <v>690</v>
       </c>
       <c r="C361" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="D361" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11987,10 +11975,10 @@
         <v>690</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="D362" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12001,10 +11989,10 @@
         <v>692</v>
       </c>
       <c r="C363" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="D363" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12015,10 +12003,10 @@
         <v>694</v>
       </c>
       <c r="C364" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="D364" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12029,10 +12017,10 @@
         <v>696</v>
       </c>
       <c r="C365" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="D365" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12043,10 +12031,10 @@
         <v>696</v>
       </c>
       <c r="C366" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="D366" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12057,10 +12045,10 @@
         <v>698</v>
       </c>
       <c r="C367" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="D367" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12071,10 +12059,10 @@
         <v>700</v>
       </c>
       <c r="C368" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="D368" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12085,10 +12073,10 @@
         <v>702</v>
       </c>
       <c r="C369" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="D369" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12099,10 +12087,10 @@
         <v>704</v>
       </c>
       <c r="C370" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="D370" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12113,10 +12101,10 @@
         <v>706</v>
       </c>
       <c r="C371" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D371" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12127,10 +12115,10 @@
         <v>708</v>
       </c>
       <c r="C372" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="D372" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12141,10 +12129,10 @@
         <v>710</v>
       </c>
       <c r="C373" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D373" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12155,10 +12143,10 @@
         <v>712</v>
       </c>
       <c r="C374" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="D374" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12169,10 +12157,10 @@
         <v>714</v>
       </c>
       <c r="C375" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="D375" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12183,10 +12171,10 @@
         <v>716</v>
       </c>
       <c r="C376" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="D376" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12197,10 +12185,10 @@
         <v>718</v>
       </c>
       <c r="C377" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="D377" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12211,10 +12199,10 @@
         <v>720</v>
       </c>
       <c r="C378" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="D378" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12225,10 +12213,10 @@
         <v>722</v>
       </c>
       <c r="C379" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D379" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12239,10 +12227,10 @@
         <v>724</v>
       </c>
       <c r="C380" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="D380" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12253,10 +12241,10 @@
         <v>726</v>
       </c>
       <c r="C381" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="D381" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12267,10 +12255,10 @@
         <v>728</v>
       </c>
       <c r="C382" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="D382" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12281,10 +12269,10 @@
         <v>730</v>
       </c>
       <c r="C383" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="D383" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12295,10 +12283,10 @@
         <v>732</v>
       </c>
       <c r="C384" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="D384" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12309,10 +12297,10 @@
         <v>734</v>
       </c>
       <c r="C385" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="D385" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12323,10 +12311,10 @@
         <v>736</v>
       </c>
       <c r="C386" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="D386" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12337,10 +12325,10 @@
         <v>738</v>
       </c>
       <c r="C387" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="D387" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12351,10 +12339,10 @@
         <v>740</v>
       </c>
       <c r="C388" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="D388" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12365,10 +12353,10 @@
         <v>742</v>
       </c>
       <c r="C389" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="D389" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12379,10 +12367,10 @@
         <v>744</v>
       </c>
       <c r="C390" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="D390" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12393,10 +12381,10 @@
         <v>746</v>
       </c>
       <c r="C391" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="D391" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12407,10 +12395,10 @@
         <v>748</v>
       </c>
       <c r="C392" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="D392" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12421,10 +12409,10 @@
         <v>750</v>
       </c>
       <c r="C393" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="D393" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12435,10 +12423,10 @@
         <v>752</v>
       </c>
       <c r="C394" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="D394" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12449,10 +12437,10 @@
         <v>754</v>
       </c>
       <c r="C395" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="D395" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12463,10 +12451,10 @@
         <v>756</v>
       </c>
       <c r="C396" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="D396" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12477,10 +12465,10 @@
         <v>758</v>
       </c>
       <c r="C397" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="D397" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12491,10 +12479,10 @@
         <v>760</v>
       </c>
       <c r="C398" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="D398" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12505,10 +12493,10 @@
         <v>762</v>
       </c>
       <c r="C399" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="D399" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12519,10 +12507,10 @@
         <v>764</v>
       </c>
       <c r="C400" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="D400" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12533,10 +12521,10 @@
         <v>766</v>
       </c>
       <c r="C401" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="D401" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12547,10 +12535,10 @@
         <v>768</v>
       </c>
       <c r="C402" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="D402" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12561,10 +12549,10 @@
         <v>770</v>
       </c>
       <c r="C403" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="D403" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12575,10 +12563,10 @@
         <v>772</v>
       </c>
       <c r="C404" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D404" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12589,10 +12577,10 @@
         <v>774</v>
       </c>
       <c r="C405" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D405" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12603,10 +12591,10 @@
         <v>776</v>
       </c>
       <c r="C406" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="D406" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12617,10 +12605,10 @@
         <v>778</v>
       </c>
       <c r="C407" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="D407" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12631,10 +12619,10 @@
         <v>780</v>
       </c>
       <c r="C408" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D408" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12645,10 +12633,10 @@
         <v>782</v>
       </c>
       <c r="C409" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="D409" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12659,10 +12647,10 @@
         <v>784</v>
       </c>
       <c r="C410" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D410" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12673,10 +12661,10 @@
         <v>786</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="D411" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12687,10 +12675,10 @@
         <v>786</v>
       </c>
       <c r="C412" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12704,7 +12692,7 @@
         <v>788</v>
       </c>
       <c r="D413" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12715,10 +12703,10 @@
         <v>790</v>
       </c>
       <c r="C414" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="D414" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12729,10 +12717,10 @@
         <v>792</v>
       </c>
       <c r="C415" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="D415" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12743,10 +12731,10 @@
         <v>794</v>
       </c>
       <c r="C416" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="D416" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12757,10 +12745,10 @@
         <v>796</v>
       </c>
       <c r="C417" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D417" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12771,10 +12759,10 @@
         <v>798</v>
       </c>
       <c r="C418" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="D418" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12785,10 +12773,10 @@
         <v>800</v>
       </c>
       <c r="C419" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D419" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12799,10 +12787,10 @@
         <v>802</v>
       </c>
       <c r="C420" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D420" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12813,10 +12801,10 @@
         <v>804</v>
       </c>
       <c r="C421" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D421" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12827,10 +12815,10 @@
         <v>806</v>
       </c>
       <c r="C422" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D422" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12841,10 +12829,10 @@
         <v>808</v>
       </c>
       <c r="C423" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D423" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12855,10 +12843,10 @@
         <v>810</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12869,10 +12857,10 @@
         <v>812</v>
       </c>
       <c r="C425" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D425" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12883,10 +12871,10 @@
         <v>814</v>
       </c>
       <c r="C426" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D426" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12897,10 +12885,10 @@
         <v>816</v>
       </c>
       <c r="C427" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D427" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12911,10 +12899,10 @@
         <v>818</v>
       </c>
       <c r="C428" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="D428" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12925,10 +12913,10 @@
         <v>820</v>
       </c>
       <c r="C429" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D429" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12939,10 +12927,10 @@
         <v>822</v>
       </c>
       <c r="C430" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="D430" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12953,10 +12941,10 @@
         <v>824</v>
       </c>
       <c r="C431" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D431" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12967,10 +12955,10 @@
         <v>826</v>
       </c>
       <c r="C432" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="D432" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12981,10 +12969,10 @@
         <v>828</v>
       </c>
       <c r="C433" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D433" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -12995,10 +12983,10 @@
         <v>830</v>
       </c>
       <c r="C434" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D434" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13009,10 +12997,10 @@
         <v>832</v>
       </c>
       <c r="C435" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D435" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13023,10 +13011,10 @@
         <v>834</v>
       </c>
       <c r="C436" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D436" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13037,10 +13025,10 @@
         <v>836</v>
       </c>
       <c r="C437" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D437" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13051,10 +13039,10 @@
         <v>838</v>
       </c>
       <c r="C438" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D438" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13065,10 +13053,10 @@
         <v>840</v>
       </c>
       <c r="C439" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="D439" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13079,10 +13067,10 @@
         <v>840</v>
       </c>
       <c r="C440" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="D440" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13093,10 +13081,10 @@
         <v>842</v>
       </c>
       <c r="C441" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D441" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13107,10 +13095,10 @@
         <v>844</v>
       </c>
       <c r="C442" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D442" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13121,10 +13109,10 @@
         <v>846</v>
       </c>
       <c r="C443" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D443" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13135,24 +13123,24 @@
         <v>848</v>
       </c>
       <c r="C444" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D444" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="B445" t="s">
         <v>849</v>
       </c>
       <c r="C445" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D445" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13163,10 +13151,10 @@
         <v>851</v>
       </c>
       <c r="C446" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="D446" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13177,10 +13165,10 @@
         <v>853</v>
       </c>
       <c r="C447" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="D447" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13191,10 +13179,10 @@
         <v>855</v>
       </c>
       <c r="C448" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D448" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13205,10 +13193,10 @@
         <v>857</v>
       </c>
       <c r="C449" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D449" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13219,10 +13207,10 @@
         <v>857</v>
       </c>
       <c r="C450" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D450" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13233,10 +13221,10 @@
         <v>859</v>
       </c>
       <c r="C451" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D451" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13247,10 +13235,10 @@
         <v>861</v>
       </c>
       <c r="C452" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D452" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13261,10 +13249,10 @@
         <v>863</v>
       </c>
       <c r="C453" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D453" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13275,10 +13263,10 @@
         <v>865</v>
       </c>
       <c r="C454" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="D454" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13289,10 +13277,10 @@
         <v>867</v>
       </c>
       <c r="C455" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D455" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13303,10 +13291,10 @@
         <v>869</v>
       </c>
       <c r="C456" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="D456" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13317,7 +13305,7 @@
         <v>871</v>
       </c>
       <c r="C457" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="D457" t="s">
         <v>871</v>
@@ -13331,10 +13319,10 @@
         <v>873</v>
       </c>
       <c r="C458" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D458" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13345,10 +13333,10 @@
         <v>873</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13359,10 +13347,10 @@
         <v>875</v>
       </c>
       <c r="C460" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D460" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13373,10 +13361,10 @@
         <v>877</v>
       </c>
       <c r="C461" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D461" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13387,10 +13375,10 @@
         <v>879</v>
       </c>
       <c r="C462" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D462" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13401,10 +13389,10 @@
         <v>881</v>
       </c>
       <c r="C463" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13415,10 +13403,10 @@
         <v>881</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13429,10 +13417,10 @@
         <v>883</v>
       </c>
       <c r="C465" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D465" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13443,10 +13431,10 @@
         <v>885</v>
       </c>
       <c r="C466" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D466" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13457,10 +13445,10 @@
         <v>887</v>
       </c>
       <c r="C467" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D467" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13471,10 +13459,10 @@
         <v>889</v>
       </c>
       <c r="C468" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D468" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13485,10 +13473,10 @@
         <v>891</v>
       </c>
       <c r="C469" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D469" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13499,10 +13487,10 @@
         <v>893</v>
       </c>
       <c r="C470" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D470" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13513,10 +13501,10 @@
         <v>895</v>
       </c>
       <c r="C471" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D471" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13527,10 +13515,10 @@
         <v>897</v>
       </c>
       <c r="C472" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="D472" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13541,10 +13529,10 @@
         <v>899</v>
       </c>
       <c r="C473" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D473" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13555,10 +13543,10 @@
         <v>901</v>
       </c>
       <c r="C474" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="D474" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13569,10 +13557,10 @@
         <v>903</v>
       </c>
       <c r="C475" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D475" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13583,10 +13571,10 @@
         <v>905</v>
       </c>
       <c r="C476" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D476" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13597,10 +13585,10 @@
         <v>907</v>
       </c>
       <c r="C477" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D477" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13611,10 +13599,10 @@
         <v>909</v>
       </c>
       <c r="C478" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D478" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13625,10 +13613,10 @@
         <v>911</v>
       </c>
       <c r="C479" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="D479" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13639,10 +13627,10 @@
         <v>913</v>
       </c>
       <c r="C480" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D480" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13653,10 +13641,10 @@
         <v>915</v>
       </c>
       <c r="C481" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D481" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13667,10 +13655,10 @@
         <v>917</v>
       </c>
       <c r="C482" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D482" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13681,10 +13669,10 @@
         <v>919</v>
       </c>
       <c r="C483" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="D483" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13695,10 +13683,10 @@
         <v>921</v>
       </c>
       <c r="C484" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D484" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13709,10 +13697,10 @@
         <v>923</v>
       </c>
       <c r="C485" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="D485" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13723,10 +13711,10 @@
         <v>925</v>
       </c>
       <c r="C486" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D486" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13737,10 +13725,10 @@
         <v>927</v>
       </c>
       <c r="C487" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D487" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13751,10 +13739,10 @@
         <v>929</v>
       </c>
       <c r="C488" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="D488" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13765,10 +13753,10 @@
         <v>931</v>
       </c>
       <c r="C489" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="D489" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13779,10 +13767,10 @@
         <v>933</v>
       </c>
       <c r="C490" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D490" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13793,10 +13781,10 @@
         <v>935</v>
       </c>
       <c r="C491" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D491" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13807,10 +13795,10 @@
         <v>937</v>
       </c>
       <c r="C492" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D492" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13821,10 +13809,10 @@
         <v>939</v>
       </c>
       <c r="C493" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D493" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13835,10 +13823,10 @@
         <v>941</v>
       </c>
       <c r="C494" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D494" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13849,10 +13837,10 @@
         <v>943</v>
       </c>
       <c r="C495" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D495" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13863,10 +13851,10 @@
         <v>945</v>
       </c>
       <c r="C496" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D496" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13877,10 +13865,10 @@
         <v>947</v>
       </c>
       <c r="C497" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D497" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13891,10 +13879,10 @@
         <v>949</v>
       </c>
       <c r="C498" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D498" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13905,10 +13893,10 @@
         <v>951</v>
       </c>
       <c r="C499" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D499" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13919,10 +13907,10 @@
         <v>953</v>
       </c>
       <c r="C500" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D500" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13933,10 +13921,10 @@
         <v>955</v>
       </c>
       <c r="C501" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D501" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13947,10 +13935,10 @@
         <v>957</v>
       </c>
       <c r="C502" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D502" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13961,10 +13949,10 @@
         <v>959</v>
       </c>
       <c r="C503" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D503" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13975,10 +13963,10 @@
         <v>961</v>
       </c>
       <c r="C504" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D504" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -13989,10 +13977,10 @@
         <v>963</v>
       </c>
       <c r="C505" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D505" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="506" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14003,10 +13991,10 @@
         <v>965</v>
       </c>
       <c r="C506" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D506" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14017,10 +14005,10 @@
         <v>967</v>
       </c>
       <c r="C507" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D507" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14031,10 +14019,10 @@
         <v>969</v>
       </c>
       <c r="C508" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D508" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="509" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14045,38 +14033,38 @@
         <v>971</v>
       </c>
       <c r="C509" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D509" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B510" t="s">
         <v>972</v>
       </c>
-      <c r="B510" t="s">
-        <v>973</v>
-      </c>
       <c r="C510" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D510" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1748</v>
+        <v>973</v>
       </c>
       <c r="B511" t="s">
         <v>974</v>
       </c>
       <c r="C511" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="D511" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="512" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14087,38 +14075,38 @@
         <v>976</v>
       </c>
       <c r="C512" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D512" t="s">
-        <v>2113</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="513" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
+      <c r="A513" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B513" t="s">
         <v>977</v>
       </c>
-      <c r="B513" t="s">
+      <c r="C513" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
         <v>978</v>
-      </c>
-      <c r="C513" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D513" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
-        <v>1732</v>
       </c>
       <c r="B514" t="s">
         <v>979</v>
       </c>
       <c r="C514" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D514" t="s">
-        <v>1629</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="515" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14129,10 +14117,10 @@
         <v>981</v>
       </c>
       <c r="C515" t="s">
-        <v>1630</v>
+        <v>1383</v>
       </c>
       <c r="D515" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="516" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14143,10 +14131,10 @@
         <v>983</v>
       </c>
       <c r="C516" t="s">
-        <v>1385</v>
+        <v>1628</v>
       </c>
       <c r="D516" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14157,10 +14145,10 @@
         <v>985</v>
       </c>
       <c r="C517" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D517" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="518" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14171,10 +14159,10 @@
         <v>987</v>
       </c>
       <c r="C518" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="D518" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="519" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14185,10 +14173,10 @@
         <v>989</v>
       </c>
       <c r="C519" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D519" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="520" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14199,10 +14187,10 @@
         <v>991</v>
       </c>
       <c r="C520" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D520" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="521" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14213,10 +14201,10 @@
         <v>993</v>
       </c>
       <c r="C521" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D521" t="s">
-        <v>2120</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="522" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14227,10 +14215,10 @@
         <v>995</v>
       </c>
       <c r="C522" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D522" t="s">
-        <v>1636</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14241,10 +14229,10 @@
         <v>997</v>
       </c>
       <c r="C523" t="s">
-        <v>1637</v>
+        <v>1508</v>
       </c>
       <c r="D523" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="524" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14255,10 +14243,10 @@
         <v>999</v>
       </c>
       <c r="C524" t="s">
-        <v>1510</v>
+        <v>1635</v>
       </c>
       <c r="D524" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14269,10 +14257,10 @@
         <v>1001</v>
       </c>
       <c r="C525" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D525" t="s">
-        <v>2123</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="526" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14283,10 +14271,10 @@
         <v>1003</v>
       </c>
       <c r="C526" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D526" t="s">
-        <v>1639</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="527" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14297,10 +14285,10 @@
         <v>1005</v>
       </c>
       <c r="C527" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D527" t="s">
-        <v>2124</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="528" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14311,10 +14299,10 @@
         <v>1007</v>
       </c>
       <c r="C528" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D528" t="s">
-        <v>1641</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14325,10 +14313,10 @@
         <v>1009</v>
       </c>
       <c r="C529" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D529" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="530" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14339,10 +14327,10 @@
         <v>1011</v>
       </c>
       <c r="C530" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="D530" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14353,10 +14341,10 @@
         <v>1013</v>
       </c>
       <c r="C531" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D531" t="s">
-        <v>2127</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="532" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14367,10 +14355,10 @@
         <v>1015</v>
       </c>
       <c r="C532" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D532" t="s">
-        <v>1645</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="533" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14381,10 +14369,10 @@
         <v>1017</v>
       </c>
       <c r="C533" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D533" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="534" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14395,10 +14383,10 @@
         <v>1019</v>
       </c>
       <c r="C534" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D534" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="535" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14409,10 +14397,10 @@
         <v>1021</v>
       </c>
       <c r="C535" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D535" t="s">
-        <v>2130</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="536" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14423,10 +14411,10 @@
         <v>1023</v>
       </c>
       <c r="C536" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D536" t="s">
-        <v>1649</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14437,38 +14425,38 @@
         <v>1025</v>
       </c>
       <c r="C537" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="D537" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B538" t="s">
         <v>1026</v>
       </c>
-      <c r="B538" t="s">
-        <v>1027</v>
-      </c>
       <c r="C538" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="D538" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="539" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1747</v>
+        <v>1027</v>
       </c>
       <c r="B539" t="s">
         <v>1028</v>
       </c>
       <c r="C539" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D539" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14479,10 +14467,10 @@
         <v>1030</v>
       </c>
       <c r="C540" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D540" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="541" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14493,10 +14481,10 @@
         <v>1032</v>
       </c>
       <c r="C541" t="s">
-        <v>1654</v>
+        <v>1388</v>
       </c>
       <c r="D541" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="542" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14507,10 +14495,10 @@
         <v>1034</v>
       </c>
       <c r="C542" t="s">
-        <v>1390</v>
+        <v>1652</v>
       </c>
       <c r="D542" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="543" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14521,10 +14509,10 @@
         <v>1036</v>
       </c>
       <c r="C543" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="D543" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14535,10 +14523,10 @@
         <v>1038</v>
       </c>
       <c r="C544" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="D544" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="545" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14549,10 +14537,10 @@
         <v>1040</v>
       </c>
       <c r="C545" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="D545" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="546" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14563,10 +14551,10 @@
         <v>1042</v>
       </c>
       <c r="C546" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D546" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="547" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14577,10 +14565,10 @@
         <v>1044</v>
       </c>
       <c r="C547" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="D547" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="548" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14591,10 +14579,10 @@
         <v>1046</v>
       </c>
       <c r="C548" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D548" t="s">
-        <v>2142</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14605,10 +14593,10 @@
         <v>1048</v>
       </c>
       <c r="C549" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D549" t="s">
-        <v>1661</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="550" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14619,38 +14607,38 @@
         <v>1050</v>
       </c>
       <c r="C550" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D550" t="s">
-        <v>2143</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
+      <c r="A551" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D551" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
         <v>1051</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B552" t="s">
         <v>1052</v>
       </c>
-      <c r="C551" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D551" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A552" s="1" t="s">
-        <v>2210</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>2204</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>2207</v>
+      <c r="C552" t="s">
+        <v>1661</v>
       </c>
       <c r="D552" t="s">
-        <v>2206</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="553" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14661,10 +14649,10 @@
         <v>1054</v>
       </c>
       <c r="C553" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D553" t="s">
-        <v>1664</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="554" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14675,38 +14663,38 @@
         <v>1056</v>
       </c>
       <c r="C554" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D554" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="555" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
+      <c r="A555" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B555" t="s">
         <v>1057</v>
       </c>
-      <c r="B555" t="s">
+      <c r="C555" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D555" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
         <v>1058</v>
-      </c>
-      <c r="C555" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D555" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
-        <v>1733</v>
       </c>
       <c r="B556" t="s">
         <v>1059</v>
       </c>
       <c r="C556" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D556" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="557" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14717,10 +14705,10 @@
         <v>1061</v>
       </c>
       <c r="C557" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D557" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14731,10 +14719,10 @@
         <v>1063</v>
       </c>
       <c r="C558" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="D558" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14745,10 +14733,10 @@
         <v>1065</v>
       </c>
       <c r="C559" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D559" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="560" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14759,10 +14747,10 @@
         <v>1067</v>
       </c>
       <c r="C560" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D560" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14773,10 +14761,10 @@
         <v>1069</v>
       </c>
       <c r="C561" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D561" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14787,10 +14775,10 @@
         <v>1071</v>
       </c>
       <c r="C562" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D562" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14801,10 +14789,10 @@
         <v>1073</v>
       </c>
       <c r="C563" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D563" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="564" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14815,10 +14803,10 @@
         <v>1075</v>
       </c>
       <c r="C564" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="D564" t="s">
-        <v>2154</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="565" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14829,10 +14817,10 @@
         <v>1077</v>
       </c>
       <c r="C565" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="D565" t="s">
-        <v>1676</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="566" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14843,10 +14831,10 @@
         <v>1079</v>
       </c>
       <c r="C566" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="D566" t="s">
-        <v>2155</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14857,10 +14845,10 @@
         <v>1081</v>
       </c>
       <c r="C567" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="D567" t="s">
-        <v>1678</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="568" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14871,38 +14859,38 @@
         <v>1083</v>
       </c>
       <c r="C568" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D568" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C570" t="s">
         <v>1679</v>
       </c>
-      <c r="D568" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B569" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C569" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D569" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A570" s="1" t="s">
-        <v>2209</v>
-      </c>
-      <c r="B570" s="1" t="s">
-        <v>2208</v>
-      </c>
-      <c r="C570" t="s">
-        <v>1681</v>
-      </c>
       <c r="D570" t="s">
-        <v>1681</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="571" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14913,10 +14901,10 @@
         <v>1087</v>
       </c>
       <c r="C571" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D571" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="572" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14927,10 +14915,10 @@
         <v>1089</v>
       </c>
       <c r="C572" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D572" t="s">
-        <v>2159</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14941,10 +14929,10 @@
         <v>1091</v>
       </c>
       <c r="C573" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D573" t="s">
-        <v>1684</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14955,10 +14943,10 @@
         <v>1093</v>
       </c>
       <c r="C574" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="D574" t="s">
-        <v>2160</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14969,10 +14957,10 @@
         <v>1095</v>
       </c>
       <c r="C575" t="s">
-        <v>1686</v>
+        <v>1242</v>
       </c>
       <c r="D575" t="s">
-        <v>1686</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14983,10 +14971,10 @@
         <v>1097</v>
       </c>
       <c r="C576" t="s">
-        <v>1244</v>
+        <v>1684</v>
       </c>
       <c r="D576" t="s">
-        <v>1563</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -14997,10 +14985,10 @@
         <v>1099</v>
       </c>
       <c r="C577" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D577" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="578" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15011,10 +14999,10 @@
         <v>1101</v>
       </c>
       <c r="C578" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D578" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="579" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15025,10 +15013,10 @@
         <v>1103</v>
       </c>
       <c r="C579" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D579" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="580" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15039,10 +15027,10 @@
         <v>1105</v>
       </c>
       <c r="C580" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D580" t="s">
-        <v>2164</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="581" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15053,38 +15041,38 @@
         <v>1107</v>
       </c>
       <c r="C581" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D581" t="s">
-        <v>1691</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="582" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
+      <c r="A582" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B582" t="s">
         <v>1108</v>
       </c>
-      <c r="B582" t="s">
+      <c r="C582" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D582" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
         <v>1109</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D582" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A583" s="1" t="s">
-        <v>1734</v>
       </c>
       <c r="B583" t="s">
         <v>1110</v>
       </c>
       <c r="C583" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D583" t="s">
-        <v>2166</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15095,10 +15083,10 @@
         <v>1112</v>
       </c>
       <c r="C584" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D584" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15109,10 +15097,10 @@
         <v>1114</v>
       </c>
       <c r="C585" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D585" t="s">
-        <v>1695</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15123,10 +15111,10 @@
         <v>1116</v>
       </c>
       <c r="C586" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D586" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="587" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15137,10 +15125,10 @@
         <v>1118</v>
       </c>
       <c r="C587" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D587" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="588" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15151,10 +15139,10 @@
         <v>1120</v>
       </c>
       <c r="C588" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D588" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="589" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15165,10 +15153,10 @@
         <v>1122</v>
       </c>
       <c r="C589" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D589" t="s">
-        <v>2170</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="590" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15179,10 +15167,10 @@
         <v>1124</v>
       </c>
       <c r="C590" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D590" t="s">
-        <v>1700</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="591" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15193,10 +15181,10 @@
         <v>1126</v>
       </c>
       <c r="C591" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D591" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15207,10 +15195,10 @@
         <v>1128</v>
       </c>
       <c r="C592" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="D592" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15221,10 +15209,10 @@
         <v>1130</v>
       </c>
       <c r="C593" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="D593" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="594" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15235,10 +15223,10 @@
         <v>1132</v>
       </c>
       <c r="C594" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D594" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="595" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15249,10 +15237,10 @@
         <v>1134</v>
       </c>
       <c r="C595" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D595" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="596" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15263,10 +15251,10 @@
         <v>1136</v>
       </c>
       <c r="C596" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D596" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="597" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15277,10 +15265,10 @@
         <v>1138</v>
       </c>
       <c r="C597" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D597" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="598" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15291,10 +15279,10 @@
         <v>1140</v>
       </c>
       <c r="C598" t="s">
-        <v>1708</v>
+        <v>1403</v>
       </c>
       <c r="D598" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="599" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15305,10 +15293,10 @@
         <v>1142</v>
       </c>
       <c r="C599" t="s">
-        <v>1405</v>
+        <v>1706</v>
       </c>
       <c r="D599" t="s">
-        <v>2179</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15319,10 +15307,10 @@
         <v>1144</v>
       </c>
       <c r="C600" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D600" t="s">
-        <v>1709</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15333,10 +15321,10 @@
         <v>1146</v>
       </c>
       <c r="C601" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D601" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="602" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15347,10 +15335,10 @@
         <v>1148</v>
       </c>
       <c r="C602" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D602" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="603" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15361,10 +15349,10 @@
         <v>1150</v>
       </c>
       <c r="C603" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D603" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="604" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15375,10 +15363,10 @@
         <v>1152</v>
       </c>
       <c r="C604" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D604" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="605" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15389,10 +15377,10 @@
         <v>1154</v>
       </c>
       <c r="C605" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D605" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="606" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15403,10 +15391,10 @@
         <v>1156</v>
       </c>
       <c r="C606" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D606" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="607" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -15417,24 +15405,10 @@
         <v>1158</v>
       </c>
       <c r="C607" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D607" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B608" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C608" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D608" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
